--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbodd/Desktop/School/Spring2020/CSC258/flat-out-rust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CDCDC1-9405-B74E-9D41-A2602DC3826E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F3A928-FC48-CA42-BAD8-B8298C15AED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28780" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="3" xr2:uid="{E348832D-AF6B-1E46-B83B-892A2DF636A6}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Rust - Dequeue" sheetId="2" r:id="rId2"/>
     <sheet name="Rust - EnqDeq" sheetId="3" r:id="rId3"/>
     <sheet name="Rust - FG - EnqDeq" sheetId="4" r:id="rId4"/>
+    <sheet name="MSQ - EnqDeq" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="85">
   <si>
     <t>Seq</t>
   </si>
@@ -592,6 +593,462 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D533-BF44-A3C5-C3FB753826D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1714283168"/>
+        <c:axId val="1714315648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1714283168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714315648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1714315648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714283168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Enqueue/Dequeue Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rust - EnqDeq'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Millisecond Avgs:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rust - EnqDeq'!$O$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MSQ - EnqDeq'!$O$22:$X$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>44.110233000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.986531200000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.573645399999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.80136379999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.915137200000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.07837000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103.4147416</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104.25007240000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104.21498800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F956-CD46-9536-CDB5135906C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3139,7 +3596,1567 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Function Level Enqueue Dequeue Avgs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WaitUnfilFulfilled</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$G$2,'Rust - FG - EnqDeq'!$J$2,'Rust - FG - EnqDeq'!$M$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$G$8,'Rust - FG - EnqDeq'!$J$8,'Rust - FG - EnqDeq'!$M$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.4763209446999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.177211997821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.443452737422946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E302-CF4A-8BC1-C93331B5BBDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DoFlatCombining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$G$2,'Rust - FG - EnqDeq'!$J$2,'Rust - FG - EnqDeq'!$M$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$E$8,'Rust - FG - EnqDeq'!$H$8,'Rust - FG - EnqDeq'!$K$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4092193191999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3741512068226462E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33771844477936824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E302-CF4A-8BC1-C93331B5BBDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LinkInCombining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$G$2,'Rust - FG - EnqDeq'!$J$2,'Rust - FG - EnqDeq'!$M$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$F$8,'Rust - FG - EnqDeq'!$I$8,'Rust - FG - EnqDeq'!$L$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.4763209446999981E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5040087207000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51111985087055689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E302-CF4A-8BC1-C93331B5BBDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1732535744"/>
+        <c:axId val="1730466080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1732535744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1730466080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1730466080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732535744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Function Level Enqueue Dequeue Max</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>WaitUnfilFulfilled</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$G$2,'Rust - FG - EnqDeq'!$J$2,'Rust - FG - EnqDeq'!$M$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$G$16,'Rust - FG - EnqDeq'!$J$16,'Rust - FG - EnqDeq'!$M$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27.016087600000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2196447999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.936793199999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E833-6343-81A1-5B27FAC8AB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DoFlatCombining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$G$2,'Rust - FG - EnqDeq'!$J$2,'Rust - FG - EnqDeq'!$M$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$E$16,'Rust - FG - EnqDeq'!$H$16,'Rust - FG - EnqDeq'!$K$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.415503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5171416000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.189526600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E833-6343-81A1-5B27FAC8AB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LinkInCombining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$G$2,'Rust - FG - EnqDeq'!$J$2,'Rust - FG - EnqDeq'!$M$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Rust - FG - EnqDeq'!$F$16,'Rust - FG - EnqDeq'!$I$16,'Rust - FG - EnqDeq'!$L$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26.059475199999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4829743999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.830285799999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E833-6343-81A1-5B27FAC8AB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1732535744"/>
+        <c:axId val="1730466080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1732535744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1730466080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1730466080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1732535744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Enqueue/Dequeue Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rust - EnqDeq'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Millisecond Avgs:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Rust - EnqDeq'!$O$1:$X$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MSQ - EnqDeq'!$O$2:$X$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>44.072716499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.590739399999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.217854375000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.072056775000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.948478518749994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.452194115624991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.296310025352071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.668413108333326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.728488824657504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B26-3447-8B08-2B84BFC45899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1714283168"/>
+        <c:axId val="1714315648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1714283168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714315648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1714315648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714283168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3379,6 +5396,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3882,7 +6019,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4385,7 +6522,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4888,7 +7025,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5391,7 +7528,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5894,7 +8031,2019 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6614,6 +10763,166 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B854E4-9267-3D4F-A7F9-A0C27EC9929D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04BCB94-3A63-3E47-997E-A6FC9BDECD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8D0DE9-F702-F848-B1F1-06452D7CB80C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>532525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>143642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758266BF-FB4A-E444-B6E3-3DA7CC5D5F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>545225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42042</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA98C85C-26D8-0B42-BCCB-F631DC5F403E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6935,8 +11244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C96790-36EA-E54D-B947-0E89E8D9E645}">
   <dimension ref="A1:AG374"/>
   <sheetViews>
-    <sheetView topLeftCell="J2" zoomScale="116" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14666,7 +18975,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15333,8 +19642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAEDC48-7755-6B4B-823F-C7DD1611083D}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16070,18 +20379,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9618D47D-CF2F-A949-8142-E76580057658}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>82</v>
       </c>
@@ -16100,7 +20411,7 @@
       <c r="J1" s="13"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="8">
         <v>1</v>
@@ -16110,52 +20421,223 @@
       <c r="E2" s="8">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>4</v>
       </c>
       <c r="G2" s="8">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8">
         <v>16</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
+        <v>16</v>
+      </c>
+      <c r="J2" s="8">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8">
         <v>72</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="8">
+        <v>72</v>
+      </c>
+      <c r="M2" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>16749.238902543999</v>
+      </c>
+      <c r="F3">
+        <v>21705.375970000001</v>
+      </c>
+      <c r="G3">
+        <v>62741.957875</v>
+      </c>
+      <c r="H3">
+        <v>45806.544122776402</v>
+      </c>
+      <c r="I3">
+        <v>47264.398345000001</v>
+      </c>
+      <c r="J3">
+        <v>183139.08491999999</v>
+      </c>
+      <c r="K3">
+        <v>316892.830887802</v>
+      </c>
+      <c r="L3">
+        <v>465768.00299691799</v>
+      </c>
+      <c r="M3">
+        <v>2324177.9587635999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>14673.4470605878</v>
+      </c>
+      <c r="F4">
+        <v>25349.430540000001</v>
+      </c>
+      <c r="G4">
+        <v>64947.251655</v>
+      </c>
+      <c r="H4">
+        <v>43096.166346539401</v>
+      </c>
+      <c r="I4">
+        <v>43318.745054999999</v>
+      </c>
+      <c r="J4">
+        <v>171221.11470999999</v>
+      </c>
+      <c r="K4">
+        <v>388717.82837046898</v>
+      </c>
+      <c r="L4">
+        <v>571307.934993395</v>
+      </c>
+      <c r="M4">
+        <v>2773126.6089747399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>16048.097022202701</v>
+      </c>
+      <c r="F5">
+        <v>22444.096375000001</v>
+      </c>
+      <c r="G5">
+        <v>62505.030025</v>
+      </c>
+      <c r="H5">
+        <v>43642.624286678503</v>
+      </c>
+      <c r="I5">
+        <v>44679.721505000001</v>
+      </c>
+      <c r="J5">
+        <v>176225.83757</v>
+      </c>
+      <c r="K5">
+        <v>310324.32297705702</v>
+      </c>
+      <c r="L5">
+        <v>480000.14165565901</v>
+      </c>
+      <c r="M5">
+        <v>2311361.5988632701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>14803.725488448599</v>
+      </c>
+      <c r="F6">
+        <v>26068.064549999999</v>
+      </c>
+      <c r="G6">
+        <v>68004.820974999995</v>
+      </c>
+      <c r="H6">
+        <v>45429.426273233199</v>
+      </c>
+      <c r="I6">
+        <v>46448.336145000001</v>
+      </c>
+      <c r="J6">
+        <v>177550.42861</v>
+      </c>
+      <c r="K6">
+        <v>337475.585514743</v>
+      </c>
+      <c r="L6">
+        <v>523983.99148455</v>
+      </c>
+      <c r="M6">
+        <v>2393933.3559578098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>16317.984959615</v>
+      </c>
+      <c r="F7">
+        <v>24893.998524999999</v>
+      </c>
+      <c r="G7">
+        <v>65616.986705000003</v>
+      </c>
+      <c r="H7">
+        <v>40732.799311904797</v>
+      </c>
+      <c r="I7">
+        <v>43489.234985000003</v>
+      </c>
+      <c r="J7">
+        <v>177923.52329499999</v>
+      </c>
+      <c r="K7">
+        <v>335181.65614676999</v>
+      </c>
+      <c r="L7">
+        <v>514539.18322226201</v>
+      </c>
+      <c r="M7">
+        <v>2414664.1645553098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>84</v>
       </c>
-      <c r="E8" t="e">
+      <c r="E8">
         <f>(SUM(F3:F7)/COUNT(F3:F7))/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" t="e">
-        <f>(SUM(#REF!)/COUNT(#REF!))/1000000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" t="e">
+        <v>2.4092193191999997E-2</v>
+      </c>
+      <c r="F8">
         <f>(SUM(G3:G7)/COUNT(G3:G7))/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.4763209446999981E-2</v>
+      </c>
+      <c r="G8">
+        <f>(SUM(G3:G7)/COUNT(G3:G7))/1000000</f>
+        <v>6.4763209446999981E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:J8" si="0">(SUM(H3:H7)/COUNT(H3:H7))/1000000</f>
+        <v>4.3741512068226462E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>4.5040087207000007E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.177211997821</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="1">(SUM(K3:K7)/COUNT(K3:K7))/1000000</f>
+        <v>0.33771844477936824</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="2">(SUM(L3:L7)/COUNT(L3:L7))/1000000</f>
+        <v>0.51111985087055689</v>
+      </c>
+      <c r="M8">
+        <f>(SUM(M3:M7)/COUNT(M3:M7))/1000000</f>
+        <v>2.443452737422946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>83</v>
       </c>
@@ -16172,7 +20654,7 @@
       <c r="J9" s="10"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -16183,43 +20665,216 @@
         <v>4</v>
       </c>
       <c r="F10" s="8">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
         <v>16</v>
       </c>
-      <c r="G10" s="8">
+      <c r="I10" s="8">
+        <v>16</v>
+      </c>
+      <c r="J10" s="8">
+        <v>16</v>
+      </c>
+      <c r="K10" s="8">
         <v>72</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="8">
+        <v>72</v>
+      </c>
+      <c r="M10" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1449855</v>
+      </c>
+      <c r="F11">
+        <v>1443285</v>
+      </c>
+      <c r="G11">
+        <v>5920876</v>
+      </c>
+      <c r="H11">
+        <v>1449161</v>
+      </c>
+      <c r="I11">
+        <v>1364297</v>
+      </c>
+      <c r="J11">
+        <v>2037397</v>
+      </c>
+      <c r="K11">
+        <v>26370513</v>
+      </c>
+      <c r="L11">
+        <v>15764979</v>
+      </c>
+      <c r="M11">
+        <v>79309778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1396301</v>
+      </c>
+      <c r="F12">
+        <v>1413486</v>
+      </c>
+      <c r="G12">
+        <v>1473089</v>
+      </c>
+      <c r="H12">
+        <v>1407284</v>
+      </c>
+      <c r="I12">
+        <v>1450873</v>
+      </c>
+      <c r="J12">
+        <v>2421358</v>
+      </c>
+      <c r="K12">
+        <v>79556523</v>
+      </c>
+      <c r="L12">
+        <v>81555232</v>
+      </c>
+      <c r="M12">
+        <v>130439210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1383380</v>
+      </c>
+      <c r="F13">
+        <v>1416401</v>
+      </c>
+      <c r="G13">
+        <v>1466649</v>
+      </c>
+      <c r="H13">
+        <v>1156594</v>
+      </c>
+      <c r="I13">
+        <v>1149543</v>
+      </c>
+      <c r="J13">
+        <v>2060131</v>
+      </c>
+      <c r="K13">
+        <v>17290577</v>
+      </c>
+      <c r="L13">
+        <v>16869608</v>
+      </c>
+      <c r="M13">
+        <v>99938852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>1389426</v>
+      </c>
+      <c r="F14">
+        <v>124539971</v>
+      </c>
+      <c r="G14">
+        <v>124621518</v>
+      </c>
+      <c r="H14">
+        <v>1384476</v>
+      </c>
+      <c r="I14">
+        <v>1311628</v>
+      </c>
+      <c r="J14">
+        <v>1851705</v>
+      </c>
+      <c r="K14">
+        <v>29216946</v>
+      </c>
+      <c r="L14">
+        <v>26781987</v>
+      </c>
+      <c r="M14">
+        <v>95968121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E16" t="e">
+      <c r="E15">
+        <v>1458553</v>
+      </c>
+      <c r="F15">
+        <v>1484233</v>
+      </c>
+      <c r="G15">
+        <v>1598306</v>
+      </c>
+      <c r="H15">
+        <v>2188193</v>
+      </c>
+      <c r="I15">
+        <v>2138531</v>
+      </c>
+      <c r="J15">
+        <v>2727633</v>
+      </c>
+      <c r="K15">
+        <v>33513074</v>
+      </c>
+      <c r="L15">
+        <v>33179623</v>
+      </c>
+      <c r="M15">
+        <v>59028005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E16">
         <f>(SUM(E11:E15)/COUNT(E11:E15))/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" t="e">
+        <v>1.415503</v>
+      </c>
+      <c r="F16">
         <f>(SUM(F11:F15)/COUNT(F11:F15))/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" t="e">
+        <v>26.059475199999998</v>
+      </c>
+      <c r="G16">
         <f>(SUM(G11:G15)/COUNT(G11:G15))/1000000</f>
-        <v>#DIV/0!</v>
+        <v>27.016087600000002</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16:J16" si="3">(SUM(H11:H15)/COUNT(H11:H15))/1000000</f>
+        <v>1.5171416000000002</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>1.4829743999999998</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>2.2196447999999998</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16" si="4">(SUM(K11:K15)/COUNT(K11:K15))/1000000</f>
+        <v>37.189526600000001</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ref="L16" si="5">(SUM(L11:L15)/COUNT(L11:L15))/1000000</f>
+        <v>34.830285799999999</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16" si="6">(SUM(M11:M15)/COUNT(M11:M15))/1000000</f>
+        <v>92.936793199999997</v>
       </c>
     </row>
   </sheetData>
@@ -16229,5 +20884,661 @@
     <mergeCell ref="A9:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FEE96C-2DE0-B84C-957D-C83EB22B2ECB}">
+  <dimension ref="A1:X22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="12">
+        <v>1</v>
+      </c>
+      <c r="P1" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>4</v>
+      </c>
+      <c r="R1" s="8">
+        <v>8</v>
+      </c>
+      <c r="S1" s="8">
+        <v>16</v>
+      </c>
+      <c r="T1" s="8">
+        <v>32</v>
+      </c>
+      <c r="U1" s="8">
+        <v>64</v>
+      </c>
+      <c r="V1" s="8">
+        <v>71</v>
+      </c>
+      <c r="W1" s="8">
+        <v>72</v>
+      </c>
+      <c r="X1" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="8">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8">
+        <v>16</v>
+      </c>
+      <c r="H2" s="8">
+        <v>32</v>
+      </c>
+      <c r="I2" s="8">
+        <v>64</v>
+      </c>
+      <c r="J2" s="8">
+        <v>71</v>
+      </c>
+      <c r="K2" s="8">
+        <v>72</v>
+      </c>
+      <c r="L2" s="8">
+        <v>73</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2">
+        <f>D8</f>
+        <v>44.072716499999999</v>
+      </c>
+      <c r="Q2">
+        <f>E8</f>
+        <v>46.590739399999997</v>
+      </c>
+      <c r="R2">
+        <f>F8</f>
+        <v>54.217854375000002</v>
+      </c>
+      <c r="S2">
+        <f>G8</f>
+        <v>74.072056775000007</v>
+      </c>
+      <c r="T2">
+        <f>H8</f>
+        <v>66.948478518749994</v>
+      </c>
+      <c r="U2">
+        <f>I8</f>
+        <v>86.452194115624991</v>
+      </c>
+      <c r="V2" s="9">
+        <f>J8</f>
+        <v>90.296310025352071</v>
+      </c>
+      <c r="W2" s="9">
+        <f>K8</f>
+        <v>88.668413108333326</v>
+      </c>
+      <c r="X2" s="9">
+        <f>L8</f>
+        <v>87.728488824657504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="D3">
+        <v>44794830</v>
+      </c>
+      <c r="E3">
+        <v>45740459.75</v>
+      </c>
+      <c r="F3">
+        <v>41777650</v>
+      </c>
+      <c r="G3">
+        <v>79858823.4375</v>
+      </c>
+      <c r="H3">
+        <v>62898218.28125</v>
+      </c>
+      <c r="I3">
+        <v>85779458.96875</v>
+      </c>
+      <c r="J3">
+        <v>92303313.605633795</v>
+      </c>
+      <c r="K3">
+        <v>77464121.638888896</v>
+      </c>
+      <c r="L3">
+        <v>89597668.821917802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="D4">
+        <v>45001843.5</v>
+      </c>
+      <c r="E4">
+        <v>45829159.75</v>
+      </c>
+      <c r="F4">
+        <v>62732700.875</v>
+      </c>
+      <c r="G4">
+        <v>72886479.8125</v>
+      </c>
+      <c r="H4">
+        <v>63792161.0625</v>
+      </c>
+      <c r="I4">
+        <v>85184268.765625</v>
+      </c>
+      <c r="J4">
+        <v>89871912.126760498</v>
+      </c>
+      <c r="K4">
+        <v>89978986.5</v>
+      </c>
+      <c r="L4">
+        <v>89867976.876712307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="D5">
+        <v>42097921.5</v>
+      </c>
+      <c r="E5">
+        <v>47968410.75</v>
+      </c>
+      <c r="F5">
+        <v>54453161.5</v>
+      </c>
+      <c r="G5">
+        <v>61458124.375</v>
+      </c>
+      <c r="H5">
+        <v>60045624.34375</v>
+      </c>
+      <c r="I5">
+        <v>87020038.34375</v>
+      </c>
+      <c r="J5">
+        <v>89575779.492957696</v>
+      </c>
+      <c r="K5">
+        <v>95629013.111111104</v>
+      </c>
+      <c r="L5">
+        <v>84671150.068493098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="D6">
+        <v>45542457</v>
+      </c>
+      <c r="E6">
+        <v>45021599.5</v>
+      </c>
+      <c r="F6">
+        <v>52605318.75</v>
+      </c>
+      <c r="G6">
+        <v>67800038.4375</v>
+      </c>
+      <c r="H6">
+        <v>64017102.40625</v>
+      </c>
+      <c r="I6">
+        <v>84565592.015625</v>
+      </c>
+      <c r="J6">
+        <v>92777846.084507003</v>
+      </c>
+      <c r="K6">
+        <v>90571774.986111104</v>
+      </c>
+      <c r="L6">
+        <v>85227340.260273904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="D7">
+        <v>42926530.5</v>
+      </c>
+      <c r="E7">
+        <v>48394067.25</v>
+      </c>
+      <c r="F7">
+        <v>59520440.75</v>
+      </c>
+      <c r="G7">
+        <v>88356817.8125</v>
+      </c>
+      <c r="H7">
+        <v>83989286.5</v>
+      </c>
+      <c r="I7">
+        <v>89711612.484375</v>
+      </c>
+      <c r="J7">
+        <v>86952698.816901401</v>
+      </c>
+      <c r="K7">
+        <v>89698169.305555493</v>
+      </c>
+      <c r="L7">
+        <v>89278308.095890403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8">
+        <f>(SUM(D3:D7)/COUNT(D3:D7))/1000000</f>
+        <v>44.072716499999999</v>
+      </c>
+      <c r="E8">
+        <f>(SUM(E3:E7)/COUNT(E3:E7))/1000000</f>
+        <v>46.590739399999997</v>
+      </c>
+      <c r="F8">
+        <f>(SUM(F3:F7)/COUNT(F3:F7))/1000000</f>
+        <v>54.217854375000002</v>
+      </c>
+      <c r="G8">
+        <f>(SUM(G3:G7)/COUNT(G3:G7))/1000000</f>
+        <v>74.072056775000007</v>
+      </c>
+      <c r="H8">
+        <f>(SUM(H3:H7)/COUNT(H3:H7))/1000000</f>
+        <v>66.948478518749994</v>
+      </c>
+      <c r="I8">
+        <f>(SUM(I3:I7)/COUNT(I3:I7))/1000000</f>
+        <v>86.452194115624991</v>
+      </c>
+      <c r="J8">
+        <f>(SUM(J3:J7)/COUNT(J3:J7))/1000000</f>
+        <v>90.296310025352071</v>
+      </c>
+      <c r="K8">
+        <f>(SUM(K3:K7)/COUNT(K3:K7))/1000000</f>
+        <v>88.668413108333326</v>
+      </c>
+      <c r="L8">
+        <f>(SUM(L3:L7)/COUNT(L3:L7))/1000000</f>
+        <v>87.728488824657504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8</v>
+      </c>
+      <c r="G10" s="8">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8">
+        <v>32</v>
+      </c>
+      <c r="I10" s="8">
+        <v>64</v>
+      </c>
+      <c r="J10" s="8">
+        <v>71</v>
+      </c>
+      <c r="K10" s="8">
+        <v>72</v>
+      </c>
+      <c r="L10" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="D11">
+        <v>44842142</v>
+      </c>
+      <c r="E11">
+        <v>46044288</v>
+      </c>
+      <c r="F11">
+        <v>42785027</v>
+      </c>
+      <c r="G11">
+        <v>87071669</v>
+      </c>
+      <c r="H11">
+        <v>69384825</v>
+      </c>
+      <c r="I11">
+        <v>98913508</v>
+      </c>
+      <c r="J11">
+        <v>103014840</v>
+      </c>
+      <c r="K11">
+        <v>96811405</v>
+      </c>
+      <c r="L11">
+        <v>102406264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="D12">
+        <v>45008525</v>
+      </c>
+      <c r="E12">
+        <v>46206047</v>
+      </c>
+      <c r="F12">
+        <v>64679803</v>
+      </c>
+      <c r="G12">
+        <v>74357171</v>
+      </c>
+      <c r="H12">
+        <v>68485269</v>
+      </c>
+      <c r="I12">
+        <v>98598219</v>
+      </c>
+      <c r="J12">
+        <v>103558816</v>
+      </c>
+      <c r="K12">
+        <v>103362141</v>
+      </c>
+      <c r="L12">
+        <v>109058071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="D13">
+        <v>42138859</v>
+      </c>
+      <c r="E13">
+        <v>48093903</v>
+      </c>
+      <c r="F13">
+        <v>55562771</v>
+      </c>
+      <c r="G13">
+        <v>64211681</v>
+      </c>
+      <c r="H13">
+        <v>66497856</v>
+      </c>
+      <c r="I13">
+        <v>102779228</v>
+      </c>
+      <c r="J13">
+        <v>102090121</v>
+      </c>
+      <c r="K13">
+        <v>112683099</v>
+      </c>
+      <c r="L13">
+        <v>102469317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="D14">
+        <v>45588344</v>
+      </c>
+      <c r="E14">
+        <v>45497751</v>
+      </c>
+      <c r="F14">
+        <v>54122743</v>
+      </c>
+      <c r="G14">
+        <v>68898847</v>
+      </c>
+      <c r="H14">
+        <v>68288630</v>
+      </c>
+      <c r="I14">
+        <v>99082681</v>
+      </c>
+      <c r="J14">
+        <v>108133882</v>
+      </c>
+      <c r="K14">
+        <v>103022134</v>
+      </c>
+      <c r="L14">
+        <v>103427986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="D15">
+        <v>42973295</v>
+      </c>
+      <c r="E15">
+        <v>49090667</v>
+      </c>
+      <c r="F15">
+        <v>60717883</v>
+      </c>
+      <c r="G15">
+        <v>89467451</v>
+      </c>
+      <c r="H15">
+        <v>91919106</v>
+      </c>
+      <c r="I15">
+        <v>101018214</v>
+      </c>
+      <c r="J15">
+        <v>100276049</v>
+      </c>
+      <c r="K15">
+        <v>105371583</v>
+      </c>
+      <c r="L15">
+        <v>103713302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f>(SUM(D11:D15)/COUNT(D11:D15))/1000000</f>
+        <v>44.110233000000001</v>
+      </c>
+      <c r="E16">
+        <f>(SUM(E11:E15)/COUNT(E11:E15))/1000000</f>
+        <v>46.986531200000002</v>
+      </c>
+      <c r="F16">
+        <f>(SUM(F11:F15)/COUNT(F11:F15))/1000000</f>
+        <v>55.573645399999997</v>
+      </c>
+      <c r="G16">
+        <f>(SUM(G11:G15)/COUNT(G11:G15))/1000000</f>
+        <v>76.80136379999999</v>
+      </c>
+      <c r="H16">
+        <f>(SUM(H11:H15)/COUNT(H11:H15))/1000000</f>
+        <v>72.915137200000004</v>
+      </c>
+      <c r="I16">
+        <f>(SUM(I11:I15)/COUNT(I11:I15))/1000000</f>
+        <v>100.07837000000001</v>
+      </c>
+      <c r="J16">
+        <f>(SUM(J11:J15)/COUNT(J11:J15))/1000000</f>
+        <v>103.4147416</v>
+      </c>
+      <c r="K16">
+        <f>(SUM(K11:K15)/COUNT(K11:K15))/1000000</f>
+        <v>104.25007240000001</v>
+      </c>
+      <c r="L16">
+        <f>(SUM(L11:L15)/COUNT(L11:L15))/1000000</f>
+        <v>104.21498800000001</v>
+      </c>
+    </row>
+    <row r="21" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="O21" s="7">
+        <v>1</v>
+      </c>
+      <c r="P21" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>4</v>
+      </c>
+      <c r="R21" s="8">
+        <v>8</v>
+      </c>
+      <c r="S21" s="8">
+        <v>16</v>
+      </c>
+      <c r="T21" s="8">
+        <v>32</v>
+      </c>
+      <c r="U21" s="8">
+        <v>64</v>
+      </c>
+      <c r="V21" s="8">
+        <v>71</v>
+      </c>
+      <c r="W21" s="8">
+        <v>72</v>
+      </c>
+      <c r="X21" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="14:24" x14ac:dyDescent="0.2">
+      <c r="N22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22">
+        <f>D16</f>
+        <v>44.110233000000001</v>
+      </c>
+      <c r="Q22">
+        <f>E16</f>
+        <v>46.986531200000002</v>
+      </c>
+      <c r="R22">
+        <f>F16</f>
+        <v>55.573645399999997</v>
+      </c>
+      <c r="S22">
+        <f>G16</f>
+        <v>76.80136379999999</v>
+      </c>
+      <c r="T22">
+        <f>H16</f>
+        <v>72.915137200000004</v>
+      </c>
+      <c r="U22">
+        <f>I16</f>
+        <v>100.07837000000001</v>
+      </c>
+      <c r="V22">
+        <f>J16</f>
+        <v>103.4147416</v>
+      </c>
+      <c r="W22">
+        <f>K16</f>
+        <v>104.25007240000001</v>
+      </c>
+      <c r="X22">
+        <f>L16</f>
+        <v>104.21498800000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A9:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MSwanson/Desktop/School/Senior_Year/Semester 2/CSC258/Final Project/Flat combining/flat-out-rust/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbodd/Desktop/School/Spring2020/CSC258/flat-out-rust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CE603A-45F5-544B-AEC8-0D11F373C7AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B943FD5-8D4E-594B-96B9-C70AB1D3D194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39440" yWindow="-2160" windowWidth="35460" windowHeight="21380" activeTab="1" xr2:uid="{E348832D-AF6B-1E46-B83B-892A2DF636A6}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{E348832D-AF6B-1E46-B83B-892A2DF636A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Rust - Enqueue" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
   <si>
     <t>Seq</t>
   </si>
@@ -52,232 +52,7 @@
     <t>Avg nano:</t>
   </si>
   <si>
-    <t>0ns</t>
-  </si>
-  <si>
-    <t>{0}</t>
-  </si>
-  <si>
-    <t>total:</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>{1}</t>
-  </si>
-  <si>
-    <t>{2}</t>
-  </si>
-  <si>
-    <t>{3}</t>
-  </si>
-  <si>
-    <t>{7}</t>
-  </si>
-  <si>
-    <t>{4}</t>
-  </si>
-  <si>
-    <t>{6}</t>
-  </si>
-  <si>
-    <t>{5}</t>
-  </si>
-  <si>
-    <t>{11}</t>
-  </si>
-  <si>
-    <t>{10}</t>
-  </si>
-  <si>
-    <t>{8}</t>
-  </si>
-  <si>
-    <t>{12}</t>
-  </si>
-  <si>
-    <t>{15}</t>
-  </si>
-  <si>
-    <t>{14}</t>
-  </si>
-  <si>
-    <t>{13}</t>
-  </si>
-  <si>
-    <t>{9}</t>
-  </si>
-  <si>
-    <t>{27}</t>
-  </si>
-  <si>
-    <t>{19}</t>
-  </si>
-  <si>
-    <t>{24}</t>
-  </si>
-  <si>
-    <t>{31}</t>
-  </si>
-  <si>
-    <t>{20}</t>
-  </si>
-  <si>
-    <t>{30}</t>
-  </si>
-  <si>
-    <t>{18}</t>
-  </si>
-  <si>
-    <t>{29}</t>
-  </si>
-  <si>
-    <t>{22}</t>
-  </si>
-  <si>
-    <t>{21}</t>
-  </si>
-  <si>
-    <t>{16}</t>
-  </si>
-  <si>
-    <t>{26}</t>
-  </si>
-  <si>
-    <t>{17}</t>
-  </si>
-  <si>
-    <t>{25}</t>
-  </si>
-  <si>
-    <t>{23}</t>
-  </si>
-  <si>
-    <t>{28}</t>
-  </si>
-  <si>
-    <t>{39}</t>
-  </si>
-  <si>
-    <t>{55}</t>
-  </si>
-  <si>
-    <t>{43}</t>
-  </si>
-  <si>
-    <t>{60}</t>
-  </si>
-  <si>
-    <t>{37}</t>
-  </si>
-  <si>
-    <t>{36}</t>
-  </si>
-  <si>
-    <t>{51}</t>
-  </si>
-  <si>
-    <t>{45}</t>
-  </si>
-  <si>
-    <t>{54}</t>
-  </si>
-  <si>
-    <t>{46}</t>
-  </si>
-  <si>
-    <t>{62}</t>
-  </si>
-  <si>
-    <t>{35}</t>
-  </si>
-  <si>
-    <t>{32}</t>
-  </si>
-  <si>
-    <t>{59}</t>
-  </si>
-  <si>
-    <t>{58}</t>
-  </si>
-  <si>
-    <t>{53}</t>
-  </si>
-  <si>
-    <t>{50}</t>
-  </si>
-  <si>
-    <t>{63}</t>
-  </si>
-  <si>
-    <t>{34}</t>
-  </si>
-  <si>
-    <t>{49}</t>
-  </si>
-  <si>
-    <t>{40}</t>
-  </si>
-  <si>
-    <t>{61}</t>
-  </si>
-  <si>
-    <t>{33}</t>
-  </si>
-  <si>
-    <t>{47}</t>
-  </si>
-  <si>
-    <t>{52}</t>
-  </si>
-  <si>
-    <t>{56}</t>
-  </si>
-  <si>
-    <t>{42}</t>
-  </si>
-  <si>
-    <t>{41}</t>
-  </si>
-  <si>
-    <t>{57}</t>
-  </si>
-  <si>
-    <t>{38}</t>
-  </si>
-  <si>
-    <t>{44}</t>
-  </si>
-  <si>
-    <t>{48}</t>
-  </si>
-  <si>
     <t>Millisecond Avgs:</t>
-  </si>
-  <si>
-    <t>{65}</t>
-  </si>
-  <si>
-    <t>{66}</t>
-  </si>
-  <si>
-    <t>{69}</t>
-  </si>
-  <si>
-    <t>{64}</t>
-  </si>
-  <si>
-    <t>{67}</t>
-  </si>
-  <si>
-    <t>{70}</t>
-  </si>
-  <si>
-    <t>{68}</t>
   </si>
   <si>
     <t>Millisecond Max:</t>
@@ -299,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -13323,20 +13098,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C96790-36EA-E54D-B947-0E89E8D9E645}">
-  <dimension ref="A1:AG374"/>
+  <dimension ref="A1:AA374"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" zoomScale="116" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.1640625" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13381,7 +13156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -13414,7 +13189,7 @@
         <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="N2">
         <f>B10</f>
@@ -13456,26 +13231,9 @@
         <f>K374</f>
         <v>517.69674524109587</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>58832138</v>
       </c>
@@ -13506,26 +13264,9 @@
       <c r="L3" s="8">
         <v>169262889</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>59519175</v>
       </c>
@@ -13557,26 +13298,9 @@
         <v>165153457</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>58321452</v>
       </c>
@@ -13607,26 +13331,9 @@
       </c>
       <c r="N5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="AA5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>58981900</v>
       </c>
@@ -13659,26 +13366,9 @@
       </c>
       <c r="N6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="AA6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>58413229</v>
       </c>
@@ -13708,26 +13398,9 @@
       </c>
       <c r="N7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="AA7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D8" s="2"/>
       <c r="E8">
         <v>156797158</v>
@@ -13756,26 +13429,9 @@
       <c r="N8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="AA8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -13813,26 +13469,9 @@
       <c r="N9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="AA9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -13870,26 +13509,9 @@
       <c r="N10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="AA10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D11" s="2"/>
       <c r="E11">
         <v>158035579</v>
@@ -13915,26 +13537,9 @@
       <c r="N11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="AA11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D12" s="2">
         <v>261552494</v>
       </c>
@@ -13962,26 +13567,9 @@
       <c r="N12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="AA12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D13" s="2">
         <v>264258071</v>
       </c>
@@ -14012,26 +13600,9 @@
       <c r="N13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="AA13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
       <c r="E14">
         <v>161211876</v>
@@ -14060,26 +13631,9 @@
       <c r="N14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="AA14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D15" s="2">
         <v>145023118</v>
       </c>
@@ -14110,26 +13664,9 @@
       <c r="N15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="AA15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="2">
         <v>147899441</v>
       </c>
@@ -14160,26 +13697,9 @@
       <c r="N16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="AA16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="F17">
         <v>161364983</v>
@@ -14205,26 +13725,9 @@
       <c r="N17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="AA17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33">
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -14259,26 +13762,9 @@
       <c r="N18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="AA18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33">
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -14310,26 +13796,9 @@
       <c r="N19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="AA19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33">
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="E20">
         <v>157932404</v>
@@ -14384,26 +13853,9 @@
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="AA20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33">
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="E21">
         <v>158147275</v>
@@ -14430,7 +13882,7 @@
         <v>194648824</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="N21">
         <f>B10</f>
@@ -14474,26 +13926,9 @@
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="AA21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>160823433</v>
       </c>
@@ -14518,26 +13953,9 @@
       <c r="N22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="AA22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33">
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E23">
         <v>151045874</v>
       </c>
@@ -14564,26 +13982,9 @@
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="AA23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33">
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>154287068</v>
       </c>
@@ -14610,26 +14011,9 @@
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="AA24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33">
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E25">
         <v>154676765</v>
       </c>
@@ -14656,26 +14040,9 @@
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="AA25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33">
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E26">
         <v>154956538</v>
       </c>
@@ -14702,26 +14069,9 @@
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="AA26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>163327870</v>
       </c>
@@ -14745,26 +14095,9 @@
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="AA27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33">
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>3</v>
       </c>
@@ -14795,26 +14128,9 @@
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="AA28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33">
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>2</v>
       </c>
@@ -14843,26 +14159,9 @@
       <c r="N29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="AA29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33">
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>161904195</v>
       </c>
@@ -14887,26 +14186,9 @@
       <c r="N30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="AA30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33">
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>162195620</v>
       </c>
@@ -14931,26 +14213,9 @@
       <c r="N31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="AA31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33">
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="F32">
         <v>162447356</v>
       </c>
@@ -14975,26 +14240,9 @@
       <c r="N32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="AA32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="5:33">
+      <c r="AA32" s="1"/>
+    </row>
+    <row r="33" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F33">
         <v>162181097</v>
       </c>
@@ -15019,26 +14267,9 @@
       <c r="N33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="AA33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="5:33">
+      <c r="AA33" s="1"/>
+    </row>
+    <row r="34" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F34">
         <v>162120401</v>
       </c>
@@ -15063,26 +14294,9 @@
       <c r="N34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="AA34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="5:33">
+      <c r="AA34" s="1"/>
+    </row>
+    <row r="35" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F35">
         <v>162637763</v>
       </c>
@@ -15104,26 +14318,9 @@
       <c r="N35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="AA35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF35">
-        <v>1</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="5:33">
+      <c r="AA35" s="1"/>
+    </row>
+    <row r="36" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F36">
         <v>162697758</v>
       </c>
@@ -15145,26 +14342,9 @@
       <c r="N36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="AA36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF36">
-        <v>1</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="5:33">
+      <c r="AA36" s="1"/>
+    </row>
+    <row r="37" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F37">
         <v>162572236</v>
       </c>
@@ -15188,26 +14368,9 @@
       </c>
       <c r="N37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="AA37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF37">
-        <v>1</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="5:33">
+      <c r="AA37" s="1"/>
+    </row>
+    <row r="38" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G38">
         <v>160322166</v>
       </c>
@@ -15229,26 +14392,9 @@
       <c r="N38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
-      <c r="AA38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF38">
-        <v>1</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="5:33">
+      <c r="AA38" s="1"/>
+    </row>
+    <row r="39" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F39">
         <v>160505530</v>
       </c>
@@ -15273,26 +14419,9 @@
       <c r="N39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-      <c r="AA39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="5:33">
+      <c r="AA39" s="1"/>
+    </row>
+    <row r="40" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F40">
         <v>162675074</v>
       </c>
@@ -15317,26 +14446,9 @@
       <c r="N40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
-      <c r="AA40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="5:33">
+      <c r="AA40" s="1"/>
+    </row>
+    <row r="41" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F41">
         <v>163430922</v>
       </c>
@@ -15361,26 +14473,9 @@
       <c r="N41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
-      <c r="AA41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="5:33">
+      <c r="AA41" s="1"/>
+    </row>
+    <row r="42" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F42">
         <v>163639056</v>
       </c>
@@ -15405,26 +14500,9 @@
       <c r="N42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
-      <c r="AA42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="5:33">
+      <c r="AA42" s="1"/>
+    </row>
+    <row r="43" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F43">
         <v>163508205</v>
       </c>
@@ -15449,26 +14527,9 @@
       <c r="N43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
-      <c r="AA43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="5:33">
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F44">
         <v>163530235</v>
       </c>
@@ -15493,26 +14554,9 @@
       <c r="N44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
-      <c r="AA44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="5:33">
+      <c r="AA44" s="1"/>
+    </row>
+    <row r="45" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F45">
         <v>163973131</v>
       </c>
@@ -15537,26 +14581,9 @@
       <c r="N45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
-      <c r="AA45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="5:33">
+      <c r="AA45" s="1"/>
+    </row>
+    <row r="46" spans="5:27" x14ac:dyDescent="0.2">
       <c r="F46">
         <v>164177940</v>
       </c>
@@ -15581,26 +14608,9 @@
       <c r="N46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="AA46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="5:33">
+      <c r="AA46" s="1"/>
+    </row>
+    <row r="47" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G47">
         <v>162742918</v>
       </c>
@@ -15622,26 +14632,9 @@
       <c r="N47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
-      <c r="AA47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="5:33">
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" spans="5:27" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>3</v>
       </c>
@@ -15670,26 +14663,9 @@
       <c r="N48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
-      <c r="AA48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="5:33">
+      <c r="AA48" s="1"/>
+    </row>
+    <row r="49" spans="5:27" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>2</v>
       </c>
@@ -15718,26 +14694,9 @@
       <c r="N49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
-      <c r="AA49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF49">
-        <v>1</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="5:33">
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G50">
         <v>163535252</v>
       </c>
@@ -15759,26 +14718,9 @@
       <c r="N50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
-      <c r="AA50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="5:33">
+      <c r="AA50" s="1"/>
+    </row>
+    <row r="51" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G51">
         <v>162928656</v>
       </c>
@@ -15800,26 +14742,9 @@
       <c r="N51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
-      <c r="AA51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="5:33">
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G52">
         <v>163183613</v>
       </c>
@@ -15841,26 +14766,9 @@
       <c r="N52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
-      <c r="AA52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="5:33">
+      <c r="AA52" s="1"/>
+    </row>
+    <row r="53" spans="5:27" x14ac:dyDescent="0.2">
       <c r="H53">
         <v>177637535</v>
       </c>
@@ -15879,26 +14787,9 @@
       <c r="N53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
-      <c r="AA53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="5:33">
+      <c r="AA53" s="1"/>
+    </row>
+    <row r="54" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G54">
         <v>154239820</v>
       </c>
@@ -15920,26 +14811,9 @@
       <c r="N54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
-      <c r="AA54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="5:33">
+      <c r="AA54" s="1"/>
+    </row>
+    <row r="55" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G55">
         <v>154592353</v>
       </c>
@@ -15961,26 +14835,9 @@
       <c r="N55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
-      <c r="AA55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="5:33">
+      <c r="AA55" s="1"/>
+    </row>
+    <row r="56" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G56">
         <v>156104353</v>
       </c>
@@ -16002,26 +14859,9 @@
       <c r="N56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
-      <c r="AA56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF56">
-        <v>1</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="5:33">
+      <c r="AA56" s="1"/>
+    </row>
+    <row r="57" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G57">
         <v>157587580</v>
       </c>
@@ -16043,26 +14883,9 @@
       <c r="N57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
-      <c r="AA57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF57">
-        <v>1</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="5:33">
+      <c r="AA57" s="1"/>
+    </row>
+    <row r="58" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G58">
         <v>157997436</v>
       </c>
@@ -16084,26 +14907,9 @@
       <c r="N58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
-      <c r="AA58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="5:33">
+      <c r="AA58" s="1"/>
+    </row>
+    <row r="59" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G59">
         <v>158370247</v>
       </c>
@@ -16125,26 +14931,9 @@
       <c r="N59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-      <c r="AA59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF59">
-        <v>1</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="5:33">
+      <c r="AA59" s="1"/>
+    </row>
+    <row r="60" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G60">
         <v>158285778</v>
       </c>
@@ -16166,26 +14955,9 @@
       <c r="N60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
-      <c r="AA60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF60">
-        <v>1</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="5:33">
+      <c r="AA60" s="1"/>
+    </row>
+    <row r="61" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G61">
         <v>159510019</v>
       </c>
@@ -16207,26 +14979,9 @@
       <c r="N61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
-      <c r="AA61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="5:33">
+      <c r="AA61" s="1"/>
+    </row>
+    <row r="62" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G62">
         <v>158815488</v>
       </c>
@@ -16248,26 +15003,9 @@
       <c r="N62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
-      <c r="AA62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF62">
-        <v>1</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="5:33">
+      <c r="AA62" s="1"/>
+    </row>
+    <row r="63" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G63">
         <v>158674104</v>
       </c>
@@ -16289,26 +15027,9 @@
       <c r="N63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
-      <c r="AA63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF63">
-        <v>1</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="5:33">
+      <c r="AA63" s="1"/>
+    </row>
+    <row r="64" spans="5:27" x14ac:dyDescent="0.2">
       <c r="G64">
         <v>160258262</v>
       </c>
@@ -16330,26 +15051,9 @@
       <c r="N64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
-      <c r="AA64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="7:33">
+      <c r="AA64" s="1"/>
+    </row>
+    <row r="65" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G65">
         <v>160584900</v>
       </c>
@@ -16371,26 +15075,9 @@
       <c r="N65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
-      <c r="AA65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF65">
-        <v>1</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="7:33">
+      <c r="AA65" s="1"/>
+    </row>
+    <row r="66" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G66">
         <v>160148512</v>
       </c>
@@ -16412,26 +15099,9 @@
       <c r="N66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
-      <c r="AA66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF66">
-        <v>1</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="7:33">
+      <c r="AA66" s="1"/>
+    </row>
+    <row r="67" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G67">
         <v>160945471</v>
       </c>
@@ -16450,26 +15120,9 @@
       <c r="N67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
-      <c r="AA67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF67">
-        <v>1</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="7:33">
+      <c r="AA67" s="1"/>
+    </row>
+    <row r="68" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G68">
         <v>160313285</v>
       </c>
@@ -16488,26 +15141,9 @@
       <c r="N68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
-      <c r="AA68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF68">
-        <v>1</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="7:33">
+      <c r="AA68" s="1"/>
+    </row>
+    <row r="69" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G69">
         <v>160394771</v>
       </c>
@@ -16529,26 +15165,9 @@
       <c r="N69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
-      <c r="AA69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF69">
-        <v>1</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="7:33">
+      <c r="AA69" s="1"/>
+    </row>
+    <row r="70" spans="7:27" x14ac:dyDescent="0.2">
       <c r="H70">
         <v>140274636</v>
       </c>
@@ -16566,26 +15185,9 @@
       </c>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
-      <c r="AA70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF70">
-        <v>1</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="7:33">
+      <c r="AA70" s="1"/>
+    </row>
+    <row r="71" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G71">
         <v>153159031</v>
       </c>
@@ -16606,26 +15208,9 @@
       </c>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
-      <c r="AA71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF71">
-        <v>1</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="7:33">
+      <c r="AA71" s="1"/>
+    </row>
+    <row r="72" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G72">
         <v>154002917</v>
       </c>
@@ -16646,26 +15231,9 @@
       </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
-      <c r="AA72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF72">
-        <v>1</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="7:33">
+      <c r="AA72" s="1"/>
+    </row>
+    <row r="73" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G73">
         <v>153909059</v>
       </c>
@@ -16687,7 +15255,7 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="7:33">
+    <row r="74" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G74">
         <v>154409699</v>
       </c>
@@ -16706,7 +15274,7 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
     </row>
-    <row r="75" spans="7:33">
+    <row r="75" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G75">
         <v>155168646</v>
       </c>
@@ -16725,7 +15293,7 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
     </row>
-    <row r="76" spans="7:33">
+    <row r="76" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G76">
         <v>155582614</v>
       </c>
@@ -16744,7 +15312,7 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
     </row>
-    <row r="77" spans="7:33">
+    <row r="77" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G77">
         <v>156620216</v>
       </c>
@@ -16766,7 +15334,7 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
     </row>
-    <row r="78" spans="7:33">
+    <row r="78" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G78">
         <v>156951850</v>
       </c>
@@ -16788,7 +15356,7 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
     </row>
-    <row r="79" spans="7:33">
+    <row r="79" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G79">
         <v>156798392</v>
       </c>
@@ -16810,7 +15378,7 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
     </row>
-    <row r="80" spans="7:33">
+    <row r="80" spans="7:27" x14ac:dyDescent="0.2">
       <c r="G80">
         <v>157954339</v>
       </c>
@@ -16831,7 +15399,7 @@
       </c>
       <c r="Y80" s="1"/>
     </row>
-    <row r="81" spans="6:25">
+    <row r="81" spans="6:25" x14ac:dyDescent="0.2">
       <c r="G81">
         <v>158016731</v>
       </c>
@@ -16852,7 +15420,7 @@
       </c>
       <c r="Y81" s="1"/>
     </row>
-    <row r="82" spans="6:25">
+    <row r="82" spans="6:25" x14ac:dyDescent="0.2">
       <c r="G82">
         <v>158220200</v>
       </c>
@@ -16873,7 +15441,7 @@
       </c>
       <c r="Y82" s="1"/>
     </row>
-    <row r="83" spans="6:25">
+    <row r="83" spans="6:25" x14ac:dyDescent="0.2">
       <c r="G83">
         <v>157638801</v>
       </c>
@@ -16893,7 +15461,7 @@
         <v>185000153</v>
       </c>
     </row>
-    <row r="84" spans="6:25">
+    <row r="84" spans="6:25" x14ac:dyDescent="0.2">
       <c r="G84">
         <v>158419020</v>
       </c>
@@ -16913,7 +15481,7 @@
         <v>184387696</v>
       </c>
     </row>
-    <row r="85" spans="6:25">
+    <row r="85" spans="6:25" x14ac:dyDescent="0.2">
       <c r="G85">
         <v>158267428</v>
       </c>
@@ -16933,7 +15501,7 @@
         <v>185284728</v>
       </c>
     </row>
-    <row r="86" spans="6:25">
+    <row r="86" spans="6:25" x14ac:dyDescent="0.2">
       <c r="G86">
         <v>158336551</v>
       </c>
@@ -16953,7 +15521,7 @@
         <v>182340489</v>
       </c>
     </row>
-    <row r="87" spans="6:25">
+    <row r="87" spans="6:25" x14ac:dyDescent="0.2">
       <c r="H87">
         <v>190404390</v>
       </c>
@@ -16970,7 +15538,7 @@
         <v>183993488</v>
       </c>
     </row>
-    <row r="88" spans="6:25">
+    <row r="88" spans="6:25" x14ac:dyDescent="0.2">
       <c r="F88" t="s">
         <v>3</v>
       </c>
@@ -16994,7 +15562,7 @@
         <v>182150424</v>
       </c>
     </row>
-    <row r="89" spans="6:25">
+    <row r="89" spans="6:25" x14ac:dyDescent="0.2">
       <c r="F89" t="s">
         <v>2</v>
       </c>
@@ -17018,7 +15586,7 @@
         <v>184849840</v>
       </c>
     </row>
-    <row r="90" spans="6:25">
+    <row r="90" spans="6:25" x14ac:dyDescent="0.2">
       <c r="H90">
         <v>191492603</v>
       </c>
@@ -17035,7 +15603,7 @@
         <v>183445401</v>
       </c>
     </row>
-    <row r="91" spans="6:25">
+    <row r="91" spans="6:25" x14ac:dyDescent="0.2">
       <c r="H91">
         <v>191409468</v>
       </c>
@@ -17052,7 +15620,7 @@
         <v>185692782</v>
       </c>
     </row>
-    <row r="92" spans="6:25">
+    <row r="92" spans="6:25" x14ac:dyDescent="0.2">
       <c r="H92">
         <v>190200606</v>
       </c>
@@ -17069,7 +15637,7 @@
         <v>184363577</v>
       </c>
     </row>
-    <row r="93" spans="6:25">
+    <row r="93" spans="6:25" x14ac:dyDescent="0.2">
       <c r="H93">
         <v>190276937</v>
       </c>
@@ -17086,7 +15654,7 @@
         <v>189140563</v>
       </c>
     </row>
-    <row r="94" spans="6:25">
+    <row r="94" spans="6:25" x14ac:dyDescent="0.2">
       <c r="H94">
         <v>191918591</v>
       </c>
@@ -17103,7 +15671,7 @@
         <v>186986636</v>
       </c>
     </row>
-    <row r="95" spans="6:25">
+    <row r="95" spans="6:25" x14ac:dyDescent="0.2">
       <c r="H95">
         <v>191580570</v>
       </c>
@@ -17120,7 +15688,7 @@
         <v>189216271</v>
       </c>
     </row>
-    <row r="96" spans="6:25">
+    <row r="96" spans="6:25" x14ac:dyDescent="0.2">
       <c r="H96">
         <v>191475719</v>
       </c>
@@ -17137,7 +15705,7 @@
         <v>190792415</v>
       </c>
     </row>
-    <row r="97" spans="8:12">
+    <row r="97" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H97">
         <v>191344620</v>
       </c>
@@ -17154,7 +15722,7 @@
         <v>187691117</v>
       </c>
     </row>
-    <row r="98" spans="8:12">
+    <row r="98" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H98">
         <v>190011481</v>
       </c>
@@ -17171,7 +15739,7 @@
         <v>186823032</v>
       </c>
     </row>
-    <row r="99" spans="8:12">
+    <row r="99" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H99">
         <v>191804606</v>
       </c>
@@ -17188,7 +15756,7 @@
         <v>186639885</v>
       </c>
     </row>
-    <row r="100" spans="8:12">
+    <row r="100" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H100">
         <v>190736411</v>
       </c>
@@ -17205,7 +15773,7 @@
         <v>191800972</v>
       </c>
     </row>
-    <row r="101" spans="8:12">
+    <row r="101" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I101">
         <v>226268473</v>
       </c>
@@ -17219,7 +15787,7 @@
         <v>191169128</v>
       </c>
     </row>
-    <row r="102" spans="8:12">
+    <row r="102" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H102">
         <v>134510124</v>
       </c>
@@ -17236,7 +15804,7 @@
         <v>188106143</v>
       </c>
     </row>
-    <row r="103" spans="8:12">
+    <row r="103" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H103">
         <v>136673172</v>
       </c>
@@ -17253,7 +15821,7 @@
         <v>190682719</v>
       </c>
     </row>
-    <row r="104" spans="8:12">
+    <row r="104" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H104">
         <v>149658170</v>
       </c>
@@ -17270,7 +15838,7 @@
         <v>191549423</v>
       </c>
     </row>
-    <row r="105" spans="8:12">
+    <row r="105" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H105">
         <v>228485854</v>
       </c>
@@ -17287,7 +15855,7 @@
         <v>191693524</v>
       </c>
     </row>
-    <row r="106" spans="8:12">
+    <row r="106" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H106">
         <v>227982286</v>
       </c>
@@ -17304,7 +15872,7 @@
         <v>192323631</v>
       </c>
     </row>
-    <row r="107" spans="8:12">
+    <row r="107" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H107">
         <v>228875421</v>
       </c>
@@ -17321,7 +15889,7 @@
         <v>190618885</v>
       </c>
     </row>
-    <row r="108" spans="8:12">
+    <row r="108" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H108">
         <v>229945447</v>
       </c>
@@ -17338,7 +15906,7 @@
         <v>188112441</v>
       </c>
     </row>
-    <row r="109" spans="8:12">
+    <row r="109" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H109">
         <v>231499498</v>
       </c>
@@ -17355,7 +15923,7 @@
         <v>189348128</v>
       </c>
     </row>
-    <row r="110" spans="8:12">
+    <row r="110" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H110">
         <v>232546687</v>
       </c>
@@ -17372,7 +15940,7 @@
         <v>193331238</v>
       </c>
     </row>
-    <row r="111" spans="8:12">
+    <row r="111" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H111">
         <v>232009406</v>
       </c>
@@ -17389,7 +15957,7 @@
         <v>191999502</v>
       </c>
     </row>
-    <row r="112" spans="8:12">
+    <row r="112" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H112">
         <v>231225662</v>
       </c>
@@ -17406,7 +15974,7 @@
         <v>193141167</v>
       </c>
     </row>
-    <row r="113" spans="8:12">
+    <row r="113" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H113">
         <v>232403897</v>
       </c>
@@ -17423,7 +15991,7 @@
         <v>192362958</v>
       </c>
     </row>
-    <row r="114" spans="8:12">
+    <row r="114" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H114">
         <v>234007707</v>
       </c>
@@ -17440,7 +16008,7 @@
         <v>190361092</v>
       </c>
     </row>
-    <row r="115" spans="8:12">
+    <row r="115" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H115">
         <v>233565709</v>
       </c>
@@ -17457,7 +16025,7 @@
         <v>193453259</v>
       </c>
     </row>
-    <row r="116" spans="8:12">
+    <row r="116" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H116">
         <v>234275019</v>
       </c>
@@ -17474,7 +16042,7 @@
         <v>193667987</v>
       </c>
     </row>
-    <row r="117" spans="8:12">
+    <row r="117" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H117">
         <v>233230580</v>
       </c>
@@ -17491,7 +16059,7 @@
         <v>189989618</v>
       </c>
     </row>
-    <row r="118" spans="8:12">
+    <row r="118" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H118">
         <v>233557200</v>
       </c>
@@ -17508,7 +16076,7 @@
         <v>191470828</v>
       </c>
     </row>
-    <row r="119" spans="8:12">
+    <row r="119" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H119">
         <v>234469025</v>
       </c>
@@ -17525,7 +16093,7 @@
         <v>190441865</v>
       </c>
     </row>
-    <row r="120" spans="8:12">
+    <row r="120" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H120">
         <v>233953393</v>
       </c>
@@ -17542,7 +16110,7 @@
         <v>191282079</v>
       </c>
     </row>
-    <row r="121" spans="8:12">
+    <row r="121" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H121">
         <v>235109773</v>
       </c>
@@ -17559,7 +16127,7 @@
         <v>190036668</v>
       </c>
     </row>
-    <row r="122" spans="8:12">
+    <row r="122" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H122">
         <v>233666704</v>
       </c>
@@ -17576,7 +16144,7 @@
         <v>193024385</v>
       </c>
     </row>
-    <row r="123" spans="8:12">
+    <row r="123" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H123">
         <v>233626801</v>
       </c>
@@ -17593,7 +16161,7 @@
         <v>191766624</v>
       </c>
     </row>
-    <row r="124" spans="8:12">
+    <row r="124" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H124">
         <v>235210474</v>
       </c>
@@ -17610,7 +16178,7 @@
         <v>192205261</v>
       </c>
     </row>
-    <row r="125" spans="8:12">
+    <row r="125" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H125">
         <v>233644414</v>
       </c>
@@ -17627,7 +16195,7 @@
         <v>189901986</v>
       </c>
     </row>
-    <row r="126" spans="8:12">
+    <row r="126" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H126">
         <v>234998921</v>
       </c>
@@ -17644,7 +16212,7 @@
         <v>190802050</v>
       </c>
     </row>
-    <row r="127" spans="8:12">
+    <row r="127" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H127">
         <v>234296334</v>
       </c>
@@ -17661,7 +16229,7 @@
         <v>191701017</v>
       </c>
     </row>
-    <row r="128" spans="8:12">
+    <row r="128" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H128">
         <v>234623864</v>
       </c>
@@ -17678,7 +16246,7 @@
         <v>190883888</v>
       </c>
     </row>
-    <row r="129" spans="8:12">
+    <row r="129" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H129">
         <v>234966496</v>
       </c>
@@ -17695,7 +16263,7 @@
         <v>193712343</v>
       </c>
     </row>
-    <row r="130" spans="8:12">
+    <row r="130" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H130">
         <v>235123734</v>
       </c>
@@ -17712,7 +16280,7 @@
         <v>194272337</v>
       </c>
     </row>
-    <row r="131" spans="8:12">
+    <row r="131" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H131">
         <v>234961389</v>
       </c>
@@ -17729,7 +16297,7 @@
         <v>191817485</v>
       </c>
     </row>
-    <row r="132" spans="8:12">
+    <row r="132" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H132">
         <v>235010114</v>
       </c>
@@ -17743,7 +16311,7 @@
         <v>191336316</v>
       </c>
     </row>
-    <row r="133" spans="8:12">
+    <row r="133" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H133">
         <v>235681652</v>
       </c>
@@ -17760,7 +16328,7 @@
         <v>192907628</v>
       </c>
     </row>
-    <row r="134" spans="8:12">
+    <row r="134" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I134">
         <v>187298702</v>
       </c>
@@ -17774,7 +16342,7 @@
         <v>193119047</v>
       </c>
     </row>
-    <row r="135" spans="8:12">
+    <row r="135" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H135" s="2">
         <v>151444714</v>
       </c>
@@ -17791,7 +16359,7 @@
         <v>190934586</v>
       </c>
     </row>
-    <row r="136" spans="8:12">
+    <row r="136" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H136" s="2">
         <v>151655917</v>
       </c>
@@ -17808,7 +16376,7 @@
         <v>195517766</v>
       </c>
     </row>
-    <row r="137" spans="8:12">
+    <row r="137" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H137" s="2">
         <v>151813702</v>
       </c>
@@ -17825,7 +16393,7 @@
         <v>195052921</v>
       </c>
     </row>
-    <row r="138" spans="8:12">
+    <row r="138" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H138" s="2">
         <v>152389961</v>
       </c>
@@ -17842,7 +16410,7 @@
         <v>191452367</v>
       </c>
     </row>
-    <row r="139" spans="8:12">
+    <row r="139" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H139" s="2">
         <v>152409411</v>
       </c>
@@ -17859,7 +16427,7 @@
         <v>193592586</v>
       </c>
     </row>
-    <row r="140" spans="8:12">
+    <row r="140" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H140" s="2">
         <v>152390232</v>
       </c>
@@ -17876,7 +16444,7 @@
         <v>192070708</v>
       </c>
     </row>
-    <row r="141" spans="8:12">
+    <row r="141" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H141" s="2">
         <v>152097845</v>
       </c>
@@ -17893,7 +16461,7 @@
         <v>196276265</v>
       </c>
     </row>
-    <row r="142" spans="8:12">
+    <row r="142" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H142" s="2">
         <v>151308787</v>
       </c>
@@ -17910,7 +16478,7 @@
         <v>196238368</v>
       </c>
     </row>
-    <row r="143" spans="8:12">
+    <row r="143" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H143" s="2">
         <v>152866799</v>
       </c>
@@ -17927,7 +16495,7 @@
         <v>193150810</v>
       </c>
     </row>
-    <row r="144" spans="8:12">
+    <row r="144" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H144" s="2">
         <v>152048842</v>
       </c>
@@ -17944,7 +16512,7 @@
         <v>194715808</v>
       </c>
     </row>
-    <row r="145" spans="8:12">
+    <row r="145" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H145" s="2">
         <v>153210815</v>
       </c>
@@ -17961,7 +16529,7 @@
         <v>195743989</v>
       </c>
     </row>
-    <row r="146" spans="8:12">
+    <row r="146" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H146" s="2">
         <v>152518150</v>
       </c>
@@ -17975,7 +16543,7 @@
         <v>466207178</v>
       </c>
     </row>
-    <row r="147" spans="8:12">
+    <row r="147" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H147" s="2">
         <v>153670444</v>
       </c>
@@ -17992,7 +16560,7 @@
         <v>177518596</v>
       </c>
     </row>
-    <row r="148" spans="8:12">
+    <row r="148" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H148" s="2">
         <v>153579974</v>
       </c>
@@ -18006,7 +16574,7 @@
         <v>173512796</v>
       </c>
     </row>
-    <row r="149" spans="8:12">
+    <row r="149" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H149" s="2">
         <v>153959190</v>
       </c>
@@ -18023,7 +16591,7 @@
         <v>176785274</v>
       </c>
     </row>
-    <row r="150" spans="8:12">
+    <row r="150" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H150" s="2">
         <v>154409172</v>
       </c>
@@ -18037,7 +16605,7 @@
         <v>176822987</v>
       </c>
     </row>
-    <row r="151" spans="8:12">
+    <row r="151" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H151" s="2">
         <v>152919783</v>
       </c>
@@ -18054,7 +16622,7 @@
         <v>175820508</v>
       </c>
     </row>
-    <row r="152" spans="8:12">
+    <row r="152" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H152" s="2">
         <v>153694839</v>
       </c>
@@ -18071,7 +16639,7 @@
         <v>181149581</v>
       </c>
     </row>
-    <row r="153" spans="8:12">
+    <row r="153" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H153" s="2">
         <v>153255484</v>
       </c>
@@ -18088,7 +16656,7 @@
         <v>178311542</v>
       </c>
     </row>
-    <row r="154" spans="8:12">
+    <row r="154" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H154" s="2">
         <v>153884629</v>
       </c>
@@ -18105,7 +16673,7 @@
         <v>178907841</v>
       </c>
     </row>
-    <row r="155" spans="8:12">
+    <row r="155" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H155" s="2">
         <v>154349900</v>
       </c>
@@ -18122,7 +16690,7 @@
         <v>180780114</v>
       </c>
     </row>
-    <row r="156" spans="8:12">
+    <row r="156" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H156" s="2">
         <v>153436858</v>
       </c>
@@ -18139,7 +16707,7 @@
         <v>180521171</v>
       </c>
     </row>
-    <row r="157" spans="8:12">
+    <row r="157" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H157" s="2">
         <v>153325718</v>
       </c>
@@ -18156,7 +16724,7 @@
         <v>183410576</v>
       </c>
     </row>
-    <row r="158" spans="8:12">
+    <row r="158" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H158" s="2">
         <v>154345478</v>
       </c>
@@ -18173,7 +16741,7 @@
         <v>183852905</v>
       </c>
     </row>
-    <row r="159" spans="8:12">
+    <row r="159" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H159" s="2">
         <v>153959600</v>
       </c>
@@ -18190,7 +16758,7 @@
         <v>182283121</v>
       </c>
     </row>
-    <row r="160" spans="8:12">
+    <row r="160" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H160" s="2">
         <v>153114103</v>
       </c>
@@ -18207,7 +16775,7 @@
         <v>183279640</v>
       </c>
     </row>
-    <row r="161" spans="7:12">
+    <row r="161" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H161" s="2">
         <v>155433684</v>
       </c>
@@ -18224,7 +16792,7 @@
         <v>185265161</v>
       </c>
     </row>
-    <row r="162" spans="7:12">
+    <row r="162" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H162" s="2">
         <v>154841501</v>
       </c>
@@ -18241,7 +16809,7 @@
         <v>186034612</v>
       </c>
     </row>
-    <row r="163" spans="7:12">
+    <row r="163" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H163" s="2">
         <v>154017026</v>
       </c>
@@ -18258,7 +16826,7 @@
         <v>186746369</v>
       </c>
     </row>
-    <row r="164" spans="7:12">
+    <row r="164" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H164" s="2">
         <v>154743971</v>
       </c>
@@ -18275,7 +16843,7 @@
         <v>186476509</v>
       </c>
     </row>
-    <row r="165" spans="7:12">
+    <row r="165" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H165" s="2">
         <v>155026432</v>
       </c>
@@ -18292,7 +16860,7 @@
         <v>186865885</v>
       </c>
     </row>
-    <row r="166" spans="7:12">
+    <row r="166" spans="7:12" x14ac:dyDescent="0.2">
       <c r="H166" s="2">
         <v>154744185</v>
       </c>
@@ -18309,7 +16877,7 @@
         <v>189194771</v>
       </c>
     </row>
-    <row r="167" spans="7:12">
+    <row r="167" spans="7:12" x14ac:dyDescent="0.2">
       <c r="I167">
         <v>203701948</v>
       </c>
@@ -18323,7 +16891,7 @@
         <v>188663874</v>
       </c>
     </row>
-    <row r="168" spans="7:12">
+    <row r="168" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G168" t="s">
         <v>3</v>
       </c>
@@ -18344,7 +16912,7 @@
         <v>190161731</v>
       </c>
     </row>
-    <row r="169" spans="7:12">
+    <row r="169" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G169" t="s">
         <v>2</v>
       </c>
@@ -18365,7 +16933,7 @@
         <v>187630408</v>
       </c>
     </row>
-    <row r="170" spans="7:12">
+    <row r="170" spans="7:12" x14ac:dyDescent="0.2">
       <c r="I170">
         <v>201468948</v>
       </c>
@@ -18379,7 +16947,7 @@
         <v>190614290</v>
       </c>
     </row>
-    <row r="171" spans="7:12">
+    <row r="171" spans="7:12" x14ac:dyDescent="0.2">
       <c r="I171">
         <v>206602940</v>
       </c>
@@ -18393,7 +16961,7 @@
         <v>190807780</v>
       </c>
     </row>
-    <row r="172" spans="7:12">
+    <row r="172" spans="7:12" x14ac:dyDescent="0.2">
       <c r="I172">
         <v>206477464</v>
       </c>
@@ -18407,7 +16975,7 @@
         <v>185361241</v>
       </c>
     </row>
-    <row r="173" spans="7:12">
+    <row r="173" spans="7:12" x14ac:dyDescent="0.2">
       <c r="I173">
         <v>206814000</v>
       </c>
@@ -18415,13 +16983,13 @@
         <v>432667051</v>
       </c>
       <c r="K173" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="L173">
         <v>190651969</v>
       </c>
     </row>
-    <row r="174" spans="7:12">
+    <row r="174" spans="7:12" x14ac:dyDescent="0.2">
       <c r="I174">
         <v>205557361</v>
       </c>
@@ -18435,7 +17003,7 @@
         <v>187727942</v>
       </c>
     </row>
-    <row r="175" spans="7:12">
+    <row r="175" spans="7:12" x14ac:dyDescent="0.2">
       <c r="I175">
         <v>207618688</v>
       </c>
@@ -18449,7 +17017,7 @@
         <v>189731760</v>
       </c>
     </row>
-    <row r="176" spans="7:12">
+    <row r="176" spans="7:12" x14ac:dyDescent="0.2">
       <c r="I176">
         <v>206390828</v>
       </c>
@@ -18463,7 +17031,7 @@
         <v>191630646</v>
       </c>
     </row>
-    <row r="177" spans="9:12">
+    <row r="177" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I177">
         <v>207018569</v>
       </c>
@@ -18477,7 +17045,7 @@
         <v>191561425</v>
       </c>
     </row>
-    <row r="178" spans="9:12">
+    <row r="178" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I178">
         <v>208791534</v>
       </c>
@@ -18491,7 +17059,7 @@
         <v>189455534</v>
       </c>
     </row>
-    <row r="179" spans="9:12">
+    <row r="179" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I179">
         <v>205833637</v>
       </c>
@@ -18505,7 +17073,7 @@
         <v>191891488</v>
       </c>
     </row>
-    <row r="180" spans="9:12">
+    <row r="180" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I180">
         <v>205669961</v>
       </c>
@@ -18519,7 +17087,7 @@
         <v>189551933</v>
       </c>
     </row>
-    <row r="181" spans="9:12">
+    <row r="181" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I181">
         <v>205877284</v>
       </c>
@@ -18533,7 +17101,7 @@
         <v>192991044</v>
       </c>
     </row>
-    <row r="182" spans="9:12">
+    <row r="182" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I182">
         <v>209665307</v>
       </c>
@@ -18547,7 +17115,7 @@
         <v>190119541</v>
       </c>
     </row>
-    <row r="183" spans="9:12">
+    <row r="183" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I183">
         <v>208678856</v>
       </c>
@@ -18561,7 +17129,7 @@
         <v>188730360</v>
       </c>
     </row>
-    <row r="184" spans="9:12">
+    <row r="184" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I184">
         <v>207156018</v>
       </c>
@@ -18575,7 +17143,7 @@
         <v>187572904</v>
       </c>
     </row>
-    <row r="185" spans="9:12">
+    <row r="185" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I185">
         <v>209909198</v>
       </c>
@@ -18589,7 +17157,7 @@
         <v>193913894</v>
       </c>
     </row>
-    <row r="186" spans="9:12">
+    <row r="186" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I186">
         <v>207896672</v>
       </c>
@@ -18603,7 +17171,7 @@
         <v>193903489</v>
       </c>
     </row>
-    <row r="187" spans="9:12">
+    <row r="187" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I187">
         <v>205815062</v>
       </c>
@@ -18617,7 +17185,7 @@
         <v>192906379</v>
       </c>
     </row>
-    <row r="188" spans="9:12">
+    <row r="188" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I188">
         <v>208168065</v>
       </c>
@@ -18631,7 +17199,7 @@
         <v>190957916</v>
       </c>
     </row>
-    <row r="189" spans="9:12">
+    <row r="189" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I189">
         <v>208515118</v>
       </c>
@@ -18645,7 +17213,7 @@
         <v>193000646</v>
       </c>
     </row>
-    <row r="190" spans="9:12">
+    <row r="190" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I190">
         <v>209081647</v>
       </c>
@@ -18659,7 +17227,7 @@
         <v>191515402</v>
       </c>
     </row>
-    <row r="191" spans="9:12">
+    <row r="191" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I191">
         <v>208460005</v>
       </c>
@@ -18673,7 +17241,7 @@
         <v>190390759</v>
       </c>
     </row>
-    <row r="192" spans="9:12">
+    <row r="192" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I192">
         <v>206286974</v>
       </c>
@@ -18687,7 +17255,7 @@
         <v>192746894</v>
       </c>
     </row>
-    <row r="193" spans="9:12">
+    <row r="193" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I193">
         <v>206595757</v>
       </c>
@@ -18701,7 +17269,7 @@
         <v>194477810</v>
       </c>
     </row>
-    <row r="194" spans="9:12">
+    <row r="194" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I194">
         <v>210527199</v>
       </c>
@@ -18715,7 +17283,7 @@
         <v>193741305</v>
       </c>
     </row>
-    <row r="195" spans="9:12">
+    <row r="195" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I195">
         <v>207492792</v>
       </c>
@@ -18729,7 +17297,7 @@
         <v>191267122</v>
       </c>
     </row>
-    <row r="196" spans="9:12">
+    <row r="196" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I196">
         <v>209917851</v>
       </c>
@@ -18743,7 +17311,7 @@
         <v>190208053</v>
       </c>
     </row>
-    <row r="197" spans="9:12">
+    <row r="197" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J197">
         <v>443804651</v>
       </c>
@@ -18754,7 +17322,7 @@
         <v>190362533</v>
       </c>
     </row>
-    <row r="198" spans="9:12">
+    <row r="198" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I198">
         <v>197993541</v>
       </c>
@@ -18768,7 +17336,7 @@
         <v>194085499</v>
       </c>
     </row>
-    <row r="199" spans="9:12">
+    <row r="199" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I199">
         <v>197301020</v>
       </c>
@@ -18782,7 +17350,7 @@
         <v>193881432</v>
       </c>
     </row>
-    <row r="200" spans="9:12">
+    <row r="200" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I200">
         <v>199951495</v>
       </c>
@@ -18796,7 +17364,7 @@
         <v>190162566</v>
       </c>
     </row>
-    <row r="201" spans="9:12">
+    <row r="201" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I201">
         <v>200602131</v>
       </c>
@@ -18810,7 +17378,7 @@
         <v>193887865</v>
       </c>
     </row>
-    <row r="202" spans="9:12">
+    <row r="202" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I202">
         <v>202496380</v>
       </c>
@@ -18824,7 +17392,7 @@
         <v>195742783</v>
       </c>
     </row>
-    <row r="203" spans="9:12">
+    <row r="203" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I203">
         <v>203746818</v>
       </c>
@@ -18838,7 +17406,7 @@
         <v>195277813</v>
       </c>
     </row>
-    <row r="204" spans="9:12">
+    <row r="204" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I204">
         <v>205781361</v>
       </c>
@@ -18852,7 +17420,7 @@
         <v>193447316</v>
       </c>
     </row>
-    <row r="205" spans="9:12">
+    <row r="205" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I205">
         <v>201679226</v>
       </c>
@@ -18866,7 +17434,7 @@
         <v>194668212</v>
       </c>
     </row>
-    <row r="206" spans="9:12">
+    <row r="206" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I206">
         <v>203214732</v>
       </c>
@@ -18880,7 +17448,7 @@
         <v>191425677</v>
       </c>
     </row>
-    <row r="207" spans="9:12">
+    <row r="207" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I207">
         <v>205455021</v>
       </c>
@@ -18894,7 +17462,7 @@
         <v>191238771</v>
       </c>
     </row>
-    <row r="208" spans="9:12">
+    <row r="208" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I208">
         <v>202036156</v>
       </c>
@@ -18908,7 +17476,7 @@
         <v>193534473</v>
       </c>
     </row>
-    <row r="209" spans="9:12">
+    <row r="209" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I209">
         <v>204019311</v>
       </c>
@@ -18922,7 +17490,7 @@
         <v>190968410</v>
       </c>
     </row>
-    <row r="210" spans="9:12">
+    <row r="210" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I210">
         <v>202512701</v>
       </c>
@@ -18936,7 +17504,7 @@
         <v>191437492</v>
       </c>
     </row>
-    <row r="211" spans="9:12">
+    <row r="211" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I211">
         <v>207497174</v>
       </c>
@@ -18950,7 +17518,7 @@
         <v>193219249</v>
       </c>
     </row>
-    <row r="212" spans="9:12">
+    <row r="212" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I212">
         <v>203392050</v>
       </c>
@@ -18964,7 +17532,7 @@
         <v>196197845</v>
       </c>
     </row>
-    <row r="213" spans="9:12">
+    <row r="213" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I213">
         <v>206117632</v>
       </c>
@@ -18978,7 +17546,7 @@
         <v>194075539</v>
       </c>
     </row>
-    <row r="214" spans="9:12">
+    <row r="214" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I214">
         <v>205890192</v>
       </c>
@@ -18992,7 +17560,7 @@
         <v>192783467</v>
       </c>
     </row>
-    <row r="215" spans="9:12">
+    <row r="215" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I215">
         <v>205620774</v>
       </c>
@@ -19006,7 +17574,7 @@
         <v>191989055</v>
       </c>
     </row>
-    <row r="216" spans="9:12">
+    <row r="216" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I216">
         <v>208829620</v>
       </c>
@@ -19020,7 +17588,7 @@
         <v>191734439</v>
       </c>
     </row>
-    <row r="217" spans="9:12">
+    <row r="217" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I217">
         <v>206507449</v>
       </c>
@@ -19034,7 +17602,7 @@
         <v>191065863</v>
       </c>
     </row>
-    <row r="218" spans="9:12">
+    <row r="218" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I218">
         <v>208749332</v>
       </c>
@@ -19045,7 +17613,7 @@
         <v>479012546</v>
       </c>
     </row>
-    <row r="219" spans="9:12">
+    <row r="219" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I219">
         <v>208487085</v>
       </c>
@@ -19059,7 +17627,7 @@
         <v>184372514</v>
       </c>
     </row>
-    <row r="220" spans="9:12">
+    <row r="220" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I220">
         <v>209300610</v>
       </c>
@@ -19073,7 +17641,7 @@
         <v>186022834</v>
       </c>
     </row>
-    <row r="221" spans="9:12">
+    <row r="221" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I221">
         <v>208690057</v>
       </c>
@@ -19084,7 +17652,7 @@
         <v>182500464</v>
       </c>
     </row>
-    <row r="222" spans="9:12">
+    <row r="222" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I222">
         <v>210105861</v>
       </c>
@@ -19098,7 +17666,7 @@
         <v>187822335</v>
       </c>
     </row>
-    <row r="223" spans="9:12">
+    <row r="223" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I223">
         <v>213409138</v>
       </c>
@@ -19112,7 +17680,7 @@
         <v>189401611</v>
       </c>
     </row>
-    <row r="224" spans="9:12">
+    <row r="224" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I224">
         <v>209130876</v>
       </c>
@@ -19123,7 +17691,7 @@
         <v>187927463</v>
       </c>
     </row>
-    <row r="225" spans="9:12">
+    <row r="225" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I225">
         <v>209295719</v>
       </c>
@@ -19137,7 +17705,7 @@
         <v>192187822</v>
       </c>
     </row>
-    <row r="226" spans="9:12">
+    <row r="226" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I226">
         <v>212900243</v>
       </c>
@@ -19151,7 +17719,7 @@
         <v>189015119</v>
       </c>
     </row>
-    <row r="227" spans="9:12">
+    <row r="227" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I227">
         <v>213768005</v>
       </c>
@@ -19165,7 +17733,7 @@
         <v>192867853</v>
       </c>
     </row>
-    <row r="228" spans="9:12">
+    <row r="228" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I228">
         <v>212577708</v>
       </c>
@@ -19179,7 +17747,7 @@
         <v>193612875</v>
       </c>
     </row>
-    <row r="229" spans="9:12">
+    <row r="229" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I229">
         <v>213524755</v>
       </c>
@@ -19193,7 +17761,7 @@
         <v>193600416</v>
       </c>
     </row>
-    <row r="230" spans="9:12">
+    <row r="230" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I230">
         <v>210289747</v>
       </c>
@@ -19207,7 +17775,7 @@
         <v>190485612</v>
       </c>
     </row>
-    <row r="231" spans="9:12">
+    <row r="231" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I231">
         <v>214429791</v>
       </c>
@@ -19221,7 +17789,7 @@
         <v>193884949</v>
       </c>
     </row>
-    <row r="232" spans="9:12">
+    <row r="232" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I232">
         <v>213005095</v>
       </c>
@@ -19235,7 +17803,7 @@
         <v>195415467</v>
       </c>
     </row>
-    <row r="233" spans="9:12">
+    <row r="233" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I233">
         <v>213116000</v>
       </c>
@@ -19249,7 +17817,7 @@
         <v>194896936</v>
       </c>
     </row>
-    <row r="234" spans="9:12">
+    <row r="234" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I234">
         <v>211665917</v>
       </c>
@@ -19263,7 +17831,7 @@
         <v>195293895</v>
       </c>
     </row>
-    <row r="235" spans="9:12">
+    <row r="235" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I235">
         <v>215388300</v>
       </c>
@@ -19277,7 +17845,7 @@
         <v>194802388</v>
       </c>
     </row>
-    <row r="236" spans="9:12">
+    <row r="236" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I236">
         <v>213457051</v>
       </c>
@@ -19291,7 +17859,7 @@
         <v>199782581</v>
       </c>
     </row>
-    <row r="237" spans="9:12">
+    <row r="237" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I237">
         <v>214423695</v>
       </c>
@@ -19305,7 +17873,7 @@
         <v>197260632</v>
       </c>
     </row>
-    <row r="238" spans="9:12">
+    <row r="238" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I238">
         <v>215474385</v>
       </c>
@@ -19319,7 +17887,7 @@
         <v>200376154</v>
       </c>
     </row>
-    <row r="239" spans="9:12">
+    <row r="239" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I239">
         <v>217967371</v>
       </c>
@@ -19333,7 +17901,7 @@
         <v>200734709</v>
       </c>
     </row>
-    <row r="240" spans="9:12">
+    <row r="240" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I240">
         <v>217116723</v>
       </c>
@@ -19347,7 +17915,7 @@
         <v>201054755</v>
       </c>
     </row>
-    <row r="241" spans="9:12">
+    <row r="241" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I241">
         <v>217179614</v>
       </c>
@@ -19361,7 +17929,7 @@
         <v>200704020</v>
       </c>
     </row>
-    <row r="242" spans="9:12">
+    <row r="242" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I242">
         <v>215645365</v>
       </c>
@@ -19375,7 +17943,7 @@
         <v>198683744</v>
       </c>
     </row>
-    <row r="243" spans="9:12">
+    <row r="243" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I243">
         <v>219161029</v>
       </c>
@@ -19389,7 +17957,7 @@
         <v>200818933</v>
       </c>
     </row>
-    <row r="244" spans="9:12">
+    <row r="244" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I244">
         <v>216407386</v>
       </c>
@@ -19403,7 +17971,7 @@
         <v>202742802</v>
       </c>
     </row>
-    <row r="245" spans="9:12">
+    <row r="245" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I245">
         <v>218409513</v>
       </c>
@@ -19417,7 +17985,7 @@
         <v>200940254</v>
       </c>
     </row>
-    <row r="246" spans="9:12">
+    <row r="246" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I246">
         <v>217614373</v>
       </c>
@@ -19431,7 +17999,7 @@
         <v>198301834</v>
       </c>
     </row>
-    <row r="247" spans="9:12">
+    <row r="247" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I247">
         <v>219166727</v>
       </c>
@@ -19445,7 +18013,7 @@
         <v>197537732</v>
       </c>
     </row>
-    <row r="248" spans="9:12">
+    <row r="248" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I248">
         <v>219275573</v>
       </c>
@@ -19459,7 +18027,7 @@
         <v>200767709</v>
       </c>
     </row>
-    <row r="249" spans="9:12">
+    <row r="249" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I249">
         <v>217250580</v>
       </c>
@@ -19473,7 +18041,7 @@
         <v>200334932</v>
       </c>
     </row>
-    <row r="250" spans="9:12">
+    <row r="250" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I250">
         <v>217687480</v>
       </c>
@@ -19487,7 +18055,7 @@
         <v>203658407</v>
       </c>
     </row>
-    <row r="251" spans="9:12">
+    <row r="251" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I251">
         <v>216169089</v>
       </c>
@@ -19501,7 +18069,7 @@
         <v>201378152</v>
       </c>
     </row>
-    <row r="252" spans="9:12">
+    <row r="252" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I252">
         <v>219671828</v>
       </c>
@@ -19515,7 +18083,7 @@
         <v>204676557</v>
       </c>
     </row>
-    <row r="253" spans="9:12">
+    <row r="253" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I253">
         <v>214829389</v>
       </c>
@@ -19529,7 +18097,7 @@
         <v>202345789</v>
       </c>
     </row>
-    <row r="254" spans="9:12">
+    <row r="254" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I254">
         <v>217045855</v>
       </c>
@@ -19543,7 +18111,7 @@
         <v>204981854</v>
       </c>
     </row>
-    <row r="255" spans="9:12">
+    <row r="255" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I255">
         <v>218610965</v>
       </c>
@@ -19557,7 +18125,7 @@
         <v>202253235</v>
       </c>
     </row>
-    <row r="256" spans="9:12">
+    <row r="256" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I256">
         <v>215691818</v>
       </c>
@@ -19571,7 +18139,7 @@
         <v>202663904</v>
       </c>
     </row>
-    <row r="257" spans="9:12">
+    <row r="257" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I257">
         <v>217803774</v>
       </c>
@@ -19585,7 +18153,7 @@
         <v>205973883</v>
       </c>
     </row>
-    <row r="258" spans="9:12">
+    <row r="258" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I258">
         <v>217571007</v>
       </c>
@@ -19599,7 +18167,7 @@
         <v>202590044</v>
       </c>
     </row>
-    <row r="259" spans="9:12">
+    <row r="259" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I259">
         <v>217213540</v>
       </c>
@@ -19613,7 +18181,7 @@
         <v>205120712</v>
       </c>
     </row>
-    <row r="260" spans="9:12">
+    <row r="260" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I260">
         <v>218296865</v>
       </c>
@@ -19627,7 +18195,7 @@
         <v>206523956</v>
       </c>
     </row>
-    <row r="261" spans="9:12">
+    <row r="261" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I261">
         <v>216526784</v>
       </c>
@@ -19641,7 +18209,7 @@
         <v>205134560</v>
       </c>
     </row>
-    <row r="262" spans="9:12">
+    <row r="262" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J262">
         <v>414881329</v>
       </c>
@@ -19652,7 +18220,7 @@
         <v>206403646</v>
       </c>
     </row>
-    <row r="263" spans="9:12">
+    <row r="263" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I263">
         <v>180751963</v>
       </c>
@@ -19666,7 +18234,7 @@
         <v>202478948</v>
       </c>
     </row>
-    <row r="264" spans="9:12">
+    <row r="264" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I264">
         <v>177716048</v>
       </c>
@@ -19680,7 +18248,7 @@
         <v>205050977</v>
       </c>
     </row>
-    <row r="265" spans="9:12">
+    <row r="265" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I265">
         <v>178268253</v>
       </c>
@@ -19694,7 +18262,7 @@
         <v>205243093</v>
       </c>
     </row>
-    <row r="266" spans="9:12">
+    <row r="266" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I266">
         <v>181320218</v>
       </c>
@@ -19708,7 +18276,7 @@
         <v>202181682</v>
       </c>
     </row>
-    <row r="267" spans="9:12">
+    <row r="267" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I267">
         <v>184971048</v>
       </c>
@@ -19722,7 +18290,7 @@
         <v>206018231</v>
       </c>
     </row>
-    <row r="268" spans="9:12">
+    <row r="268" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I268">
         <v>188375839</v>
       </c>
@@ -19736,7 +18304,7 @@
         <v>204841899</v>
       </c>
     </row>
-    <row r="269" spans="9:12">
+    <row r="269" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I269">
         <v>185548621</v>
       </c>
@@ -19750,7 +18318,7 @@
         <v>204260572</v>
       </c>
     </row>
-    <row r="270" spans="9:12">
+    <row r="270" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I270">
         <v>190213904</v>
       </c>
@@ -19764,7 +18332,7 @@
         <v>205353861</v>
       </c>
     </row>
-    <row r="271" spans="9:12">
+    <row r="271" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I271">
         <v>189076138</v>
       </c>
@@ -19778,7 +18346,7 @@
         <v>204317209</v>
       </c>
     </row>
-    <row r="272" spans="9:12">
+    <row r="272" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I272">
         <v>188967970</v>
       </c>
@@ -19792,7 +18360,7 @@
         <v>204050384</v>
       </c>
     </row>
-    <row r="273" spans="9:12">
+    <row r="273" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I273">
         <v>188380255</v>
       </c>
@@ -19806,7 +18374,7 @@
         <v>203204080</v>
       </c>
     </row>
-    <row r="274" spans="9:12">
+    <row r="274" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I274">
         <v>188240764</v>
       </c>
@@ -19820,7 +18388,7 @@
         <v>207677552</v>
       </c>
     </row>
-    <row r="275" spans="9:12">
+    <row r="275" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I275">
         <v>188434823</v>
       </c>
@@ -19834,7 +18402,7 @@
         <v>206184027</v>
       </c>
     </row>
-    <row r="276" spans="9:12">
+    <row r="276" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I276">
         <v>187349695</v>
       </c>
@@ -19848,7 +18416,7 @@
         <v>206704910</v>
       </c>
     </row>
-    <row r="277" spans="9:12">
+    <row r="277" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I277">
         <v>190815179</v>
       </c>
@@ -19862,7 +18430,7 @@
         <v>204022067</v>
       </c>
     </row>
-    <row r="278" spans="9:12">
+    <row r="278" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I278">
         <v>193502847</v>
       </c>
@@ -19876,7 +18444,7 @@
         <v>205308158</v>
       </c>
     </row>
-    <row r="279" spans="9:12">
+    <row r="279" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I279">
         <v>191027364</v>
       </c>
@@ -19890,7 +18458,7 @@
         <v>205401848</v>
       </c>
     </row>
-    <row r="280" spans="9:12">
+    <row r="280" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I280">
         <v>190868749</v>
       </c>
@@ -19904,7 +18472,7 @@
         <v>206073926</v>
       </c>
     </row>
-    <row r="281" spans="9:12">
+    <row r="281" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I281">
         <v>190517836</v>
       </c>
@@ -19918,7 +18486,7 @@
         <v>208062528</v>
       </c>
     </row>
-    <row r="282" spans="9:12">
+    <row r="282" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I282">
         <v>192907211</v>
       </c>
@@ -19932,7 +18500,7 @@
         <v>208220372</v>
       </c>
     </row>
-    <row r="283" spans="9:12">
+    <row r="283" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I283">
         <v>193259063</v>
       </c>
@@ -19946,7 +18514,7 @@
         <v>204528510</v>
       </c>
     </row>
-    <row r="284" spans="9:12">
+    <row r="284" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I284">
         <v>194344264</v>
       </c>
@@ -19960,7 +18528,7 @@
         <v>205196875</v>
       </c>
     </row>
-    <row r="285" spans="9:12">
+    <row r="285" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I285">
         <v>194756991</v>
       </c>
@@ -19974,7 +18542,7 @@
         <v>205072867</v>
       </c>
     </row>
-    <row r="286" spans="9:12">
+    <row r="286" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I286">
         <v>193909333</v>
       </c>
@@ -19988,7 +18556,7 @@
         <v>207157252</v>
       </c>
     </row>
-    <row r="287" spans="9:12">
+    <row r="287" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I287">
         <v>193956445</v>
       </c>
@@ -20002,7 +18570,7 @@
         <v>204967003</v>
       </c>
     </row>
-    <row r="288" spans="9:12">
+    <row r="288" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I288">
         <v>195766688</v>
       </c>
@@ -20016,7 +18584,7 @@
         <v>206265392</v>
       </c>
     </row>
-    <row r="289" spans="9:12">
+    <row r="289" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I289">
         <v>191827708</v>
       </c>
@@ -20030,7 +18598,7 @@
         <v>207287244</v>
       </c>
     </row>
-    <row r="290" spans="9:12">
+    <row r="290" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I290">
         <v>195855907</v>
       </c>
@@ -20041,7 +18609,7 @@
         <v>591434851</v>
       </c>
     </row>
-    <row r="291" spans="9:12">
+    <row r="291" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I291">
         <v>196737029</v>
       </c>
@@ -20055,7 +18623,7 @@
         <v>174356743</v>
       </c>
     </row>
-    <row r="292" spans="9:12">
+    <row r="292" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I292">
         <v>196335307</v>
       </c>
@@ -20069,7 +18637,7 @@
         <v>176326518</v>
       </c>
     </row>
-    <row r="293" spans="9:12">
+    <row r="293" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I293">
         <v>197045328</v>
       </c>
@@ -20083,7 +18651,7 @@
         <v>179914409</v>
       </c>
     </row>
-    <row r="294" spans="9:12">
+    <row r="294" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I294">
         <v>197472604</v>
       </c>
@@ -20094,7 +18662,7 @@
         <v>175801706</v>
       </c>
     </row>
-    <row r="295" spans="9:12">
+    <row r="295" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I295">
         <v>194722000</v>
       </c>
@@ -20108,7 +18676,7 @@
         <v>176357894</v>
       </c>
     </row>
-    <row r="296" spans="9:12">
+    <row r="296" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I296">
         <v>196537254</v>
       </c>
@@ -20122,7 +18690,7 @@
         <v>179300166</v>
       </c>
     </row>
-    <row r="297" spans="9:12">
+    <row r="297" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I297">
         <v>194366042</v>
       </c>
@@ -20136,7 +18704,7 @@
         <v>179110014</v>
       </c>
     </row>
-    <row r="298" spans="9:12">
+    <row r="298" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I298">
         <v>194540383</v>
       </c>
@@ -20147,7 +18715,7 @@
         <v>180564601</v>
       </c>
     </row>
-    <row r="299" spans="9:12">
+    <row r="299" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I299">
         <v>198319066</v>
       </c>
@@ -20161,7 +18729,7 @@
         <v>178076190</v>
       </c>
     </row>
-    <row r="300" spans="9:12">
+    <row r="300" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I300">
         <v>198561891</v>
       </c>
@@ -20175,7 +18743,7 @@
         <v>177129510</v>
       </c>
     </row>
-    <row r="301" spans="9:12">
+    <row r="301" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I301">
         <v>197721270</v>
       </c>
@@ -20189,7 +18757,7 @@
         <v>177135535</v>
       </c>
     </row>
-    <row r="302" spans="9:12">
+    <row r="302" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I302">
         <v>197697396</v>
       </c>
@@ -20203,7 +18771,7 @@
         <v>183311611</v>
       </c>
     </row>
-    <row r="303" spans="9:12">
+    <row r="303" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I303">
         <v>196058360</v>
       </c>
@@ -20217,7 +18785,7 @@
         <v>182230657</v>
       </c>
     </row>
-    <row r="304" spans="9:12">
+    <row r="304" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I304">
         <v>195327119</v>
       </c>
@@ -20231,7 +18799,7 @@
         <v>182155258</v>
       </c>
     </row>
-    <row r="305" spans="9:12">
+    <row r="305" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I305">
         <v>197849362</v>
       </c>
@@ -20245,7 +18813,7 @@
         <v>181596021</v>
       </c>
     </row>
-    <row r="306" spans="9:12">
+    <row r="306" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I306">
         <v>194768516</v>
       </c>
@@ -20259,7 +18827,7 @@
         <v>181000432</v>
       </c>
     </row>
-    <row r="307" spans="9:12">
+    <row r="307" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I307">
         <v>197401544</v>
       </c>
@@ -20273,7 +18841,7 @@
         <v>181788932</v>
       </c>
     </row>
-    <row r="308" spans="9:12">
+    <row r="308" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I308">
         <v>198152276</v>
       </c>
@@ -20287,7 +18855,7 @@
         <v>182528914</v>
       </c>
     </row>
-    <row r="309" spans="9:12">
+    <row r="309" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I309">
         <v>199866896</v>
       </c>
@@ -20301,7 +18869,7 @@
         <v>188777646</v>
       </c>
     </row>
-    <row r="310" spans="9:12">
+    <row r="310" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I310">
         <v>194966303</v>
       </c>
@@ -20315,7 +18883,7 @@
         <v>184435237</v>
       </c>
     </row>
-    <row r="311" spans="9:12">
+    <row r="311" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I311">
         <v>198815694</v>
       </c>
@@ -20329,7 +18897,7 @@
         <v>188673433</v>
       </c>
     </row>
-    <row r="312" spans="9:12">
+    <row r="312" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I312">
         <v>195725998</v>
       </c>
@@ -20343,7 +18911,7 @@
         <v>183946427</v>
       </c>
     </row>
-    <row r="313" spans="9:12">
+    <row r="313" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I313">
         <v>198263964</v>
       </c>
@@ -20357,7 +18925,7 @@
         <v>185857487</v>
       </c>
     </row>
-    <row r="314" spans="9:12">
+    <row r="314" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I314">
         <v>195817933</v>
       </c>
@@ -20371,7 +18939,7 @@
         <v>186485863</v>
       </c>
     </row>
-    <row r="315" spans="9:12">
+    <row r="315" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I315">
         <v>196617641</v>
       </c>
@@ -20385,7 +18953,7 @@
         <v>185279795</v>
       </c>
     </row>
-    <row r="316" spans="9:12">
+    <row r="316" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I316">
         <v>199890675</v>
       </c>
@@ -20399,7 +18967,7 @@
         <v>190185953</v>
       </c>
     </row>
-    <row r="317" spans="9:12">
+    <row r="317" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I317">
         <v>195580497</v>
       </c>
@@ -20413,7 +18981,7 @@
         <v>191139449</v>
       </c>
     </row>
-    <row r="318" spans="9:12">
+    <row r="318" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I318">
         <v>196372706</v>
       </c>
@@ -20427,7 +18995,7 @@
         <v>186144920</v>
       </c>
     </row>
-    <row r="319" spans="9:12">
+    <row r="319" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I319">
         <v>197641567</v>
       </c>
@@ -20441,7 +19009,7 @@
         <v>187199608</v>
       </c>
     </row>
-    <row r="320" spans="9:12">
+    <row r="320" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I320">
         <v>200842255</v>
       </c>
@@ -20455,7 +19023,7 @@
         <v>191082850</v>
       </c>
     </row>
-    <row r="321" spans="8:12">
+    <row r="321" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I321">
         <v>198434963</v>
       </c>
@@ -20469,7 +19037,7 @@
         <v>190754221</v>
       </c>
     </row>
-    <row r="322" spans="8:12">
+    <row r="322" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I322">
         <v>200070340</v>
       </c>
@@ -20483,7 +19051,7 @@
         <v>190825667</v>
       </c>
     </row>
-    <row r="323" spans="8:12">
+    <row r="323" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I323">
         <v>201495008</v>
       </c>
@@ -20497,7 +19065,7 @@
         <v>186841226</v>
       </c>
     </row>
-    <row r="324" spans="8:12">
+    <row r="324" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I324">
         <v>197578148</v>
       </c>
@@ -20511,7 +19079,7 @@
         <v>192880878</v>
       </c>
     </row>
-    <row r="325" spans="8:12">
+    <row r="325" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I325">
         <v>200939411</v>
       </c>
@@ -20525,7 +19093,7 @@
         <v>189864003</v>
       </c>
     </row>
-    <row r="326" spans="8:12">
+    <row r="326" spans="8:12" x14ac:dyDescent="0.2">
       <c r="I326">
         <v>198256223</v>
       </c>
@@ -20539,7 +19107,7 @@
         <v>193820707</v>
       </c>
     </row>
-    <row r="327" spans="8:12">
+    <row r="327" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J327">
         <v>301585833</v>
       </c>
@@ -20550,7 +19118,7 @@
         <v>194097603</v>
       </c>
     </row>
-    <row r="328" spans="8:12">
+    <row r="328" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H328" t="s">
         <v>3</v>
       </c>
@@ -20568,7 +19136,7 @@
         <v>193065910</v>
       </c>
     </row>
-    <row r="329" spans="8:12">
+    <row r="329" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H329" t="s">
         <v>2</v>
       </c>
@@ -20586,7 +19154,7 @@
         <v>191711374</v>
       </c>
     </row>
-    <row r="330" spans="8:12">
+    <row r="330" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J330">
         <v>303312351</v>
       </c>
@@ -20597,7 +19165,7 @@
         <v>194359785</v>
       </c>
     </row>
-    <row r="331" spans="8:12">
+    <row r="331" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J331">
         <v>302391706</v>
       </c>
@@ -20608,7 +19176,7 @@
         <v>194784961</v>
       </c>
     </row>
-    <row r="332" spans="8:12">
+    <row r="332" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J332">
         <v>299913101</v>
       </c>
@@ -20619,7 +19187,7 @@
         <v>190342827</v>
       </c>
     </row>
-    <row r="333" spans="8:12">
+    <row r="333" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J333">
         <v>302816798</v>
       </c>
@@ -20630,7 +19198,7 @@
         <v>189889201</v>
       </c>
     </row>
-    <row r="334" spans="8:12">
+    <row r="334" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J334">
         <v>304118782</v>
       </c>
@@ -20641,7 +19209,7 @@
         <v>190923926</v>
       </c>
     </row>
-    <row r="335" spans="8:12">
+    <row r="335" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J335">
         <v>303319639</v>
       </c>
@@ -20652,7 +19220,7 @@
         <v>191362054</v>
       </c>
     </row>
-    <row r="336" spans="8:12">
+    <row r="336" spans="8:12" x14ac:dyDescent="0.2">
       <c r="J336">
         <v>301000130</v>
       </c>
@@ -20663,7 +19231,7 @@
         <v>195375018</v>
       </c>
     </row>
-    <row r="337" spans="10:12">
+    <row r="337" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J337">
         <v>303492025</v>
       </c>
@@ -20674,7 +19242,7 @@
         <v>193705769</v>
       </c>
     </row>
-    <row r="338" spans="10:12">
+    <row r="338" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J338">
         <v>303721706</v>
       </c>
@@ -20685,7 +19253,7 @@
         <v>191503715</v>
       </c>
     </row>
-    <row r="339" spans="10:12">
+    <row r="339" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J339">
         <v>301798607</v>
       </c>
@@ -20696,7 +19264,7 @@
         <v>194687250</v>
       </c>
     </row>
-    <row r="340" spans="10:12">
+    <row r="340" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J340">
         <v>301072058</v>
       </c>
@@ -20707,7 +19275,7 @@
         <v>194202145</v>
       </c>
     </row>
-    <row r="341" spans="10:12">
+    <row r="341" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J341">
         <v>300902974</v>
       </c>
@@ -20718,7 +19286,7 @@
         <v>193318184</v>
       </c>
     </row>
-    <row r="342" spans="10:12">
+    <row r="342" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J342">
         <v>301123222</v>
       </c>
@@ -20729,7 +19297,7 @@
         <v>192773353</v>
       </c>
     </row>
-    <row r="343" spans="10:12">
+    <row r="343" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J343">
         <v>303694987</v>
       </c>
@@ -20740,7 +19308,7 @@
         <v>190428646</v>
       </c>
     </row>
-    <row r="344" spans="10:12">
+    <row r="344" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J344">
         <v>301695738</v>
       </c>
@@ -20751,7 +19319,7 @@
         <v>194747155</v>
       </c>
     </row>
-    <row r="345" spans="10:12">
+    <row r="345" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J345">
         <v>302110469</v>
       </c>
@@ -20762,7 +19330,7 @@
         <v>194299357</v>
       </c>
     </row>
-    <row r="346" spans="10:12">
+    <row r="346" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J346">
         <v>301808838</v>
       </c>
@@ -20773,7 +19341,7 @@
         <v>194539498</v>
       </c>
     </row>
-    <row r="347" spans="10:12">
+    <row r="347" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J347">
         <v>301691694</v>
       </c>
@@ -20784,7 +19352,7 @@
         <v>194226080</v>
       </c>
     </row>
-    <row r="348" spans="10:12">
+    <row r="348" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J348">
         <v>305108402</v>
       </c>
@@ -20795,7 +19363,7 @@
         <v>195603472</v>
       </c>
     </row>
-    <row r="349" spans="10:12">
+    <row r="349" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J349">
         <v>302728611</v>
       </c>
@@ -20806,7 +19374,7 @@
         <v>195845387</v>
       </c>
     </row>
-    <row r="350" spans="10:12">
+    <row r="350" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J350">
         <v>301150708</v>
       </c>
@@ -20817,7 +19385,7 @@
         <v>191088616</v>
       </c>
     </row>
-    <row r="351" spans="10:12">
+    <row r="351" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J351">
         <v>300758920</v>
       </c>
@@ -20828,7 +19396,7 @@
         <v>192682290</v>
       </c>
     </row>
-    <row r="352" spans="10:12">
+    <row r="352" spans="10:12" x14ac:dyDescent="0.2">
       <c r="J352">
         <v>300779285</v>
       </c>
@@ -20839,7 +19407,7 @@
         <v>191720545</v>
       </c>
     </row>
-    <row r="353" spans="9:12">
+    <row r="353" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J353">
         <v>300236860</v>
       </c>
@@ -20850,7 +19418,7 @@
         <v>195919938</v>
       </c>
     </row>
-    <row r="354" spans="9:12">
+    <row r="354" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J354">
         <v>304535248</v>
       </c>
@@ -20861,7 +19429,7 @@
         <v>191621530</v>
       </c>
     </row>
-    <row r="355" spans="9:12">
+    <row r="355" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J355">
         <v>302629333</v>
       </c>
@@ -20872,7 +19440,7 @@
         <v>194829261</v>
       </c>
     </row>
-    <row r="356" spans="9:12">
+    <row r="356" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J356">
         <v>304032868</v>
       </c>
@@ -20883,7 +19451,7 @@
         <v>193710060</v>
       </c>
     </row>
-    <row r="357" spans="9:12">
+    <row r="357" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J357">
         <v>304436425</v>
       </c>
@@ -20894,7 +19462,7 @@
         <v>195876800</v>
       </c>
     </row>
-    <row r="358" spans="9:12">
+    <row r="358" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J358">
         <v>301745677</v>
       </c>
@@ -20905,7 +19473,7 @@
         <v>193772918</v>
       </c>
     </row>
-    <row r="359" spans="9:12">
+    <row r="359" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J359">
         <v>300773498</v>
       </c>
@@ -20916,7 +19484,7 @@
         <v>191321323</v>
       </c>
     </row>
-    <row r="360" spans="9:12">
+    <row r="360" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J360">
         <v>300307289</v>
       </c>
@@ -20927,7 +19495,7 @@
         <v>193537461</v>
       </c>
     </row>
-    <row r="361" spans="9:12">
+    <row r="361" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J361">
         <v>303555423</v>
       </c>
@@ -20938,7 +19506,7 @@
         <v>191116958</v>
       </c>
     </row>
-    <row r="362" spans="9:12">
+    <row r="362" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J362">
         <v>303380388</v>
       </c>
@@ -20946,7 +19514,7 @@
         <v>431309216</v>
       </c>
     </row>
-    <row r="363" spans="9:12">
+    <row r="363" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J363">
         <v>301371085</v>
       </c>
@@ -20958,7 +19526,7 @@
         <v>191653433.96619719</v>
       </c>
     </row>
-    <row r="364" spans="9:12">
+    <row r="364" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J364">
         <v>300864556</v>
       </c>
@@ -20970,7 +19538,7 @@
         <v>191.65343396619718</v>
       </c>
     </row>
-    <row r="365" spans="9:12">
+    <row r="365" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J365">
         <v>300376051</v>
       </c>
@@ -20978,7 +19546,7 @@
         <v>428731374</v>
       </c>
     </row>
-    <row r="366" spans="9:12">
+    <row r="366" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J366">
         <v>301525577</v>
       </c>
@@ -20986,12 +19554,12 @@
         <v>428348525</v>
       </c>
     </row>
-    <row r="367" spans="9:12">
+    <row r="367" spans="9:12" x14ac:dyDescent="0.2">
       <c r="K367">
         <v>432942508</v>
       </c>
     </row>
-    <row r="368" spans="9:12">
+    <row r="368" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I368" t="s">
         <v>3</v>
       </c>
@@ -21003,7 +19571,7 @@
         <v>429509678</v>
       </c>
     </row>
-    <row r="369" spans="9:11">
+    <row r="369" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I369" t="s">
         <v>2</v>
       </c>
@@ -21015,17 +19583,17 @@
         <v>430442561</v>
       </c>
     </row>
-    <row r="370" spans="9:11">
+    <row r="370" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K370">
         <v>430387198</v>
       </c>
     </row>
-    <row r="371" spans="9:11">
+    <row r="371" spans="9:11" x14ac:dyDescent="0.2">
       <c r="K371">
         <v>431566880</v>
       </c>
     </row>
-    <row r="373" spans="9:11">
+    <row r="373" spans="9:11" x14ac:dyDescent="0.2">
       <c r="J373" t="s">
         <v>3</v>
       </c>
@@ -21034,7 +19602,7 @@
         <v>517696745.2410959</v>
       </c>
     </row>
-    <row r="374" spans="9:11">
+    <row r="374" spans="9:11" x14ac:dyDescent="0.2">
       <c r="J374" t="s">
         <v>2</v>
       </c>
@@ -21056,18 +19624,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E76534-2BB7-A44A-9E54-20E8B3A76D29}">
   <dimension ref="C1:Y373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L25" zoomScale="118" workbookViewId="0">
+    <sheetView topLeftCell="L27" zoomScale="118" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
     <col min="15" max="15" width="23" customWidth="1"/>
     <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25">
+    <row r="1" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C1">
         <v>1</v>
       </c>
@@ -21129,7 +19697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="3:25">
+    <row r="2" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>27065148</v>
       </c>
@@ -21161,7 +19729,7 @@
         <v>63706204</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="P2">
         <f>C9</f>
@@ -21204,7 +19772,7 @@
         <v>67.121657375342465</v>
       </c>
     </row>
-    <row r="3" spans="3:25">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>26861238</v>
       </c>
@@ -21236,7 +19804,7 @@
         <v>63721827</v>
       </c>
     </row>
-    <row r="4" spans="3:25">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>26913239</v>
       </c>
@@ -21265,7 +19833,7 @@
         <v>63711487</v>
       </c>
     </row>
-    <row r="5" spans="3:25">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>27043663</v>
       </c>
@@ -21297,7 +19865,7 @@
         <v>63729797</v>
       </c>
     </row>
-    <row r="6" spans="3:25">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>26695010</v>
       </c>
@@ -21326,7 +19894,7 @@
         <v>63717080</v>
       </c>
     </row>
-    <row r="7" spans="3:25">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.2">
       <c r="F7">
         <v>37842082</v>
       </c>
@@ -21352,7 +19920,7 @@
         <v>63714063</v>
       </c>
     </row>
-    <row r="8" spans="3:25">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C8">
         <f>(SUM(C2:C6)/COUNT(C2:C6))</f>
         <v>26915659.600000001</v>
@@ -21385,7 +19953,7 @@
         <v>63708300</v>
       </c>
     </row>
-    <row r="9" spans="3:25">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C9">
         <f>C8/1000000</f>
         <v>26.915659600000001</v>
@@ -21418,7 +19986,7 @@
         <v>63707461</v>
       </c>
     </row>
-    <row r="10" spans="3:25">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.2">
       <c r="F10">
         <v>37866004</v>
       </c>
@@ -21441,7 +20009,7 @@
         <v>63719145</v>
       </c>
     </row>
-    <row r="11" spans="3:25">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>27837250</v>
       </c>
@@ -21467,7 +20035,7 @@
         <v>63706935</v>
       </c>
     </row>
-    <row r="12" spans="3:25">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>27844916</v>
       </c>
@@ -21496,7 +20064,7 @@
         <v>63720227</v>
       </c>
     </row>
-    <row r="13" spans="3:25">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>39005918</v>
       </c>
@@ -21522,7 +20090,7 @@
         <v>63706595</v>
       </c>
     </row>
-    <row r="14" spans="3:25">
+    <row r="14" spans="3:25" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>27250389</v>
       </c>
@@ -21551,7 +20119,7 @@
         <v>63734634</v>
       </c>
     </row>
-    <row r="15" spans="3:25">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>27289014</v>
       </c>
@@ -21580,7 +20148,7 @@
         <v>63713549</v>
       </c>
     </row>
-    <row r="16" spans="3:25">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.2">
       <c r="G16">
         <v>33831375</v>
       </c>
@@ -21603,7 +20171,7 @@
         <v>63703679</v>
       </c>
     </row>
-    <row r="17" spans="4:25">
+    <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>3</v>
       </c>
@@ -21636,7 +20204,7 @@
         <v>63713574</v>
       </c>
     </row>
-    <row r="18" spans="4:25">
+    <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>2</v>
       </c>
@@ -21666,7 +20234,7 @@
         <v>63706577</v>
       </c>
     </row>
-    <row r="19" spans="4:25">
+    <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>37667529</v>
       </c>
@@ -21689,7 +20257,7 @@
         <v>63714112</v>
       </c>
     </row>
-    <row r="20" spans="4:25">
+    <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>37667970</v>
       </c>
@@ -21715,7 +20283,7 @@
         <v>63719151</v>
       </c>
     </row>
-    <row r="21" spans="4:25">
+    <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="G21">
         <v>33180220</v>
       </c>
@@ -21738,7 +20306,7 @@
         <v>63711470</v>
       </c>
     </row>
-    <row r="22" spans="4:25">
+    <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>39659620</v>
       </c>
@@ -21764,7 +20332,7 @@
         <v>63715713</v>
       </c>
     </row>
-    <row r="23" spans="4:25">
+    <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>39668227</v>
       </c>
@@ -21790,7 +20358,7 @@
         <v>63722955</v>
       </c>
     </row>
-    <row r="24" spans="4:25">
+    <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>39664243</v>
       </c>
@@ -21816,7 +20384,7 @@
         <v>63723547</v>
       </c>
     </row>
-    <row r="25" spans="4:25">
+    <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>39664461</v>
       </c>
@@ -21842,7 +20410,7 @@
         <v>63723266</v>
       </c>
     </row>
-    <row r="26" spans="4:25">
+    <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="G26">
         <v>33182463</v>
       </c>
@@ -21865,7 +20433,7 @@
         <v>63722689</v>
       </c>
     </row>
-    <row r="27" spans="4:25">
+    <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>3</v>
       </c>
@@ -21895,7 +20463,7 @@
         <v>63720227</v>
       </c>
     </row>
-    <row r="28" spans="4:25">
+    <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>2</v>
       </c>
@@ -21922,7 +20490,7 @@
         <v>63716990</v>
       </c>
     </row>
-    <row r="29" spans="4:25">
+    <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="G29">
         <v>31485442</v>
       </c>
@@ -21945,7 +20513,7 @@
         <v>63732370</v>
       </c>
     </row>
-    <row r="30" spans="4:25">
+    <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="G30">
         <v>31486824</v>
       </c>
@@ -21998,7 +20566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="4:25">
+    <row r="31" spans="4:25" x14ac:dyDescent="0.2">
       <c r="G31">
         <v>31485858</v>
       </c>
@@ -22021,7 +20589,7 @@
         <v>63730042</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="P31">
         <v>26.915659600000001</v>
@@ -22063,7 +20631,7 @@
         <v>67.208192400000001</v>
       </c>
     </row>
-    <row r="32" spans="4:25">
+    <row r="32" spans="4:25" x14ac:dyDescent="0.2">
       <c r="G32">
         <v>31485702</v>
       </c>
@@ -22086,7 +20654,7 @@
         <v>63730043</v>
       </c>
     </row>
-    <row r="33" spans="6:13">
+    <row r="33" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G33">
         <v>31487434</v>
       </c>
@@ -22109,7 +20677,7 @@
         <v>63728604</v>
       </c>
     </row>
-    <row r="34" spans="6:13">
+    <row r="34" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G34">
         <v>31486429</v>
       </c>
@@ -22129,7 +20697,7 @@
         <v>63719872</v>
       </c>
     </row>
-    <row r="35" spans="6:13">
+    <row r="35" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G35">
         <v>31486654</v>
       </c>
@@ -22149,7 +20717,7 @@
         <v>63722255</v>
       </c>
     </row>
-    <row r="36" spans="6:13">
+    <row r="36" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G36">
         <v>31486716</v>
       </c>
@@ -22172,7 +20740,7 @@
         <v>63728337</v>
       </c>
     </row>
-    <row r="37" spans="6:13">
+    <row r="37" spans="6:13" x14ac:dyDescent="0.2">
       <c r="H37">
         <v>24614354</v>
       </c>
@@ -22192,7 +20760,7 @@
         <v>63714106</v>
       </c>
     </row>
-    <row r="38" spans="6:13">
+    <row r="38" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G38">
         <v>30807519</v>
       </c>
@@ -22215,7 +20783,7 @@
         <v>62190795</v>
       </c>
     </row>
-    <row r="39" spans="6:13">
+    <row r="39" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G39">
         <v>30808454</v>
       </c>
@@ -22238,7 +20806,7 @@
         <v>63715183</v>
       </c>
     </row>
-    <row r="40" spans="6:13">
+    <row r="40" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G40">
         <v>30808631</v>
       </c>
@@ -22261,7 +20829,7 @@
         <v>63725099</v>
       </c>
     </row>
-    <row r="41" spans="6:13">
+    <row r="41" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G41">
         <v>30807937</v>
       </c>
@@ -22284,7 +20852,7 @@
         <v>63718278</v>
       </c>
     </row>
-    <row r="42" spans="6:13">
+    <row r="42" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G42">
         <v>30808380</v>
       </c>
@@ -22307,7 +20875,7 @@
         <v>63707731</v>
       </c>
     </row>
-    <row r="43" spans="6:13">
+    <row r="43" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G43">
         <v>30808950</v>
       </c>
@@ -22330,7 +20898,7 @@
         <v>63720382</v>
       </c>
     </row>
-    <row r="44" spans="6:13">
+    <row r="44" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G44">
         <v>30809267</v>
       </c>
@@ -22353,7 +20921,7 @@
         <v>63714458</v>
       </c>
     </row>
-    <row r="45" spans="6:13">
+    <row r="45" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G45">
         <v>30808672</v>
       </c>
@@ -22376,7 +20944,7 @@
         <v>63728806</v>
       </c>
     </row>
-    <row r="46" spans="6:13">
+    <row r="46" spans="6:13" x14ac:dyDescent="0.2">
       <c r="H46">
         <v>24614848</v>
       </c>
@@ -22396,7 +20964,7 @@
         <v>63725541</v>
       </c>
     </row>
-    <row r="47" spans="6:13">
+    <row r="47" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
         <v>3</v>
       </c>
@@ -22423,7 +20991,7 @@
         <v>63797335</v>
       </c>
     </row>
-    <row r="48" spans="6:13">
+    <row r="48" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
         <v>2</v>
       </c>
@@ -22450,7 +21018,7 @@
         <v>63725932</v>
       </c>
     </row>
-    <row r="49" spans="8:13">
+    <row r="49" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H49">
         <v>24612955</v>
       </c>
@@ -22470,7 +21038,7 @@
         <v>63726982</v>
       </c>
     </row>
-    <row r="50" spans="8:13">
+    <row r="50" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H50">
         <v>24612828</v>
       </c>
@@ -22490,7 +21058,7 @@
         <v>63723034</v>
       </c>
     </row>
-    <row r="51" spans="8:13">
+    <row r="51" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H51">
         <v>24612141</v>
       </c>
@@ -22510,7 +21078,7 @@
         <v>63732574</v>
       </c>
     </row>
-    <row r="52" spans="8:13">
+    <row r="52" spans="8:13" x14ac:dyDescent="0.2">
       <c r="I52">
         <v>28071383</v>
       </c>
@@ -22527,7 +21095,7 @@
         <v>63731914</v>
       </c>
     </row>
-    <row r="53" spans="8:13">
+    <row r="53" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H53">
         <v>31625475</v>
       </c>
@@ -22547,7 +21115,7 @@
         <v>63706515</v>
       </c>
     </row>
-    <row r="54" spans="8:13">
+    <row r="54" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H54">
         <v>31624289</v>
       </c>
@@ -22567,7 +21135,7 @@
         <v>63716155</v>
       </c>
     </row>
-    <row r="55" spans="8:13">
+    <row r="55" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H55">
         <v>31626608</v>
       </c>
@@ -22587,7 +21155,7 @@
         <v>63710472</v>
       </c>
     </row>
-    <row r="56" spans="8:13">
+    <row r="56" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H56">
         <v>31626692</v>
       </c>
@@ -22607,7 +21175,7 @@
         <v>63721234</v>
       </c>
     </row>
-    <row r="57" spans="8:13">
+    <row r="57" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H57">
         <v>31625172</v>
       </c>
@@ -22627,7 +21195,7 @@
         <v>63717466</v>
       </c>
     </row>
-    <row r="58" spans="8:13">
+    <row r="58" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H58">
         <v>31623796</v>
       </c>
@@ -22647,7 +21215,7 @@
         <v>63711123</v>
       </c>
     </row>
-    <row r="59" spans="8:13">
+    <row r="59" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H59">
         <v>31624160</v>
       </c>
@@ -22667,7 +21235,7 @@
         <v>63722700</v>
       </c>
     </row>
-    <row r="60" spans="8:13">
+    <row r="60" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H60">
         <v>31625065</v>
       </c>
@@ -22687,7 +21255,7 @@
         <v>63723316</v>
       </c>
     </row>
-    <row r="61" spans="8:13">
+    <row r="61" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H61">
         <v>31626662</v>
       </c>
@@ -22707,7 +21275,7 @@
         <v>63721017</v>
       </c>
     </row>
-    <row r="62" spans="8:13">
+    <row r="62" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H62">
         <v>31626598</v>
       </c>
@@ -22727,7 +21295,7 @@
         <v>63715182</v>
       </c>
     </row>
-    <row r="63" spans="8:13">
+    <row r="63" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H63">
         <v>31626798</v>
       </c>
@@ -22747,7 +21315,7 @@
         <v>63725139</v>
       </c>
     </row>
-    <row r="64" spans="8:13">
+    <row r="64" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H64">
         <v>31627501</v>
       </c>
@@ -22767,7 +21335,7 @@
         <v>63729894</v>
       </c>
     </row>
-    <row r="65" spans="8:13">
+    <row r="65" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H65">
         <v>31627691</v>
       </c>
@@ -22787,7 +21355,7 @@
         <v>63728352</v>
       </c>
     </row>
-    <row r="66" spans="8:13">
+    <row r="66" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H66">
         <v>31627230</v>
       </c>
@@ -22804,7 +21372,7 @@
         <v>63714999</v>
       </c>
     </row>
-    <row r="67" spans="8:13">
+    <row r="67" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H67">
         <v>31623723</v>
       </c>
@@ -22821,7 +21389,7 @@
         <v>63718141</v>
       </c>
     </row>
-    <row r="68" spans="8:13">
+    <row r="68" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H68">
         <v>31624764</v>
       </c>
@@ -22841,7 +21409,7 @@
         <v>63730366</v>
       </c>
     </row>
-    <row r="69" spans="8:13">
+    <row r="69" spans="8:13" x14ac:dyDescent="0.2">
       <c r="I69">
         <v>25481793</v>
       </c>
@@ -22858,7 +21426,7 @@
         <v>63713115</v>
       </c>
     </row>
-    <row r="70" spans="8:13">
+    <row r="70" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H70">
         <v>26100418</v>
       </c>
@@ -22878,7 +21446,7 @@
         <v>63737454</v>
       </c>
     </row>
-    <row r="71" spans="8:13">
+    <row r="71" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H71">
         <v>26101302</v>
       </c>
@@ -22898,7 +21466,7 @@
         <v>63715185</v>
       </c>
     </row>
-    <row r="72" spans="8:13">
+    <row r="72" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H72">
         <v>26104430</v>
       </c>
@@ -22918,7 +21486,7 @@
         <v>63726559</v>
       </c>
     </row>
-    <row r="73" spans="8:13">
+    <row r="73" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H73">
         <v>26103608</v>
       </c>
@@ -22935,7 +21503,7 @@
         <v>63727966</v>
       </c>
     </row>
-    <row r="74" spans="8:13">
+    <row r="74" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H74">
         <v>26105653</v>
       </c>
@@ -22952,7 +21520,7 @@
         <v>63716905</v>
       </c>
     </row>
-    <row r="75" spans="8:13">
+    <row r="75" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H75">
         <v>26102277</v>
       </c>
@@ -22969,7 +21537,7 @@
         <v>68547643</v>
       </c>
     </row>
-    <row r="76" spans="8:13">
+    <row r="76" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H76">
         <v>26105740</v>
       </c>
@@ -22989,7 +21557,7 @@
         <v>63368143</v>
       </c>
     </row>
-    <row r="77" spans="8:13">
+    <row r="77" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H77">
         <v>26106350</v>
       </c>
@@ -23009,7 +21577,7 @@
         <v>63381809</v>
       </c>
     </row>
-    <row r="78" spans="8:13">
+    <row r="78" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H78">
         <v>26104948</v>
       </c>
@@ -23029,7 +21597,7 @@
         <v>63377410</v>
       </c>
     </row>
-    <row r="79" spans="8:13">
+    <row r="79" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H79">
         <v>26104316</v>
       </c>
@@ -23049,7 +21617,7 @@
         <v>63363938</v>
       </c>
     </row>
-    <row r="80" spans="8:13">
+    <row r="80" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H80">
         <v>26101129</v>
       </c>
@@ -23069,7 +21637,7 @@
         <v>63371908</v>
       </c>
     </row>
-    <row r="81" spans="7:13">
+    <row r="81" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H81">
         <v>26101666</v>
       </c>
@@ -23089,7 +21657,7 @@
         <v>63383426</v>
       </c>
     </row>
-    <row r="82" spans="7:13">
+    <row r="82" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H82">
         <v>26103098</v>
       </c>
@@ -23109,7 +21677,7 @@
         <v>63382023</v>
       </c>
     </row>
-    <row r="83" spans="7:13">
+    <row r="83" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H83">
         <v>26101877</v>
       </c>
@@ -23129,7 +21697,7 @@
         <v>63369034</v>
       </c>
     </row>
-    <row r="84" spans="7:13">
+    <row r="84" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H84">
         <v>26106136</v>
       </c>
@@ -23149,7 +21717,7 @@
         <v>63374165</v>
       </c>
     </row>
-    <row r="85" spans="7:13">
+    <row r="85" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H85">
         <v>26106629</v>
       </c>
@@ -23169,7 +21737,7 @@
         <v>63365013</v>
       </c>
     </row>
-    <row r="86" spans="7:13">
+    <row r="86" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I86">
         <v>25488437</v>
       </c>
@@ -23186,7 +21754,7 @@
         <v>63365540</v>
       </c>
     </row>
-    <row r="87" spans="7:13">
+    <row r="87" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G87" t="s">
         <v>3</v>
       </c>
@@ -23210,7 +21778,7 @@
         <v>63386883</v>
       </c>
     </row>
-    <row r="88" spans="7:13">
+    <row r="88" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
         <v>2</v>
       </c>
@@ -23234,7 +21802,7 @@
         <v>63378377</v>
       </c>
     </row>
-    <row r="89" spans="7:13">
+    <row r="89" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I89">
         <v>25485171</v>
       </c>
@@ -23251,7 +21819,7 @@
         <v>63371968</v>
       </c>
     </row>
-    <row r="90" spans="7:13">
+    <row r="90" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I90">
         <v>25486452</v>
       </c>
@@ -23268,7 +21836,7 @@
         <v>63359248</v>
       </c>
     </row>
-    <row r="91" spans="7:13">
+    <row r="91" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I91">
         <v>25486368</v>
       </c>
@@ -23285,7 +21853,7 @@
         <v>63375254</v>
       </c>
     </row>
-    <row r="92" spans="7:13">
+    <row r="92" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I92">
         <v>25485503</v>
       </c>
@@ -23302,7 +21870,7 @@
         <v>63364439</v>
       </c>
     </row>
-    <row r="93" spans="7:13">
+    <row r="93" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I93">
         <v>25483854</v>
       </c>
@@ -23319,7 +21887,7 @@
         <v>63377249</v>
       </c>
     </row>
-    <row r="94" spans="7:13">
+    <row r="94" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I94">
         <v>25488820</v>
       </c>
@@ -23336,7 +21904,7 @@
         <v>63376315</v>
       </c>
     </row>
-    <row r="95" spans="7:13">
+    <row r="95" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I95">
         <v>25484264</v>
       </c>
@@ -23353,7 +21921,7 @@
         <v>63376316</v>
       </c>
     </row>
-    <row r="96" spans="7:13">
+    <row r="96" spans="7:13" x14ac:dyDescent="0.2">
       <c r="I96">
         <v>25481664</v>
       </c>
@@ -23370,7 +21938,7 @@
         <v>63380825</v>
       </c>
     </row>
-    <row r="97" spans="9:13">
+    <row r="97" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I97">
         <v>25481637</v>
       </c>
@@ -23387,7 +21955,7 @@
         <v>63369155</v>
       </c>
     </row>
-    <row r="98" spans="9:13">
+    <row r="98" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I98">
         <v>25483492</v>
       </c>
@@ -23404,7 +21972,7 @@
         <v>63376541</v>
       </c>
     </row>
-    <row r="99" spans="9:13">
+    <row r="99" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I99">
         <v>25481223</v>
       </c>
@@ -23421,7 +21989,7 @@
         <v>63386003</v>
       </c>
     </row>
-    <row r="100" spans="9:13">
+    <row r="100" spans="9:13" x14ac:dyDescent="0.2">
       <c r="J100">
         <v>59766746</v>
       </c>
@@ -23435,7 +22003,7 @@
         <v>63360528</v>
       </c>
     </row>
-    <row r="101" spans="9:13">
+    <row r="101" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I101">
         <v>27237971</v>
       </c>
@@ -23452,7 +22020,7 @@
         <v>63380497</v>
       </c>
     </row>
-    <row r="102" spans="9:13">
+    <row r="102" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I102">
         <v>27236767</v>
       </c>
@@ -23469,7 +22037,7 @@
         <v>63386542</v>
       </c>
     </row>
-    <row r="103" spans="9:13">
+    <row r="103" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I103">
         <v>27245347</v>
       </c>
@@ -23486,7 +22054,7 @@
         <v>63384530</v>
       </c>
     </row>
-    <row r="104" spans="9:13">
+    <row r="104" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I104">
         <v>27238374</v>
       </c>
@@ -23503,7 +22071,7 @@
         <v>63364439</v>
       </c>
     </row>
-    <row r="105" spans="9:13">
+    <row r="105" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I105">
         <v>27241619</v>
       </c>
@@ -23520,7 +22088,7 @@
         <v>63363034</v>
       </c>
     </row>
-    <row r="106" spans="9:13">
+    <row r="106" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I106">
         <v>27237164</v>
       </c>
@@ -23537,7 +22105,7 @@
         <v>63363487</v>
       </c>
     </row>
-    <row r="107" spans="9:13">
+    <row r="107" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I107">
         <v>27243199</v>
       </c>
@@ -23554,7 +22122,7 @@
         <v>63362299</v>
       </c>
     </row>
-    <row r="108" spans="9:13">
+    <row r="108" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I108">
         <v>27238817</v>
       </c>
@@ -23571,7 +22139,7 @@
         <v>63368787</v>
       </c>
     </row>
-    <row r="109" spans="9:13">
+    <row r="109" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I109">
         <v>27245171</v>
       </c>
@@ -23588,7 +22156,7 @@
         <v>63377138</v>
       </c>
     </row>
-    <row r="110" spans="9:13">
+    <row r="110" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I110">
         <v>27241244</v>
       </c>
@@ -23605,7 +22173,7 @@
         <v>63360355</v>
       </c>
     </row>
-    <row r="111" spans="9:13">
+    <row r="111" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I111">
         <v>27240494</v>
       </c>
@@ -23622,7 +22190,7 @@
         <v>63384187</v>
       </c>
     </row>
-    <row r="112" spans="9:13">
+    <row r="112" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I112">
         <v>27243019</v>
       </c>
@@ -23639,7 +22207,7 @@
         <v>62851216</v>
       </c>
     </row>
-    <row r="113" spans="9:13">
+    <row r="113" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I113">
         <v>27236793</v>
       </c>
@@ -23656,7 +22224,7 @@
         <v>63386294</v>
       </c>
     </row>
-    <row r="114" spans="9:13">
+    <row r="114" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I114">
         <v>27243805</v>
       </c>
@@ -23673,7 +22241,7 @@
         <v>63387883</v>
       </c>
     </row>
-    <row r="115" spans="9:13">
+    <row r="115" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I115">
         <v>27240538</v>
       </c>
@@ -23690,7 +22258,7 @@
         <v>63386548</v>
       </c>
     </row>
-    <row r="116" spans="9:13">
+    <row r="116" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I116">
         <v>27246806</v>
       </c>
@@ -23707,7 +22275,7 @@
         <v>63464198</v>
       </c>
     </row>
-    <row r="117" spans="9:13">
+    <row r="117" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I117">
         <v>27245366</v>
       </c>
@@ -23724,7 +22292,7 @@
         <v>63364174</v>
       </c>
     </row>
-    <row r="118" spans="9:13">
+    <row r="118" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I118">
         <v>27243332</v>
       </c>
@@ -23741,7 +22309,7 @@
         <v>63391576</v>
       </c>
     </row>
-    <row r="119" spans="9:13">
+    <row r="119" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I119">
         <v>27243297</v>
       </c>
@@ -23758,7 +22326,7 @@
         <v>63363724</v>
       </c>
     </row>
-    <row r="120" spans="9:13">
+    <row r="120" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I120">
         <v>27245762</v>
       </c>
@@ -23775,7 +22343,7 @@
         <v>63371900</v>
       </c>
     </row>
-    <row r="121" spans="9:13">
+    <row r="121" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I121">
         <v>27239548</v>
       </c>
@@ -23792,7 +22360,7 @@
         <v>63374842</v>
       </c>
     </row>
-    <row r="122" spans="9:13">
+    <row r="122" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I122">
         <v>27236791</v>
       </c>
@@ -23809,7 +22377,7 @@
         <v>63366342</v>
       </c>
     </row>
-    <row r="123" spans="9:13">
+    <row r="123" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I123">
         <v>27245478</v>
       </c>
@@ -23826,7 +22394,7 @@
         <v>63381285</v>
       </c>
     </row>
-    <row r="124" spans="9:13">
+    <row r="124" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I124">
         <v>27238948</v>
       </c>
@@ -23843,7 +22411,7 @@
         <v>63388296</v>
       </c>
     </row>
-    <row r="125" spans="9:13">
+    <row r="125" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I125">
         <v>27241711</v>
       </c>
@@ -23860,7 +22428,7 @@
         <v>63378383</v>
       </c>
     </row>
-    <row r="126" spans="9:13">
+    <row r="126" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I126">
         <v>27246495</v>
       </c>
@@ -23877,7 +22445,7 @@
         <v>63374542</v>
       </c>
     </row>
-    <row r="127" spans="9:13">
+    <row r="127" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I127">
         <v>27238574</v>
       </c>
@@ -23894,7 +22462,7 @@
         <v>63384809</v>
       </c>
     </row>
-    <row r="128" spans="9:13">
+    <row r="128" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I128">
         <v>27245276</v>
       </c>
@@ -23911,7 +22479,7 @@
         <v>63366274</v>
       </c>
     </row>
-    <row r="129" spans="9:13">
+    <row r="129" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I129">
         <v>27238261</v>
       </c>
@@ -23928,7 +22496,7 @@
         <v>63366581</v>
       </c>
     </row>
-    <row r="130" spans="9:13">
+    <row r="130" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I130">
         <v>27241406</v>
       </c>
@@ -23945,7 +22513,7 @@
         <v>63366660</v>
       </c>
     </row>
-    <row r="131" spans="9:13">
+    <row r="131" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I131">
         <v>27244730</v>
       </c>
@@ -23959,7 +22527,7 @@
         <v>63375256</v>
       </c>
     </row>
-    <row r="132" spans="9:13">
+    <row r="132" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I132">
         <v>27241097</v>
       </c>
@@ -23976,7 +22544,7 @@
         <v>63384208</v>
       </c>
     </row>
-    <row r="133" spans="9:13">
+    <row r="133" spans="9:13" x14ac:dyDescent="0.2">
       <c r="J133">
         <v>53294396</v>
       </c>
@@ -23990,7 +22558,7 @@
         <v>63366684</v>
       </c>
     </row>
-    <row r="134" spans="9:13">
+    <row r="134" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I134">
         <v>25598327</v>
       </c>
@@ -24007,7 +22575,7 @@
         <v>63363608</v>
       </c>
     </row>
-    <row r="135" spans="9:13">
+    <row r="135" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I135">
         <v>25598693</v>
       </c>
@@ -24024,7 +22592,7 @@
         <v>63372834</v>
       </c>
     </row>
-    <row r="136" spans="9:13">
+    <row r="136" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I136">
         <v>25596102</v>
       </c>
@@ -24041,7 +22609,7 @@
         <v>63371910</v>
       </c>
     </row>
-    <row r="137" spans="9:13">
+    <row r="137" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I137">
         <v>25595331</v>
       </c>
@@ -24058,7 +22626,7 @@
         <v>63383863</v>
       </c>
     </row>
-    <row r="138" spans="9:13">
+    <row r="138" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I138">
         <v>25593831</v>
       </c>
@@ -24075,7 +22643,7 @@
         <v>63363363</v>
       </c>
     </row>
-    <row r="139" spans="9:13">
+    <row r="139" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I139">
         <v>25599401</v>
       </c>
@@ -24092,7 +22660,7 @@
         <v>63377136</v>
       </c>
     </row>
-    <row r="140" spans="9:13">
+    <row r="140" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I140">
         <v>25591832</v>
       </c>
@@ -24109,7 +22677,7 @@
         <v>63375324</v>
       </c>
     </row>
-    <row r="141" spans="9:13">
+    <row r="141" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I141">
         <v>25591964</v>
       </c>
@@ -24126,7 +22694,7 @@
         <v>63377343</v>
       </c>
     </row>
-    <row r="142" spans="9:13">
+    <row r="142" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I142">
         <v>25595772</v>
       </c>
@@ -24143,7 +22711,7 @@
         <v>63362333</v>
       </c>
     </row>
-    <row r="143" spans="9:13">
+    <row r="143" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I143">
         <v>25597609</v>
       </c>
@@ -24160,7 +22728,7 @@
         <v>63372871</v>
       </c>
     </row>
-    <row r="144" spans="9:13">
+    <row r="144" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I144">
         <v>25598249</v>
       </c>
@@ -24177,7 +22745,7 @@
         <v>63385014</v>
       </c>
     </row>
-    <row r="145" spans="9:13">
+    <row r="145" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I145">
         <v>25597006</v>
       </c>
@@ -24191,7 +22759,7 @@
         <v>63385995</v>
       </c>
     </row>
-    <row r="146" spans="9:13">
+    <row r="146" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I146">
         <v>25591839</v>
       </c>
@@ -24208,7 +22776,7 @@
         <v>63377895</v>
       </c>
     </row>
-    <row r="147" spans="9:13">
+    <row r="147" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I147">
         <v>25590863</v>
       </c>
@@ -24222,7 +22790,7 @@
         <v>63383842</v>
       </c>
     </row>
-    <row r="148" spans="9:13">
+    <row r="148" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I148">
         <v>25595476</v>
       </c>
@@ -24239,7 +22807,7 @@
         <v>63365100</v>
       </c>
     </row>
-    <row r="149" spans="9:13">
+    <row r="149" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I149">
         <v>25595831</v>
       </c>
@@ -24253,7 +22821,7 @@
         <v>73065611</v>
       </c>
     </row>
-    <row r="150" spans="9:13">
+    <row r="150" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I150">
         <v>25592763</v>
       </c>
@@ -24270,7 +22838,7 @@
         <v>61106777</v>
       </c>
     </row>
-    <row r="151" spans="9:13">
+    <row r="151" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I151">
         <v>25600481</v>
       </c>
@@ -24287,7 +22855,7 @@
         <v>61112764</v>
       </c>
     </row>
-    <row r="152" spans="9:13">
+    <row r="152" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I152">
         <v>25595481</v>
       </c>
@@ -24304,7 +22872,7 @@
         <v>61113745</v>
       </c>
     </row>
-    <row r="153" spans="9:13">
+    <row r="153" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I153">
         <v>25596392</v>
       </c>
@@ -24321,7 +22889,7 @@
         <v>61123376</v>
       </c>
     </row>
-    <row r="154" spans="9:13">
+    <row r="154" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I154">
         <v>25594826</v>
       </c>
@@ -24338,7 +22906,7 @@
         <v>61116204</v>
       </c>
     </row>
-    <row r="155" spans="9:13">
+    <row r="155" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I155">
         <v>25591010</v>
       </c>
@@ -24355,7 +22923,7 @@
         <v>61131889</v>
       </c>
     </row>
-    <row r="156" spans="9:13">
+    <row r="156" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I156">
         <v>25590369</v>
       </c>
@@ -24372,7 +22940,7 @@
         <v>61120275</v>
       </c>
     </row>
-    <row r="157" spans="9:13">
+    <row r="157" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I157">
         <v>25600475</v>
       </c>
@@ -24389,7 +22957,7 @@
         <v>61125554</v>
       </c>
     </row>
-    <row r="158" spans="9:13">
+    <row r="158" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I158">
         <v>25591994</v>
       </c>
@@ -24406,7 +22974,7 @@
         <v>61249642</v>
       </c>
     </row>
-    <row r="159" spans="9:13">
+    <row r="159" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I159">
         <v>25596554</v>
       </c>
@@ -24423,7 +22991,7 @@
         <v>61112051</v>
       </c>
     </row>
-    <row r="160" spans="9:13">
+    <row r="160" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I160">
         <v>25597734</v>
       </c>
@@ -24440,7 +23008,7 @@
         <v>61111874</v>
       </c>
     </row>
-    <row r="161" spans="8:13">
+    <row r="161" spans="8:13" x14ac:dyDescent="0.2">
       <c r="I161">
         <v>25599915</v>
       </c>
@@ -24457,7 +23025,7 @@
         <v>61111762</v>
       </c>
     </row>
-    <row r="162" spans="8:13">
+    <row r="162" spans="8:13" x14ac:dyDescent="0.2">
       <c r="I162">
         <v>25593558</v>
       </c>
@@ -24474,7 +23042,7 @@
         <v>61122493</v>
       </c>
     </row>
-    <row r="163" spans="8:13">
+    <row r="163" spans="8:13" x14ac:dyDescent="0.2">
       <c r="I163">
         <v>25590679</v>
       </c>
@@ -24491,7 +23059,7 @@
         <v>61106224</v>
       </c>
     </row>
-    <row r="164" spans="8:13">
+    <row r="164" spans="8:13" x14ac:dyDescent="0.2">
       <c r="I164">
         <v>25598006</v>
       </c>
@@ -24508,7 +23076,7 @@
         <v>61107903</v>
       </c>
     </row>
-    <row r="165" spans="8:13">
+    <row r="165" spans="8:13" x14ac:dyDescent="0.2">
       <c r="I165">
         <v>25592612</v>
       </c>
@@ -24525,7 +23093,7 @@
         <v>61115786</v>
       </c>
     </row>
-    <row r="166" spans="8:13">
+    <row r="166" spans="8:13" x14ac:dyDescent="0.2">
       <c r="J166">
         <v>53280206</v>
       </c>
@@ -24539,7 +23107,7 @@
         <v>61127108</v>
       </c>
     </row>
-    <row r="167" spans="8:13">
+    <row r="167" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H167" t="s">
         <v>3</v>
       </c>
@@ -24560,7 +23128,7 @@
         <v>61127159</v>
       </c>
     </row>
-    <row r="168" spans="8:13">
+    <row r="168" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H168" t="s">
         <v>2</v>
       </c>
@@ -24581,7 +23149,7 @@
         <v>61114436</v>
       </c>
     </row>
-    <row r="169" spans="8:13">
+    <row r="169" spans="8:13" x14ac:dyDescent="0.2">
       <c r="J169">
         <v>53292948</v>
       </c>
@@ -24595,7 +23163,7 @@
         <v>61132041</v>
       </c>
     </row>
-    <row r="170" spans="8:13">
+    <row r="170" spans="8:13" x14ac:dyDescent="0.2">
       <c r="J170">
         <v>53290244</v>
       </c>
@@ -24609,7 +23177,7 @@
         <v>61107354</v>
       </c>
     </row>
-    <row r="171" spans="8:13">
+    <row r="171" spans="8:13" x14ac:dyDescent="0.2">
       <c r="J171">
         <v>53286286</v>
       </c>
@@ -24623,7 +23191,7 @@
         <v>61116204</v>
       </c>
     </row>
-    <row r="172" spans="8:13">
+    <row r="172" spans="8:13" x14ac:dyDescent="0.2">
       <c r="J172">
         <v>53298725</v>
       </c>
@@ -24637,7 +23205,7 @@
         <v>61117325</v>
       </c>
     </row>
-    <row r="173" spans="8:13">
+    <row r="173" spans="8:13" x14ac:dyDescent="0.2">
       <c r="J173">
         <v>53292553</v>
       </c>
@@ -24651,7 +23219,7 @@
         <v>61128712</v>
       </c>
     </row>
-    <row r="174" spans="8:13">
+    <row r="174" spans="8:13" x14ac:dyDescent="0.2">
       <c r="J174">
         <v>53292976</v>
       </c>
@@ -24665,7 +23233,7 @@
         <v>61124788</v>
       </c>
     </row>
-    <row r="175" spans="8:13">
+    <row r="175" spans="8:13" x14ac:dyDescent="0.2">
       <c r="J175">
         <v>53299135</v>
       </c>
@@ -24679,7 +23247,7 @@
         <v>61126427</v>
       </c>
     </row>
-    <row r="176" spans="8:13">
+    <row r="176" spans="8:13" x14ac:dyDescent="0.2">
       <c r="J176">
         <v>53297765</v>
       </c>
@@ -24693,7 +23261,7 @@
         <v>61106826</v>
       </c>
     </row>
-    <row r="177" spans="10:13">
+    <row r="177" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J177">
         <v>53300233</v>
       </c>
@@ -24707,7 +23275,7 @@
         <v>61111269</v>
       </c>
     </row>
-    <row r="178" spans="10:13">
+    <row r="178" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J178">
         <v>53285561</v>
       </c>
@@ -24721,7 +23289,7 @@
         <v>61132434</v>
       </c>
     </row>
-    <row r="179" spans="10:13">
+    <row r="179" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J179">
         <v>53291703</v>
       </c>
@@ -24735,7 +23303,7 @@
         <v>61131015</v>
       </c>
     </row>
-    <row r="180" spans="10:13">
+    <row r="180" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J180">
         <v>53290226</v>
       </c>
@@ -24749,7 +23317,7 @@
         <v>61115390</v>
       </c>
     </row>
-    <row r="181" spans="10:13">
+    <row r="181" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J181">
         <v>53299701</v>
       </c>
@@ -24763,7 +23331,7 @@
         <v>61133200</v>
       </c>
     </row>
-    <row r="182" spans="10:13">
+    <row r="182" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J182">
         <v>53275611</v>
       </c>
@@ -24777,7 +23345,7 @@
         <v>61114735</v>
       </c>
     </row>
-    <row r="183" spans="10:13">
+    <row r="183" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J183">
         <v>53279890</v>
       </c>
@@ -24791,7 +23359,7 @@
         <v>61123519</v>
       </c>
     </row>
-    <row r="184" spans="10:13">
+    <row r="184" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J184">
         <v>53286979</v>
       </c>
@@ -24805,7 +23373,7 @@
         <v>61126728</v>
       </c>
     </row>
-    <row r="185" spans="10:13">
+    <row r="185" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J185">
         <v>53281594</v>
       </c>
@@ -24819,7 +23387,7 @@
         <v>61124861</v>
       </c>
     </row>
-    <row r="186" spans="10:13">
+    <row r="186" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J186">
         <v>53283768</v>
       </c>
@@ -24833,7 +23401,7 @@
         <v>61108591</v>
       </c>
     </row>
-    <row r="187" spans="10:13">
+    <row r="187" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J187">
         <v>53284842</v>
       </c>
@@ -24847,7 +23415,7 @@
         <v>61131797</v>
       </c>
     </row>
-    <row r="188" spans="10:13">
+    <row r="188" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J188">
         <v>53290620</v>
       </c>
@@ -24861,7 +23429,7 @@
         <v>61132309</v>
       </c>
     </row>
-    <row r="189" spans="10:13">
+    <row r="189" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J189">
         <v>53290994</v>
       </c>
@@ -24875,7 +23443,7 @@
         <v>61117245</v>
       </c>
     </row>
-    <row r="190" spans="10:13">
+    <row r="190" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J190">
         <v>53299215</v>
       </c>
@@ -24889,7 +23457,7 @@
         <v>61127141</v>
       </c>
     </row>
-    <row r="191" spans="10:13">
+    <row r="191" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J191">
         <v>53298679</v>
       </c>
@@ -24903,7 +23471,7 @@
         <v>61130443</v>
       </c>
     </row>
-    <row r="192" spans="10:13">
+    <row r="192" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J192">
         <v>53301856</v>
       </c>
@@ -24917,7 +23485,7 @@
         <v>61109320</v>
       </c>
     </row>
-    <row r="193" spans="10:13">
+    <row r="193" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J193">
         <v>53297823</v>
       </c>
@@ -24931,7 +23499,7 @@
         <v>61100457</v>
       </c>
     </row>
-    <row r="194" spans="10:13">
+    <row r="194" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J194">
         <v>53285618</v>
       </c>
@@ -24945,7 +23513,7 @@
         <v>61077964</v>
       </c>
     </row>
-    <row r="195" spans="10:13">
+    <row r="195" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J195">
         <v>53290244</v>
       </c>
@@ -24959,7 +23527,7 @@
         <v>61100878</v>
       </c>
     </row>
-    <row r="196" spans="10:13">
+    <row r="196" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K196">
         <v>70298121</v>
       </c>
@@ -24970,7 +23538,7 @@
         <v>61121464</v>
       </c>
     </row>
-    <row r="197" spans="10:13">
+    <row r="197" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J197">
         <v>53037333</v>
       </c>
@@ -24984,7 +23552,7 @@
         <v>61132562</v>
       </c>
     </row>
-    <row r="198" spans="10:13">
+    <row r="198" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J198">
         <v>53064515</v>
       </c>
@@ -24998,7 +23566,7 @@
         <v>61106644</v>
       </c>
     </row>
-    <row r="199" spans="10:13">
+    <row r="199" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J199">
         <v>53045051</v>
       </c>
@@ -25012,7 +23580,7 @@
         <v>61118054</v>
       </c>
     </row>
-    <row r="200" spans="10:13">
+    <row r="200" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J200">
         <v>53034397</v>
       </c>
@@ -25026,7 +23594,7 @@
         <v>61121456</v>
       </c>
     </row>
-    <row r="201" spans="10:13">
+    <row r="201" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J201">
         <v>53036594</v>
       </c>
@@ -25040,7 +23608,7 @@
         <v>61105902</v>
       </c>
     </row>
-    <row r="202" spans="10:13">
+    <row r="202" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J202">
         <v>53053546</v>
       </c>
@@ -25054,7 +23622,7 @@
         <v>61107903</v>
       </c>
     </row>
-    <row r="203" spans="10:13">
+    <row r="203" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J203">
         <v>53048043</v>
       </c>
@@ -25068,7 +23636,7 @@
         <v>61127370</v>
       </c>
     </row>
-    <row r="204" spans="10:13">
+    <row r="204" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J204">
         <v>53056417</v>
       </c>
@@ -25082,7 +23650,7 @@
         <v>61105795</v>
       </c>
     </row>
-    <row r="205" spans="10:13">
+    <row r="205" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J205">
         <v>53038106</v>
       </c>
@@ -25096,7 +23664,7 @@
         <v>61108390</v>
       </c>
     </row>
-    <row r="206" spans="10:13">
+    <row r="206" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J206">
         <v>53046682</v>
       </c>
@@ -25110,7 +23678,7 @@
         <v>61122594</v>
       </c>
     </row>
-    <row r="207" spans="10:13">
+    <row r="207" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J207">
         <v>53049883</v>
       </c>
@@ -25124,7 +23692,7 @@
         <v>61127121</v>
       </c>
     </row>
-    <row r="208" spans="10:13">
+    <row r="208" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J208">
         <v>53052112</v>
       </c>
@@ -25138,7 +23706,7 @@
         <v>61119108</v>
       </c>
     </row>
-    <row r="209" spans="10:13">
+    <row r="209" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J209">
         <v>53032103</v>
       </c>
@@ -25152,7 +23720,7 @@
         <v>61115082</v>
       </c>
     </row>
-    <row r="210" spans="10:13">
+    <row r="210" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J210">
         <v>53038613</v>
       </c>
@@ -25166,7 +23734,7 @@
         <v>61119165</v>
       </c>
     </row>
-    <row r="211" spans="10:13">
+    <row r="211" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J211">
         <v>53039762</v>
       </c>
@@ -25180,7 +23748,7 @@
         <v>61130275</v>
       </c>
     </row>
-    <row r="212" spans="10:13">
+    <row r="212" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J212">
         <v>53055417</v>
       </c>
@@ -25194,7 +23762,7 @@
         <v>61106516</v>
       </c>
     </row>
-    <row r="213" spans="10:13">
+    <row r="213" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J213">
         <v>53053036</v>
       </c>
@@ -25208,7 +23776,7 @@
         <v>61105511</v>
       </c>
     </row>
-    <row r="214" spans="10:13">
+    <row r="214" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J214">
         <v>53058128</v>
       </c>
@@ -25222,7 +23790,7 @@
         <v>61112607</v>
       </c>
     </row>
-    <row r="215" spans="10:13">
+    <row r="215" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J215">
         <v>53052537</v>
       </c>
@@ -25236,7 +23804,7 @@
         <v>61106202</v>
       </c>
     </row>
-    <row r="216" spans="10:13">
+    <row r="216" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J216">
         <v>53059298</v>
       </c>
@@ -25250,7 +23818,7 @@
         <v>61133168</v>
       </c>
     </row>
-    <row r="217" spans="10:13">
+    <row r="217" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J217">
         <v>53060425</v>
       </c>
@@ -25261,7 +23829,7 @@
         <v>61125616</v>
       </c>
     </row>
-    <row r="218" spans="10:13">
+    <row r="218" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J218">
         <v>53054054</v>
       </c>
@@ -25275,7 +23843,7 @@
         <v>61125397</v>
       </c>
     </row>
-    <row r="219" spans="10:13">
+    <row r="219" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J219">
         <v>53051094</v>
       </c>
@@ -25289,7 +23857,7 @@
         <v>61124249</v>
       </c>
     </row>
-    <row r="220" spans="10:13">
+    <row r="220" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J220">
         <v>53059581</v>
       </c>
@@ -25300,7 +23868,7 @@
         <v>61123186</v>
       </c>
     </row>
-    <row r="221" spans="10:13">
+    <row r="221" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J221">
         <v>53050976</v>
       </c>
@@ -25314,7 +23882,7 @@
         <v>61120459</v>
       </c>
     </row>
-    <row r="222" spans="10:13">
+    <row r="222" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J222">
         <v>53056703</v>
       </c>
@@ -25328,7 +23896,7 @@
         <v>61121472</v>
       </c>
     </row>
-    <row r="223" spans="10:13">
+    <row r="223" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J223">
         <v>53057178</v>
       </c>
@@ -25339,7 +23907,7 @@
         <v>67781800</v>
       </c>
     </row>
-    <row r="224" spans="10:13">
+    <row r="224" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J224">
         <v>53031907</v>
       </c>
@@ -25353,7 +23921,7 @@
         <v>72963703</v>
       </c>
     </row>
-    <row r="225" spans="10:13">
+    <row r="225" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J225">
         <v>53031486</v>
       </c>
@@ -25367,7 +23935,7 @@
         <v>72962888</v>
       </c>
     </row>
-    <row r="226" spans="10:13">
+    <row r="226" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J226">
         <v>53034226</v>
       </c>
@@ -25381,7 +23949,7 @@
         <v>72972105</v>
       </c>
     </row>
-    <row r="227" spans="10:13">
+    <row r="227" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J227">
         <v>53056933</v>
       </c>
@@ -25395,7 +23963,7 @@
         <v>72963910</v>
       </c>
     </row>
-    <row r="228" spans="10:13">
+    <row r="228" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J228">
         <v>53036388</v>
       </c>
@@ -25409,7 +23977,7 @@
         <v>72961428</v>
       </c>
     </row>
-    <row r="229" spans="10:13">
+    <row r="229" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J229">
         <v>53051661</v>
       </c>
@@ -25423,7 +23991,7 @@
         <v>72978414</v>
       </c>
     </row>
-    <row r="230" spans="10:13">
+    <row r="230" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J230">
         <v>53035391</v>
       </c>
@@ -25437,7 +24005,7 @@
         <v>72959922</v>
       </c>
     </row>
-    <row r="231" spans="10:13">
+    <row r="231" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J231">
         <v>53034892</v>
       </c>
@@ -25451,7 +24019,7 @@
         <v>72964416</v>
       </c>
     </row>
-    <row r="232" spans="10:13">
+    <row r="232" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J232">
         <v>53052037</v>
       </c>
@@ -25465,7 +24033,7 @@
         <v>72969845</v>
       </c>
     </row>
-    <row r="233" spans="10:13">
+    <row r="233" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J233">
         <v>53038406</v>
       </c>
@@ -25479,7 +24047,7 @@
         <v>72959502</v>
       </c>
     </row>
-    <row r="234" spans="10:13">
+    <row r="234" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J234">
         <v>53059775</v>
       </c>
@@ -25493,7 +24061,7 @@
         <v>72963100</v>
       </c>
     </row>
-    <row r="235" spans="10:13">
+    <row r="235" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J235">
         <v>53057080</v>
       </c>
@@ -25507,7 +24075,7 @@
         <v>72961651</v>
       </c>
     </row>
-    <row r="236" spans="10:13">
+    <row r="236" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J236">
         <v>53031821</v>
       </c>
@@ -25521,7 +24089,7 @@
         <v>72994354</v>
       </c>
     </row>
-    <row r="237" spans="10:13">
+    <row r="237" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J237">
         <v>53050082</v>
       </c>
@@ -25535,7 +24103,7 @@
         <v>72956649</v>
       </c>
     </row>
-    <row r="238" spans="10:13">
+    <row r="238" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J238">
         <v>53038759</v>
       </c>
@@ -25549,7 +24117,7 @@
         <v>72990702</v>
       </c>
     </row>
-    <row r="239" spans="10:13">
+    <row r="239" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J239">
         <v>53059545</v>
       </c>
@@ -25563,7 +24131,7 @@
         <v>72991343</v>
       </c>
     </row>
-    <row r="240" spans="10:13">
+    <row r="240" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J240">
         <v>53035469</v>
       </c>
@@ -25577,7 +24145,7 @@
         <v>72971974</v>
       </c>
     </row>
-    <row r="241" spans="10:13">
+    <row r="241" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J241">
         <v>53048338</v>
       </c>
@@ -25591,7 +24159,7 @@
         <v>72965466</v>
       </c>
     </row>
-    <row r="242" spans="10:13">
+    <row r="242" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J242">
         <v>53051362</v>
       </c>
@@ -25605,7 +24173,7 @@
         <v>72966401</v>
       </c>
     </row>
-    <row r="243" spans="10:13">
+    <row r="243" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J243">
         <v>53048234</v>
       </c>
@@ -25619,7 +24187,7 @@
         <v>72971108</v>
       </c>
     </row>
-    <row r="244" spans="10:13">
+    <row r="244" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J244">
         <v>53034574</v>
       </c>
@@ -25633,7 +24201,7 @@
         <v>72978047</v>
       </c>
     </row>
-    <row r="245" spans="10:13">
+    <row r="245" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J245">
         <v>53034224</v>
       </c>
@@ -25647,7 +24215,7 @@
         <v>72969066</v>
       </c>
     </row>
-    <row r="246" spans="10:13">
+    <row r="246" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J246">
         <v>53031666</v>
       </c>
@@ -25661,7 +24229,7 @@
         <v>72964409</v>
       </c>
     </row>
-    <row r="247" spans="10:13">
+    <row r="247" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J247">
         <v>53051097</v>
       </c>
@@ -25675,7 +24243,7 @@
         <v>72975701</v>
       </c>
     </row>
-    <row r="248" spans="10:13">
+    <row r="248" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J248">
         <v>53048068</v>
       </c>
@@ -25689,7 +24257,7 @@
         <v>72980778</v>
       </c>
     </row>
-    <row r="249" spans="10:13">
+    <row r="249" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J249">
         <v>53035242</v>
       </c>
@@ -25703,7 +24271,7 @@
         <v>72970793</v>
       </c>
     </row>
-    <row r="250" spans="10:13">
+    <row r="250" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J250">
         <v>53051252</v>
       </c>
@@ -25717,7 +24285,7 @@
         <v>72982010</v>
       </c>
     </row>
-    <row r="251" spans="10:13">
+    <row r="251" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J251">
         <v>53034897</v>
       </c>
@@ -25731,7 +24299,7 @@
         <v>72976208</v>
       </c>
     </row>
-    <row r="252" spans="10:13">
+    <row r="252" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J252">
         <v>53056801</v>
       </c>
@@ -25745,7 +24313,7 @@
         <v>72961917</v>
       </c>
     </row>
-    <row r="253" spans="10:13">
+    <row r="253" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J253">
         <v>53053161</v>
       </c>
@@ -25759,7 +24327,7 @@
         <v>72956838</v>
       </c>
     </row>
-    <row r="254" spans="10:13">
+    <row r="254" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J254">
         <v>53058184</v>
       </c>
@@ -25773,7 +24341,7 @@
         <v>72069219</v>
       </c>
     </row>
-    <row r="255" spans="10:13">
+    <row r="255" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J255">
         <v>53052194</v>
       </c>
@@ -25787,7 +24355,7 @@
         <v>72970109</v>
       </c>
     </row>
-    <row r="256" spans="10:13">
+    <row r="256" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J256">
         <v>53031943</v>
       </c>
@@ -25801,7 +24369,7 @@
         <v>72963101</v>
       </c>
     </row>
-    <row r="257" spans="10:13">
+    <row r="257" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J257">
         <v>53031657</v>
       </c>
@@ -25815,7 +24383,7 @@
         <v>72984936</v>
       </c>
     </row>
-    <row r="258" spans="10:13">
+    <row r="258" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J258">
         <v>53059452</v>
       </c>
@@ -25829,7 +24397,7 @@
         <v>72954595</v>
       </c>
     </row>
-    <row r="259" spans="10:13">
+    <row r="259" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J259">
         <v>53059531</v>
       </c>
@@ -25843,7 +24411,7 @@
         <v>72966840</v>
       </c>
     </row>
-    <row r="260" spans="10:13">
+    <row r="260" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J260">
         <v>53061151</v>
       </c>
@@ -25857,7 +24425,7 @@
         <v>72989129</v>
       </c>
     </row>
-    <row r="261" spans="10:13">
+    <row r="261" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K261">
         <v>67561248</v>
       </c>
@@ -25868,7 +24436,7 @@
         <v>72993886</v>
       </c>
     </row>
-    <row r="262" spans="10:13">
+    <row r="262" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J262">
         <v>51438288</v>
       </c>
@@ -25882,7 +24450,7 @@
         <v>72965830</v>
       </c>
     </row>
-    <row r="263" spans="10:13">
+    <row r="263" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J263">
         <v>51459356</v>
       </c>
@@ -25896,7 +24464,7 @@
         <v>72978755</v>
       </c>
     </row>
-    <row r="264" spans="10:13">
+    <row r="264" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J264">
         <v>51438325</v>
       </c>
@@ -25910,7 +24478,7 @@
         <v>72957662</v>
       </c>
     </row>
-    <row r="265" spans="10:13">
+    <row r="265" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J265">
         <v>51452979</v>
       </c>
@@ -25924,7 +24492,7 @@
         <v>72968324</v>
       </c>
     </row>
-    <row r="266" spans="10:13">
+    <row r="266" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J266">
         <v>51444192</v>
       </c>
@@ -25938,7 +24506,7 @@
         <v>72960589</v>
       </c>
     </row>
-    <row r="267" spans="10:13">
+    <row r="267" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J267">
         <v>51449013</v>
       </c>
@@ -25952,7 +24520,7 @@
         <v>72963782</v>
       </c>
     </row>
-    <row r="268" spans="10:13">
+    <row r="268" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J268">
         <v>51441376</v>
       </c>
@@ -25966,7 +24534,7 @@
         <v>72968051</v>
       </c>
     </row>
-    <row r="269" spans="10:13">
+    <row r="269" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J269">
         <v>51453085</v>
       </c>
@@ -25980,7 +24548,7 @@
         <v>72965809</v>
       </c>
     </row>
-    <row r="270" spans="10:13">
+    <row r="270" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J270">
         <v>51441377</v>
       </c>
@@ -25994,7 +24562,7 @@
         <v>72960822</v>
       </c>
     </row>
-    <row r="271" spans="10:13">
+    <row r="271" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J271">
         <v>51442180</v>
       </c>
@@ -26008,7 +24576,7 @@
         <v>72981227</v>
       </c>
     </row>
-    <row r="272" spans="10:13">
+    <row r="272" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J272">
         <v>51437678</v>
       </c>
@@ -26022,7 +24590,7 @@
         <v>72989699</v>
       </c>
     </row>
-    <row r="273" spans="10:13">
+    <row r="273" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J273">
         <v>51439594</v>
       </c>
@@ -26036,7 +24604,7 @@
         <v>72964881</v>
       </c>
     </row>
-    <row r="274" spans="10:13">
+    <row r="274" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J274">
         <v>51438083</v>
       </c>
@@ -26050,7 +24618,7 @@
         <v>72982695</v>
       </c>
     </row>
-    <row r="275" spans="10:13">
+    <row r="275" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J275">
         <v>51451047</v>
       </c>
@@ -26064,7 +24632,7 @@
         <v>72979498</v>
       </c>
     </row>
-    <row r="276" spans="10:13">
+    <row r="276" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J276">
         <v>51448615</v>
       </c>
@@ -26078,7 +24646,7 @@
         <v>72990082</v>
       </c>
     </row>
-    <row r="277" spans="10:13">
+    <row r="277" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J277">
         <v>51456331</v>
       </c>
@@ -26092,7 +24660,7 @@
         <v>72971072</v>
       </c>
     </row>
-    <row r="278" spans="10:13">
+    <row r="278" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J278">
         <v>51444607</v>
       </c>
@@ -26106,7 +24674,7 @@
         <v>72972905</v>
       </c>
     </row>
-    <row r="279" spans="10:13">
+    <row r="279" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J279">
         <v>51451010</v>
       </c>
@@ -26120,7 +24688,7 @@
         <v>72956882</v>
       </c>
     </row>
-    <row r="280" spans="10:13">
+    <row r="280" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J280">
         <v>51443870</v>
       </c>
@@ -26134,7 +24702,7 @@
         <v>72989955</v>
       </c>
     </row>
-    <row r="281" spans="10:13">
+    <row r="281" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J281">
         <v>51449571</v>
       </c>
@@ -26148,7 +24716,7 @@
         <v>72957270</v>
       </c>
     </row>
-    <row r="282" spans="10:13">
+    <row r="282" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J282">
         <v>51448894</v>
       </c>
@@ -26162,7 +24730,7 @@
         <v>72956901</v>
       </c>
     </row>
-    <row r="283" spans="10:13">
+    <row r="283" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J283">
         <v>51444595</v>
       </c>
@@ -26176,7 +24744,7 @@
         <v>72995757</v>
       </c>
     </row>
-    <row r="284" spans="10:13">
+    <row r="284" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J284">
         <v>51456065</v>
       </c>
@@ -26190,7 +24758,7 @@
         <v>72987420</v>
       </c>
     </row>
-    <row r="285" spans="10:13">
+    <row r="285" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J285">
         <v>51459938</v>
       </c>
@@ -26204,7 +24772,7 @@
         <v>72961333</v>
       </c>
     </row>
-    <row r="286" spans="10:13">
+    <row r="286" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J286">
         <v>51455715</v>
       </c>
@@ -26218,7 +24786,7 @@
         <v>72959588</v>
       </c>
     </row>
-    <row r="287" spans="10:13">
+    <row r="287" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J287">
         <v>51456978</v>
       </c>
@@ -26232,7 +24800,7 @@
         <v>72970873</v>
       </c>
     </row>
-    <row r="288" spans="10:13">
+    <row r="288" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J288">
         <v>51457253</v>
       </c>
@@ -26246,7 +24814,7 @@
         <v>72962443</v>
       </c>
     </row>
-    <row r="289" spans="10:13">
+    <row r="289" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J289">
         <v>51453859</v>
       </c>
@@ -26257,7 +24825,7 @@
         <v>72989868</v>
       </c>
     </row>
-    <row r="290" spans="10:13">
+    <row r="290" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J290">
         <v>51457210</v>
       </c>
@@ -26271,7 +24839,7 @@
         <v>72959073</v>
       </c>
     </row>
-    <row r="291" spans="10:13">
+    <row r="291" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J291">
         <v>51436968</v>
       </c>
@@ -26285,7 +24853,7 @@
         <v>72973000</v>
       </c>
     </row>
-    <row r="292" spans="10:13">
+    <row r="292" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J292">
         <v>51446141</v>
       </c>
@@ -26299,7 +24867,7 @@
         <v>72957343</v>
       </c>
     </row>
-    <row r="293" spans="10:13">
+    <row r="293" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J293">
         <v>51452978</v>
       </c>
@@ -26310,7 +24878,7 @@
         <v>72958745</v>
       </c>
     </row>
-    <row r="294" spans="10:13">
+    <row r="294" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J294">
         <v>51453823</v>
       </c>
@@ -26324,7 +24892,7 @@
         <v>72959643</v>
       </c>
     </row>
-    <row r="295" spans="10:13">
+    <row r="295" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J295">
         <v>51444611</v>
       </c>
@@ -26338,7 +24906,7 @@
         <v>72974195</v>
       </c>
     </row>
-    <row r="296" spans="10:13">
+    <row r="296" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J296">
         <v>51444517</v>
       </c>
@@ -26352,7 +24920,7 @@
         <v>72962898</v>
       </c>
     </row>
-    <row r="297" spans="10:13">
+    <row r="297" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J297">
         <v>51443859</v>
       </c>
@@ -26363,7 +24931,7 @@
         <v>67470839</v>
       </c>
     </row>
-    <row r="298" spans="10:13">
+    <row r="298" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J298">
         <v>51460186</v>
       </c>
@@ -26377,7 +24945,7 @@
         <v>74448791</v>
       </c>
     </row>
-    <row r="299" spans="10:13">
+    <row r="299" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J299">
         <v>51449663</v>
       </c>
@@ -26391,7 +24959,7 @@
         <v>74457022</v>
       </c>
     </row>
-    <row r="300" spans="10:13">
+    <row r="300" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J300">
         <v>51454725</v>
       </c>
@@ -26405,7 +24973,7 @@
         <v>74465294</v>
       </c>
     </row>
-    <row r="301" spans="10:13">
+    <row r="301" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J301">
         <v>51440839</v>
       </c>
@@ -26419,7 +24987,7 @@
         <v>74466562</v>
       </c>
     </row>
-    <row r="302" spans="10:13">
+    <row r="302" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J302">
         <v>51449172</v>
       </c>
@@ -26433,7 +25001,7 @@
         <v>74448295</v>
       </c>
     </row>
-    <row r="303" spans="10:13">
+    <row r="303" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J303">
         <v>51443703</v>
       </c>
@@ -26447,7 +25015,7 @@
         <v>74469808</v>
       </c>
     </row>
-    <row r="304" spans="10:13">
+    <row r="304" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J304">
         <v>51444104</v>
       </c>
@@ -26461,7 +25029,7 @@
         <v>74468623</v>
       </c>
     </row>
-    <row r="305" spans="10:13">
+    <row r="305" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J305">
         <v>51441685</v>
       </c>
@@ -26475,7 +25043,7 @@
         <v>74470218</v>
       </c>
     </row>
-    <row r="306" spans="10:13">
+    <row r="306" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J306">
         <v>51454304</v>
       </c>
@@ -26489,7 +25057,7 @@
         <v>74463580</v>
       </c>
     </row>
-    <row r="307" spans="10:13">
+    <row r="307" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J307">
         <v>51452168</v>
       </c>
@@ -26503,7 +25071,7 @@
         <v>74457499</v>
       </c>
     </row>
-    <row r="308" spans="10:13">
+    <row r="308" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J308">
         <v>51439692</v>
       </c>
@@ -26517,7 +25085,7 @@
         <v>74470460</v>
       </c>
     </row>
-    <row r="309" spans="10:13">
+    <row r="309" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J309">
         <v>51440053</v>
       </c>
@@ -26531,7 +25099,7 @@
         <v>74448186</v>
       </c>
     </row>
-    <row r="310" spans="10:13">
+    <row r="310" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J310">
         <v>51439922</v>
       </c>
@@ -26545,7 +25113,7 @@
         <v>74455732</v>
       </c>
     </row>
-    <row r="311" spans="10:13">
+    <row r="311" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J311">
         <v>51459308</v>
       </c>
@@ -26559,7 +25127,7 @@
         <v>74454250</v>
       </c>
     </row>
-    <row r="312" spans="10:13">
+    <row r="312" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J312">
         <v>51458720</v>
       </c>
@@ -26573,7 +25141,7 @@
         <v>74454812</v>
       </c>
     </row>
-    <row r="313" spans="10:13">
+    <row r="313" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J313">
         <v>51442062</v>
       </c>
@@ -26587,7 +25155,7 @@
         <v>74452394</v>
       </c>
     </row>
-    <row r="314" spans="10:13">
+    <row r="314" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J314">
         <v>51442195</v>
       </c>
@@ -26601,7 +25169,7 @@
         <v>74452422</v>
       </c>
     </row>
-    <row r="315" spans="10:13">
+    <row r="315" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J315">
         <v>51438513</v>
       </c>
@@ -26615,7 +25183,7 @@
         <v>74452744</v>
       </c>
     </row>
-    <row r="316" spans="10:13">
+    <row r="316" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J316">
         <v>51446229</v>
       </c>
@@ -26629,7 +25197,7 @@
         <v>74460414</v>
       </c>
     </row>
-    <row r="317" spans="10:13">
+    <row r="317" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J317">
         <v>51439576</v>
       </c>
@@ -26643,7 +25211,7 @@
         <v>74460074</v>
       </c>
     </row>
-    <row r="318" spans="10:13">
+    <row r="318" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J318">
         <v>51444650</v>
       </c>
@@ -26657,7 +25225,7 @@
         <v>74417569</v>
       </c>
     </row>
-    <row r="319" spans="10:13">
+    <row r="319" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J319">
         <v>51459671</v>
       </c>
@@ -26671,7 +25239,7 @@
         <v>74458856</v>
       </c>
     </row>
-    <row r="320" spans="10:13">
+    <row r="320" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J320">
         <v>51439568</v>
       </c>
@@ -26685,7 +25253,7 @@
         <v>74466934</v>
       </c>
     </row>
-    <row r="321" spans="9:13">
+    <row r="321" spans="9:13" x14ac:dyDescent="0.2">
       <c r="J321">
         <v>51449167</v>
       </c>
@@ -26699,7 +25267,7 @@
         <v>74457015</v>
       </c>
     </row>
-    <row r="322" spans="9:13">
+    <row r="322" spans="9:13" x14ac:dyDescent="0.2">
       <c r="J322">
         <v>51449013</v>
       </c>
@@ -26713,7 +25281,7 @@
         <v>74465497</v>
       </c>
     </row>
-    <row r="323" spans="9:13">
+    <row r="323" spans="9:13" x14ac:dyDescent="0.2">
       <c r="J323">
         <v>51439374</v>
       </c>
@@ -26727,7 +25295,7 @@
         <v>74471559</v>
       </c>
     </row>
-    <row r="324" spans="9:13">
+    <row r="324" spans="9:13" x14ac:dyDescent="0.2">
       <c r="J324">
         <v>51440168</v>
       </c>
@@ -26741,7 +25309,7 @@
         <v>74470050</v>
       </c>
     </row>
-    <row r="325" spans="9:13">
+    <row r="325" spans="9:13" x14ac:dyDescent="0.2">
       <c r="J325">
         <v>51451687</v>
       </c>
@@ -26755,7 +25323,7 @@
         <v>74460231</v>
       </c>
     </row>
-    <row r="326" spans="9:13">
+    <row r="326" spans="9:13" x14ac:dyDescent="0.2">
       <c r="K326">
         <v>72609453</v>
       </c>
@@ -26766,7 +25334,7 @@
         <v>74466273</v>
       </c>
     </row>
-    <row r="327" spans="9:13">
+    <row r="327" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I327" t="s">
         <v>3</v>
       </c>
@@ -26784,7 +25352,7 @@
         <v>74455399</v>
       </c>
     </row>
-    <row r="328" spans="9:13">
+    <row r="328" spans="9:13" x14ac:dyDescent="0.2">
       <c r="I328" t="s">
         <v>2</v>
       </c>
@@ -26802,7 +25370,7 @@
         <v>74462491</v>
       </c>
     </row>
-    <row r="329" spans="9:13">
+    <row r="329" spans="9:13" x14ac:dyDescent="0.2">
       <c r="K329">
         <v>72593476</v>
       </c>
@@ -26813,7 +25381,7 @@
         <v>74466976</v>
       </c>
     </row>
-    <row r="330" spans="9:13">
+    <row r="330" spans="9:13" x14ac:dyDescent="0.2">
       <c r="K330">
         <v>72591352</v>
       </c>
@@ -26824,7 +25392,7 @@
         <v>74450102</v>
       </c>
     </row>
-    <row r="331" spans="9:13">
+    <row r="331" spans="9:13" x14ac:dyDescent="0.2">
       <c r="K331">
         <v>72600027</v>
       </c>
@@ -26835,7 +25403,7 @@
         <v>74463845</v>
       </c>
     </row>
-    <row r="332" spans="9:13">
+    <row r="332" spans="9:13" x14ac:dyDescent="0.2">
       <c r="K332">
         <v>72607573</v>
       </c>
@@ -26846,7 +25414,7 @@
         <v>74463349</v>
       </c>
     </row>
-    <row r="333" spans="9:13">
+    <row r="333" spans="9:13" x14ac:dyDescent="0.2">
       <c r="K333">
         <v>72601055</v>
       </c>
@@ -26857,7 +25425,7 @@
         <v>74469951</v>
       </c>
     </row>
-    <row r="334" spans="9:13">
+    <row r="334" spans="9:13" x14ac:dyDescent="0.2">
       <c r="K334">
         <v>72600374</v>
       </c>
@@ -26868,7 +25436,7 @@
         <v>74471402</v>
       </c>
     </row>
-    <row r="335" spans="9:13">
+    <row r="335" spans="9:13" x14ac:dyDescent="0.2">
       <c r="K335">
         <v>72611131</v>
       </c>
@@ -26879,7 +25447,7 @@
         <v>74458097</v>
       </c>
     </row>
-    <row r="336" spans="9:13">
+    <row r="336" spans="9:13" x14ac:dyDescent="0.2">
       <c r="K336">
         <v>72610706</v>
       </c>
@@ -26890,7 +25458,7 @@
         <v>74455923</v>
       </c>
     </row>
-    <row r="337" spans="11:13">
+    <row r="337" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K337">
         <v>72608993</v>
       </c>
@@ -26901,7 +25469,7 @@
         <v>74461684</v>
       </c>
     </row>
-    <row r="338" spans="11:13">
+    <row r="338" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K338">
         <v>72594967</v>
       </c>
@@ -26912,7 +25480,7 @@
         <v>74465112</v>
       </c>
     </row>
-    <row r="339" spans="11:13">
+    <row r="339" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K339">
         <v>72590002</v>
       </c>
@@ -26923,7 +25491,7 @@
         <v>74464352</v>
       </c>
     </row>
-    <row r="340" spans="11:13">
+    <row r="340" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K340">
         <v>72590945</v>
       </c>
@@ -26934,7 +25502,7 @@
         <v>74464832</v>
       </c>
     </row>
-    <row r="341" spans="11:13">
+    <row r="341" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K341">
         <v>72593190</v>
       </c>
@@ -26945,7 +25513,7 @@
         <v>74449047</v>
       </c>
     </row>
-    <row r="342" spans="11:13">
+    <row r="342" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K342">
         <v>72602713</v>
       </c>
@@ -26956,7 +25524,7 @@
         <v>74462506</v>
       </c>
     </row>
-    <row r="343" spans="11:13">
+    <row r="343" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K343">
         <v>72593499</v>
       </c>
@@ -26967,7 +25535,7 @@
         <v>74461938</v>
       </c>
     </row>
-    <row r="344" spans="11:13">
+    <row r="344" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K344">
         <v>72591049</v>
       </c>
@@ -26978,7 +25546,7 @@
         <v>74464838</v>
       </c>
     </row>
-    <row r="345" spans="11:13">
+    <row r="345" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K345">
         <v>72604156</v>
       </c>
@@ -26989,7 +25557,7 @@
         <v>74450894</v>
       </c>
     </row>
-    <row r="346" spans="11:13">
+    <row r="346" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K346">
         <v>72590487</v>
       </c>
@@ -27000,7 +25568,7 @@
         <v>74474954</v>
       </c>
     </row>
-    <row r="347" spans="11:13">
+    <row r="347" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K347">
         <v>72595659</v>
       </c>
@@ -27011,7 +25579,7 @@
         <v>74462948</v>
       </c>
     </row>
-    <row r="348" spans="11:13">
+    <row r="348" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K348">
         <v>72594106</v>
       </c>
@@ -27022,7 +25590,7 @@
         <v>74471038</v>
       </c>
     </row>
-    <row r="349" spans="11:13">
+    <row r="349" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K349">
         <v>72603206</v>
       </c>
@@ -27033,7 +25601,7 @@
         <v>74474666</v>
       </c>
     </row>
-    <row r="350" spans="11:13">
+    <row r="350" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K350">
         <v>72601968</v>
       </c>
@@ -27044,7 +25612,7 @@
         <v>74469962</v>
       </c>
     </row>
-    <row r="351" spans="11:13">
+    <row r="351" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K351">
         <v>72599449</v>
       </c>
@@ -27055,7 +25623,7 @@
         <v>74448209</v>
       </c>
     </row>
-    <row r="352" spans="11:13">
+    <row r="352" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K352">
         <v>72603943</v>
       </c>
@@ -27066,7 +25634,7 @@
         <v>74469977</v>
       </c>
     </row>
-    <row r="353" spans="10:13">
+    <row r="353" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K353">
         <v>72598646</v>
       </c>
@@ -27077,7 +25645,7 @@
         <v>74448038</v>
       </c>
     </row>
-    <row r="354" spans="10:13">
+    <row r="354" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K354">
         <v>72609144</v>
       </c>
@@ -27088,7 +25656,7 @@
         <v>74450035</v>
       </c>
     </row>
-    <row r="355" spans="10:13">
+    <row r="355" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K355">
         <v>72596308</v>
       </c>
@@ -27099,7 +25667,7 @@
         <v>74470349</v>
       </c>
     </row>
-    <row r="356" spans="10:13">
+    <row r="356" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K356">
         <v>72610658</v>
       </c>
@@ -27110,7 +25678,7 @@
         <v>74469802</v>
       </c>
     </row>
-    <row r="357" spans="10:13">
+    <row r="357" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K357">
         <v>72607053</v>
       </c>
@@ -27121,7 +25689,7 @@
         <v>74451206</v>
       </c>
     </row>
-    <row r="358" spans="10:13">
+    <row r="358" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K358">
         <v>72602742</v>
       </c>
@@ -27132,7 +25700,7 @@
         <v>74472728</v>
       </c>
     </row>
-    <row r="359" spans="10:13">
+    <row r="359" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K359">
         <v>72598096</v>
       </c>
@@ -27143,7 +25711,7 @@
         <v>74448524</v>
       </c>
     </row>
-    <row r="360" spans="10:13">
+    <row r="360" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K360">
         <v>72594157</v>
       </c>
@@ -27154,7 +25722,7 @@
         <v>74458376</v>
       </c>
     </row>
-    <row r="361" spans="10:13">
+    <row r="361" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L361">
         <v>67467548</v>
       </c>
@@ -27162,7 +25730,7 @@
         <v>74456895</v>
       </c>
     </row>
-    <row r="362" spans="10:13">
+    <row r="362" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J362" t="s">
         <v>3</v>
       </c>
@@ -27177,7 +25745,7 @@
         <v>74453441</v>
       </c>
     </row>
-    <row r="363" spans="10:13">
+    <row r="363" spans="10:13" x14ac:dyDescent="0.2">
       <c r="J363" t="s">
         <v>2</v>
       </c>
@@ -27192,7 +25760,7 @@
         <v>74473528</v>
       </c>
     </row>
-    <row r="364" spans="10:13">
+    <row r="364" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L364">
         <v>67461795</v>
       </c>
@@ -27200,7 +25768,7 @@
         <v>74475607</v>
       </c>
     </row>
-    <row r="365" spans="10:13">
+    <row r="365" spans="10:13" x14ac:dyDescent="0.2">
       <c r="L365">
         <v>67485171</v>
       </c>
@@ -27208,12 +25776,12 @@
         <v>74449697</v>
       </c>
     </row>
-    <row r="366" spans="10:13">
+    <row r="366" spans="10:13" x14ac:dyDescent="0.2">
       <c r="M366">
         <v>74469422</v>
       </c>
     </row>
-    <row r="367" spans="10:13">
+    <row r="367" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K367" t="s">
         <v>3</v>
       </c>
@@ -27225,7 +25793,7 @@
         <v>74449215</v>
       </c>
     </row>
-    <row r="368" spans="10:13">
+    <row r="368" spans="10:13" x14ac:dyDescent="0.2">
       <c r="K368" t="s">
         <v>2</v>
       </c>
@@ -27237,17 +25805,17 @@
         <v>74534030</v>
       </c>
     </row>
-    <row r="369" spans="12:13">
+    <row r="369" spans="12:13" x14ac:dyDescent="0.2">
       <c r="M369">
         <v>74471308</v>
       </c>
     </row>
-    <row r="370" spans="12:13">
+    <row r="370" spans="12:13" x14ac:dyDescent="0.2">
       <c r="M370">
         <v>74452817</v>
       </c>
     </row>
-    <row r="372" spans="12:13">
+    <row r="372" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L372" t="s">
         <v>3</v>
       </c>
@@ -27256,7 +25824,7 @@
         <v>67121657.375342458</v>
       </c>
     </row>
-    <row r="373" spans="12:13">
+    <row r="373" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L373" t="s">
         <v>2</v>
       </c>
@@ -27279,14 +25847,14 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -27335,7 +25903,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -27369,7 +25937,7 @@
         <v>73</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2">
@@ -27409,7 +25977,7 @@
         <v>502.24403278904055</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="D3" s="2">
         <v>210881843</v>
@@ -27439,7 +26007,7 @@
         <v>561737988.04109502</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="D4" s="2">
         <v>183315519.5</v>
@@ -27469,7 +26037,7 @@
         <v>495951334.80821902</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="D5" s="2">
         <v>170550043.5</v>
@@ -27499,7 +26067,7 @@
         <v>478290952.02739698</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="D6" s="2">
         <v>183285359.5</v>
@@ -27529,7 +26097,7 @@
         <v>436858060.986301</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="D7" s="2">
         <v>181204876.5</v>
@@ -27559,9 +26127,9 @@
         <v>538381828.08219099</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:L8" si="1">(SUM(D3:D7)/COUNT(D3:D7))/1000000</f>
@@ -27600,9 +26168,9 @@
         <v>502.24403278904055</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -27620,7 +26188,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="7">
         <v>1</v>
@@ -27654,7 +26222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="D11" s="2">
         <v>210935017</v>
@@ -27684,7 +26252,7 @@
         <v>570638578</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="D12" s="2">
         <v>183584129</v>
@@ -27714,7 +26282,7 @@
         <v>503492432</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="D13" s="2">
         <v>172021362</v>
@@ -27744,7 +26312,7 @@
         <v>487305771</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="D14" s="2">
         <v>183771357</v>
@@ -27774,7 +26342,7 @@
         <v>445394688</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="D15" s="2">
         <v>182854993</v>
@@ -27804,7 +26372,7 @@
         <v>551935825</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16">
         <f>(SUM(D11:D15)/COUNT(D11:D15))/1000000</f>
         <v>186.6333716</v>
@@ -27842,16 +26410,16 @@
         <v>511.75345880000003</v>
       </c>
     </row>
-    <row r="17" spans="4:24">
+    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="4:24">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="4:24">
+    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:24">
+    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
       <c r="O20" s="6">
         <v>1</v>
       </c>
@@ -27883,9 +26451,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:24">
+    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
       <c r="N21" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="O21">
         <f>B10</f>
@@ -27947,14 +26515,14 @@
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -28003,7 +26571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -28037,7 +26605,7 @@
         <v>73</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2">
@@ -28077,7 +26645,7 @@
         <v>1030.7505969232848</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="D3">
         <v>366303395</v>
@@ -28107,7 +26675,7 @@
         <v>973172489.52054799</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="D4">
         <v>277301120</v>
@@ -28137,7 +26705,7 @@
         <v>1017175484.53424</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="D5">
         <v>340850550</v>
@@ -28167,7 +26735,7 @@
         <v>998882676.35616398</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="D6">
         <v>305578631.5</v>
@@ -28197,7 +26765,7 @@
         <v>1165994207.8356099</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="D7">
         <v>275615602.5</v>
@@ -28227,9 +26795,9 @@
         <v>998528126.36986303</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:L8" si="1">(SUM(D3:D7)/COUNT(D3:D7))/1000000</f>
@@ -28268,9 +26836,9 @@
         <v>1030.7505969232848</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -28288,7 +26856,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="7">
         <v>1</v>
@@ -28322,7 +26890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="D11">
         <v>370474565</v>
@@ -28352,7 +26920,7 @@
         <v>982431577</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="D12">
         <v>278900526</v>
@@ -28382,7 +26950,7 @@
         <v>1028266866</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="D13">
         <v>346234429</v>
@@ -28412,7 +26980,7 @@
         <v>1014930277</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="D14">
         <v>307429934</v>
@@ -28442,7 +27010,7 @@
         <v>1176359044</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="D15">
         <v>278046422</v>
@@ -28472,7 +27040,7 @@
         <v>1008922879</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16">
         <f t="shared" ref="D16:L16" si="2">(SUM(D11:D15)/COUNT(D11:D15))/1000000</f>
         <v>316.21717519999999</v>
@@ -28510,10 +27078,10 @@
         <v>1042.1821285999999</v>
       </c>
     </row>
-    <row r="17" spans="2:24">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
     </row>
-    <row r="20" spans="2:24">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="O20" s="6">
         <v>1</v>
       </c>
@@ -28545,9 +27113,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:24">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N21" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="P21">
         <f t="shared" ref="P21:X21" si="3">D16</f>
@@ -28586,85 +27154,85 @@
         <v>1042.1821285999999</v>
       </c>
     </row>
-    <row r="23" spans="2:24">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:24">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:24">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:24">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:24">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:24">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:24">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:24">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:24">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:24">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
     </row>
   </sheetData>
@@ -28686,16 +27254,16 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -28712,7 +27280,7 @@
       <c r="J1" s="13"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -28747,7 +27315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="E3">
         <v>16749.238902543999</v>
@@ -28777,7 +27345,7 @@
         <v>2324177.9587635999</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="E4">
         <v>14673.4470605878</v>
@@ -28807,7 +27375,7 @@
         <v>2773126.6089747399</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="E5">
         <v>16048.097022202701</v>
@@ -28837,7 +27405,7 @@
         <v>2311361.5988632701</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="E6">
         <v>14803.725488448599</v>
@@ -28867,7 +27435,7 @@
         <v>2393933.3559578098</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="E7">
         <v>16317.984959615</v>
@@ -28897,9 +27465,9 @@
         <v>2414664.1645553098</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <f>(SUM(F3:F7)/COUNT(F3:F7))/1000000</f>
@@ -28938,9 +27506,9 @@
         <v>2.443452737422946</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -28955,7 +27523,7 @@
       <c r="J9" s="9"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="7">
         <v>1</v>
@@ -28990,7 +27558,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="E11">
         <v>1449855</v>
@@ -29020,7 +27588,7 @@
         <v>79309778</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="E12">
         <v>1396301</v>
@@ -29050,7 +27618,7 @@
         <v>130439210</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="E13">
         <v>1383380</v>
@@ -29080,7 +27648,7 @@
         <v>99938852</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="E14">
         <v>1389426</v>
@@ -29110,7 +27678,7 @@
         <v>95968121</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="E15">
         <v>1458553</v>
@@ -29140,7 +27708,7 @@
         <v>59028005</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E16">
         <f>(SUM(E11:E15)/COUNT(E11:E15))/1000000</f>
         <v>1.415503</v>
@@ -29197,14 +27765,14 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -29253,7 +27821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -29287,7 +27855,7 @@
         <v>73</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2">
@@ -29327,7 +27895,7 @@
         <v>87.728488824657504</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="D3">
         <v>44794830</v>
@@ -29357,7 +27925,7 @@
         <v>89597668.821917802</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="D4">
         <v>45001843.5</v>
@@ -29387,7 +27955,7 @@
         <v>89867976.876712307</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="D5">
         <v>42097921.5</v>
@@ -29417,7 +27985,7 @@
         <v>84671150.068493098</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="D6">
         <v>45542457</v>
@@ -29447,7 +28015,7 @@
         <v>85227340.260273904</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="D7">
         <v>42926530.5</v>
@@ -29477,9 +28045,9 @@
         <v>89278308.095890403</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:L8" si="1">(SUM(D3:D7)/COUNT(D3:D7))/1000000</f>
@@ -29518,9 +28086,9 @@
         <v>87.728488824657504</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>0</v>
@@ -29538,7 +28106,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="7">
         <v>1</v>
@@ -29572,7 +28140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="D11">
         <v>44842142</v>
@@ -29602,7 +28170,7 @@
         <v>102406264</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="D12">
         <v>45008525</v>
@@ -29632,7 +28200,7 @@
         <v>109058071</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="D13">
         <v>42138859</v>
@@ -29662,7 +28230,7 @@
         <v>102469317</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="D14">
         <v>45588344</v>
@@ -29692,7 +28260,7 @@
         <v>103427986</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="D15">
         <v>42973295</v>
@@ -29722,7 +28290,7 @@
         <v>103713302</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16">
         <f t="shared" ref="D16:L16" si="2">(SUM(D11:D15)/COUNT(D11:D15))/1000000</f>
         <v>44.110233000000001</v>
@@ -29760,7 +28328,7 @@
         <v>104.21498800000001</v>
       </c>
     </row>
-    <row r="21" spans="14:24">
+    <row r="21" spans="14:24" x14ac:dyDescent="0.2">
       <c r="O21" s="6">
         <v>1</v>
       </c>
@@ -29792,9 +28360,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="14:24">
+    <row r="22" spans="14:24" x14ac:dyDescent="0.2">
       <c r="N22" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="P22">
         <f t="shared" ref="P22:X22" si="3">D16</f>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbodd/Desktop/School/Spring2020/CSC258/flat-out-rust/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B943FD5-8D4E-594B-96B9-C70AB1D3D194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBCD233-8C1F-4F4B-8832-3F39CA4ABD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{E348832D-AF6B-1E46-B83B-892A2DF636A6}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="5" xr2:uid="{E348832D-AF6B-1E46-B83B-892A2DF636A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Rust - Enqueue" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
   <si>
     <t>Seq</t>
   </si>
@@ -3598,6 +3598,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>64.161931799999991</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>185.84752840000002</c:v>
                 </c:pt>
@@ -4052,7 +4055,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>64.161931799999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>186.6333716</c:v>
@@ -13100,7 +13103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C96790-36EA-E54D-B947-0E89E8D9E645}">
   <dimension ref="A1:AA374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="116" workbookViewId="0">
       <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
@@ -19624,7 +19627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E76534-2BB7-A44A-9E54-20E8B3A76D29}">
   <dimension ref="C1:Y373"/>
   <sheetViews>
-    <sheetView topLeftCell="L27" zoomScale="118" workbookViewId="0">
+    <sheetView topLeftCell="L28" zoomScale="118" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -25841,10 +25844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B244B7B9-2FDD-0F4B-9ED0-F67B28C97BA8}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E23" sqref="E23:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25908,7 +25911,9 @@
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
@@ -25939,7 +25944,10 @@
       <c r="N2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="O2" s="8">
+        <f>C8</f>
+        <v>64.161931799999991</v>
+      </c>
       <c r="P2">
         <f t="shared" ref="P2:X2" si="0">D8</f>
         <v>185.84752840000002</v>
@@ -25979,6 +25987,9 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
+      <c r="C3">
+        <v>63275391</v>
+      </c>
       <c r="D3" s="2">
         <v>210881843</v>
       </c>
@@ -26009,6 +26020,9 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
+      <c r="C4">
+        <v>64377221</v>
+      </c>
       <c r="D4" s="2">
         <v>183315519.5</v>
       </c>
@@ -26039,6 +26053,9 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
+      <c r="C5">
+        <v>64381178</v>
+      </c>
       <c r="D5" s="2">
         <v>170550043.5</v>
       </c>
@@ -26069,6 +26086,9 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
+      <c r="C6">
+        <v>64396758</v>
+      </c>
       <c r="D6" s="2">
         <v>183285359.5</v>
       </c>
@@ -26099,6 +26119,9 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
+      <c r="C7">
+        <v>64379111</v>
+      </c>
       <c r="D7" s="2">
         <v>181204876.5</v>
       </c>
@@ -26128,11 +26151,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>9</v>
+      <c r="C8">
+        <f t="shared" ref="C8:L8" si="1">(SUM(C3:C7)/COUNT(C3:C7))/1000000</f>
+        <v>64.161931799999991</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:L8" si="1">(SUM(D3:D7)/COUNT(D3:D7))/1000000</f>
+        <f t="shared" si="1"/>
         <v>185.84752840000002</v>
       </c>
       <c r="E8">
@@ -26193,7 +26217,9 @@
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
       <c r="D10" s="7">
         <v>2</v>
       </c>
@@ -26224,6 +26250,9 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
+      <c r="C11">
+        <v>63275391</v>
+      </c>
       <c r="D11" s="2">
         <v>210935017</v>
       </c>
@@ -26254,6 +26283,9 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
+      <c r="C12">
+        <v>64377221</v>
+      </c>
       <c r="D12" s="2">
         <v>183584129</v>
       </c>
@@ -26284,6 +26316,9 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
+      <c r="C13">
+        <v>64381178</v>
+      </c>
       <c r="D13" s="2">
         <v>172021362</v>
       </c>
@@ -26314,6 +26349,9 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
+      <c r="C14">
+        <v>64396758</v>
+      </c>
       <c r="D14" s="2">
         <v>183771357</v>
       </c>
@@ -26344,6 +26382,9 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
+      <c r="C15">
+        <v>64379111</v>
+      </c>
       <c r="D15" s="2">
         <v>182854993</v>
       </c>
@@ -26373,6 +26414,10 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f>(SUM(C11:C15)/COUNT(C11:C15))/1000000</f>
+        <v>64.161931799999991</v>
+      </c>
       <c r="D16">
         <f>(SUM(D11:D15)/COUNT(D11:D15))/1000000</f>
         <v>186.6333716</v>
@@ -26410,16 +26455,16 @@
         <v>511.75345880000003</v>
       </c>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="O20" s="6">
         <v>1</v>
       </c>
@@ -26451,13 +26496,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="N21" t="s">
         <v>5</v>
       </c>
       <c r="O21">
-        <f>B10</f>
-        <v>1</v>
+        <f>C16</f>
+        <v>64.161931799999991</v>
       </c>
       <c r="P21">
         <f t="shared" ref="P21:X21" si="3">D16</f>
@@ -26495,6 +26540,72 @@
         <f t="shared" si="3"/>
         <v>511.75345880000003</v>
       </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -26512,7 +26623,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26576,7 +26687,9 @@
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
@@ -26647,6 +26760,9 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
+      <c r="C3">
+        <v>112935523</v>
+      </c>
       <c r="D3">
         <v>366303395</v>
       </c>
@@ -26677,6 +26793,9 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
+      <c r="C4">
+        <v>113437622</v>
+      </c>
       <c r="D4">
         <v>277301120</v>
       </c>
@@ -26707,6 +26826,9 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
+      <c r="C5">
+        <v>113166480</v>
+      </c>
       <c r="D5">
         <v>340850550</v>
       </c>
@@ -26737,6 +26859,9 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
+      <c r="C6">
+        <v>113072807</v>
+      </c>
       <c r="D6">
         <v>305578631.5</v>
       </c>
@@ -26767,6 +26892,9 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
+      <c r="C7">
+        <v>77112745</v>
+      </c>
       <c r="D7">
         <v>275615602.5</v>
       </c>
@@ -26796,11 +26924,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>9</v>
+      <c r="C8">
+        <f t="shared" ref="C8:L8" si="1">(SUM(C3:C7)/COUNT(C3:C7))/1000000</f>
+        <v>105.94503540000001</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:L8" si="1">(SUM(D3:D7)/COUNT(D3:D7))/1000000</f>
+        <f t="shared" si="1"/>
         <v>313.12985980000002</v>
       </c>
       <c r="E8">
@@ -26861,7 +26990,9 @@
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
       <c r="D10" s="7">
         <v>2</v>
       </c>
@@ -26892,6 +27023,9 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
+      <c r="C11">
+        <v>112935523</v>
+      </c>
       <c r="D11">
         <v>370474565</v>
       </c>
@@ -26922,6 +27056,9 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
+      <c r="C12">
+        <v>113437622</v>
+      </c>
       <c r="D12">
         <v>278900526</v>
       </c>
@@ -26952,6 +27089,9 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
+      <c r="C13">
+        <v>113166480</v>
+      </c>
       <c r="D13">
         <v>346234429</v>
       </c>
@@ -26982,6 +27122,9 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
+      <c r="C14">
+        <v>113072807</v>
+      </c>
       <c r="D14">
         <v>307429934</v>
       </c>
@@ -27012,6 +27155,9 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
+      <c r="C15">
+        <v>77112745</v>
+      </c>
       <c r="D15">
         <v>278046422</v>
       </c>
@@ -27041,8 +27187,12 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" ref="C16:L16" si="2">(SUM(C11:C15)/COUNT(C11:C15))/1000000</f>
+        <v>105.94503540000001</v>
+      </c>
       <c r="D16">
-        <f t="shared" ref="D16:L16" si="2">(SUM(D11:D15)/COUNT(D11:D15))/1000000</f>
+        <f t="shared" si="2"/>
         <v>316.21717519999999</v>
       </c>
       <c r="E16">
@@ -27761,8 +27911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FEE96C-2DE0-B84C-957D-C83EB22B2ECB}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27826,7 +27976,9 @@
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
@@ -27897,6 +28049,9 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
+      <c r="C3">
+        <v>21089125</v>
+      </c>
       <c r="D3">
         <v>44794830</v>
       </c>
@@ -27927,6 +28082,9 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
+      <c r="C4">
+        <v>21123867</v>
+      </c>
       <c r="D4">
         <v>45001843.5</v>
       </c>
@@ -27957,6 +28115,9 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
+      <c r="C5">
+        <v>21493794</v>
+      </c>
       <c r="D5">
         <v>42097921.5</v>
       </c>
@@ -27987,6 +28148,9 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
+      <c r="C6">
+        <v>21238017</v>
+      </c>
       <c r="D6">
         <v>45542457</v>
       </c>
@@ -28017,6 +28181,9 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
+      <c r="C7">
+        <v>21650654</v>
+      </c>
       <c r="D7">
         <v>42926530.5</v>
       </c>
@@ -28046,11 +28213,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>9</v>
+      <c r="C8">
+        <f t="shared" ref="C8:L8" si="1">(SUM(C3:C7)/COUNT(C3:C7))/1000000</f>
+        <v>21.319091399999998</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:L8" si="1">(SUM(D3:D7)/COUNT(D3:D7))/1000000</f>
+        <f t="shared" si="1"/>
         <v>44.072716499999999</v>
       </c>
       <c r="E8">
@@ -28111,7 +28279,9 @@
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
       <c r="D10" s="7">
         <v>2</v>
       </c>
@@ -28142,6 +28312,9 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
+      <c r="C11">
+        <v>21089125</v>
+      </c>
       <c r="D11">
         <v>44842142</v>
       </c>
@@ -28172,6 +28345,9 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
+      <c r="C12">
+        <v>21123867</v>
+      </c>
       <c r="D12">
         <v>45008525</v>
       </c>
@@ -28202,6 +28378,9 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
+      <c r="C13">
+        <v>21493794</v>
+      </c>
       <c r="D13">
         <v>42138859</v>
       </c>
@@ -28232,6 +28411,9 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
+      <c r="C14">
+        <v>21238017</v>
+      </c>
       <c r="D14">
         <v>45588344</v>
       </c>
@@ -28262,6 +28444,9 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
+      <c r="C15">
+        <v>21650654</v>
+      </c>
       <c r="D15">
         <v>42973295</v>
       </c>
@@ -28291,8 +28476,12 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" ref="C16:L16" si="2">(SUM(C11:C15)/COUNT(C11:C15))/1000000</f>
+        <v>21.319091399999998</v>
+      </c>
       <c r="D16">
-        <f t="shared" ref="D16:L16" si="2">(SUM(D11:D15)/COUNT(D11:D15))/1000000</f>
+        <f t="shared" si="2"/>
         <v>44.110233000000001</v>
       </c>
       <c r="E16">
